--- a/テスト/評価システム結合テストチェックリスト.xlsx
+++ b/テスト/評価システム結合テストチェックリスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cnas01\新人研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126EC81A-BFB2-4C90-9CFB-728BC198BC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B251BF-00C3-4E83-9FFA-B904D4BF0781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テストチェックリスト" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="443">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -3458,17 +3458,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2003/1/12,
-0,2023/4/10,専門卒(3年),
-220000,19,3,1,1,0,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,
-0年目,20代,Sep-23,-,-,-,-,-</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[会社評価]画面で[部下1名]のチェックボタン押下
 [自己評価]画面で
 2023/9の年月ですべての項目にチェックをつける
@@ -3587,17 +3576,6 @@
     </rPh>
     <rPh sb="240" eb="241">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1983/1/1,
-40,2023/4/1,0,専門卒(2年),
-226000,24,2,3,4,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,0
-年目,40代,Sep-23,-,-,-,-,-</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3713,14 +3691,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2005/1/1,
-18,2020/4/1,3,高卒,
-235000,35,2,6,2,4,-,-,-,-,2,0,-,-,0,0,-,-,-,-,2,0,
-3年目,10代,Sep-23,-,Sep-22,-,-,-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[会社評価]画面で[知人紹介1回],[知人紹介2回],[知人紹介3回]のチェックボタン押下
 [自己評価]画面で
 [2023/9]すべてチェック
@@ -3843,17 +3813,6 @@
     </rPh>
     <rPh sb="244" eb="245">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1992/12/1,
-30,2020/4/1,3,大卒(文系),
-226000,25,4,0,0,-,-,-,0,0,2,0,-,-,0,0,-,-,-,-,2,0,
-3年目,20代,Sep-23,-,Sep-22,-,-,Mar-22,CC007,0,1,CC008,3,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3981,17 +3940,6 @@
     </rPh>
     <rPh sb="259" eb="260">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2060/2/1,
--37,2082/12/1,-60,大卒(理系),
-229000,27,4,2,0,-,-4,0,0,0,2,0,-,-,0,0,-,-,-,-,-2,0,
--60年目,20代,Sep-23,-,Sep-22,-,Sep-21,Mar-22,TQ003,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4221,17 +4169,6 @@
     </rPh>
     <rPh sb="254" eb="255">
       <t>アタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,
-161,1962/3/21,61,高専卒,
-223000,23,2,0,3,,2,0,0,0,2,0,-,-,0,0,-,-,-,-,4,0,
-61年目,100代,Sep-23,-,Sep-22,-,Sep-21,Mar-22</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4363,14 +4300,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,161,1962/3/21,61,高卒,242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,61年目,100代,Sep-23,-,Sep-22,Mar-23,Sep-21,Mar-22,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[会社評価]画面で何も選択しない
 [自己評価]画面
 [2023/9]すべてチェック
@@ -4495,14 +4424,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1962/3/21,61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[自己評価]ボタン押下時[自己評価]画面に遷移することの確認</t>
     <rPh sb="1" eb="5">
       <t>ジコヒョウカ</t>
@@ -4601,28 +4522,6 @@
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,
-161,1962/3/21,61,高卒,
-242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,
-61年目,100代,
-Sep-23,-,Sep-22,Mar-23,Sep-21,Mar-22,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1962/3/21,
-61,1962/3/21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,
-61年目,0代,Sep-22,Mar-23,Sep-21,Mar-22,Sep-20,Mar-21</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10647,14 +10546,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストNo.&amp;&amp;のデータが[TM_point]
-に登録されている</t>
-    <rPh sb="25" eb="27">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[会社評価テーブル]に表示されることを確認</t>
     <rPh sb="1" eb="3">
@@ -10689,71 +10580,6 @@
     </rPh>
     <rPh sb="75" eb="77">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータをクリック
-[技官区分]入力値=技術系
-[業資区分]入力値=管理系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト20
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="18" eb="20">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10779,274 +10605,6 @@
     </rPh>
     <rPh sb="52" eb="54">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータが[TM_point]
-に登録されている</t>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータをクリック
-[技官区分]入力値=管理系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト21
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="18" eb="20">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジツム</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータをクリック
-[技官区分]入力値=管理系
-[業資区分]入力値=資格系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト22
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="18" eb="20">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータをクリック
-[技官区分]入力値=会社貢献系
-[業資区分]入力値=会社貢献系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト23
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="18" eb="20">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>カイシャコウケン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>カイシャコウケン</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="65" eb="68">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="75" eb="78">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="89" eb="92">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータをクリック
-[技官区分]入力値=管理系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト24
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="18" eb="20">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="23" eb="26">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ジツム</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>カイケイ</t>
-    </rPh>
-    <rPh sb="49" eb="52">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="61" eb="64">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="85" eb="88">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11741,9 +11299,618 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[評価項目]入力値=テスト8
+    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
+    <rPh sb="26" eb="30">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価出力</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TE_staff_sc]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[社員選択テーブル]に[TE_staff_sc]のデータが表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に[TE_staff_sc]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック時、
+クリックした行の背景色が黄色に変わることの確認</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックした行の背景色が黄色に変わる</t>
+    <rPh sb="8" eb="11">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時
+[画面選択]画面に遷移されることの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面選択]に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わることを確認</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わる</t>
+  </si>
+  <si>
+    <t>[出力]</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下後</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[出力]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力される</t>
+  </si>
+  <si>
+    <t>加藤千瑞</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2003-1-12,
+0,2023-4-10,専門卒(3年),
+220000,19,3,1,1,0,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,
+0年目,20代,2023-9,-,-,-,-,-</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1983-1-1,
+40,2023-4-1,0,専門卒(2年),
+226000,24,2,3,4,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,0
+年目,40代,2023-9,-,2022-9,2023/3,-,-</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2005-1-1,
+18,2020-4-1,3,高卒,
+235000,35,2,6,2,4,-,-,-,-,2,0,-,-,0,0,-,-,-,-,2,0,
+3年目,10代,2023-09,-,2022-09,2023-03,-,-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1992-12-1,
+30,2020-4-1,3,大卒(文系),
+226000,25,4,0,0,-,-,-,0,0,2,0,-,-,0,0,-,-,-,-,2,0,
+3年目,20代,2023-09,-,2022-09,2023-03,-,2022-03,CC007,0,1,CC008,3,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2060-2-1,
+-37,2082-12-1,-60,大卒(理系),
+229000,27,4,2,0,-,-4,0,0,0,2,0,-,-,0,0,-,-,-,-,-2,0,
+-60年目,20代,2023/09,-,2022-09,2023-03,2021-09,2022-03,TQ003,0,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1862-07-22,
+161,1962-3-21,61,高専卒,
+223000,23,2,0,3,,2,0,0,0,2,0,-,-,0,0,-,-,-,-,4,0,
+61年目,100代,2023-09,-,2022-09,2023-03,2021-09,2022-03</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1862-07-22,161,1962-3-21,61,高卒,242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,61年目,100代,2023-09,-,2022-09,2023-03,2021-092022-03,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1962-3-21,61,1962-3-21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,2022-09,2023-03,2021-09,2022-03,2020-09,2021-03</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[pt]と[Expt]の入力値が0の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
 [pt]入力値=0
 [Expt]入力値=0
+[内容]入力値=テスト15
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジツム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※ptとExptに1以上の数値を入力してください。"
+と表示される</t>
+    <rPh sb="23" eb="25">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[pt]と[Expt]の入力値が0の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=0
+[内容]入力値=テスト16
+[備考]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ギジュツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジツム</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カイケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト8
+[pt]入力値=2
+[Expt]入力値=0
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト9
+[pt]入力値=0
+[Expt]入力値=2
 [説明]入力値=なし
 [登録]ボタン押下</t>
     <rPh sb="1" eb="5">
@@ -11771,10 +11938,10 @@
   </si>
   <si>
     <t>[評価項目]入力値=テスト9
-[pt]入力値=0
-[Expt]入力値=0
+[pt]入力値=2
+[Expt]入力値=1
 [説明]入力値=なし
-[登録]ボタン押下</t>
+[更新]ボタン押下</t>
     <rPh sb="1" eb="5">
       <t>ヒョウカコウモク</t>
     </rPh>
@@ -11791,357 +11958,11 @@
       <t>ニュウリョクチ</t>
     </rPh>
     <rPh sb="49" eb="51">
-      <t>トウロク</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="55" eb="57">
       <t>オウカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
-    <rPh sb="26" eb="30">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストNo.〇のデータが[TM_self_check]
-に登録されている</t>
-    <rPh sb="29" eb="31">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト10
-[pt]入力値=0
-[Expt]入力値=0
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="42" eb="45">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価出力</t>
-    <rPh sb="0" eb="4">
-      <t>ヒョウカシュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[TE_staff_sc]にデータがあること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面読み込み時[社員選択テーブル]に[TE_staff_sc]のデータが表示されていることの確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>シャインセンタク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に[TE_staff_sc]のデータが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]クリック時、
-クリックした行の背景色が黄色に変わることの確認</t>
-    <rPh sb="1" eb="5">
-      <t>シャインセンタク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]クリック</t>
-    <rPh sb="1" eb="5">
-      <t>シャインセンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックした行の背景色が黄色に変わる</t>
-    <rPh sb="8" eb="11">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[戻る]ボタン押下時
-[画面選択]画面に遷移されることの確認</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ガメンセンタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[画面選択]に遷移される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[確認]</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員の[確認]画面に遷移されることの確認</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[確認]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員の[確認]画面に遷移される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わることを確認</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]ボタン押下</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わる</t>
-  </si>
-  <si>
-    <t>[出力]</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]ボタン押下後</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>オウカゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員のCSVファイルが出力されることを確認</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[出力]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員のCSVファイルが出力される</t>
-  </si>
-  <si>
-    <t>加藤千瑞</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -12204,7 +12025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12226,18 +12047,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12366,7 +12175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12403,9 +12212,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -12426,12 +12232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -12475,44 +12275,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12828,10 +12625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
-  <dimension ref="A1:L193"/>
+  <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H191" sqref="H191"/>
+    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B200" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12849,70 +12646,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="33">
+      <c r="I1" s="30">
         <v>45173</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>446</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I5" s="2"/>
@@ -12920,52 +12717,52 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -12986,7 +12783,7 @@
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -13013,7 +12810,7 @@
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -13040,7 +12837,7 @@
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -13067,7 +12864,7 @@
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -13094,7 +12891,7 @@
       <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -13121,13 +12918,13 @@
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
@@ -13145,7 +12942,7 @@
       <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -13154,7 +12951,7 @@
       <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
@@ -13169,16 +12966,16 @@
       <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I15" s="6"/>
@@ -13196,16 +12993,16 @@
       <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="6"/>
@@ -13223,16 +13020,16 @@
       <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="6"/>
@@ -13250,16 +13047,16 @@
       <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="6"/>
@@ -13277,16 +13074,16 @@
       <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="6"/>
@@ -13304,16 +13101,16 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="G20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="6"/>
@@ -13612,7 +13409,7 @@
         <v>111</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>112</v>
@@ -13639,7 +13436,7 @@
         <v>114</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>112</v>
@@ -13666,7 +13463,7 @@
         <v>115</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>116</v>
@@ -13693,7 +13490,7 @@
         <v>117</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>116</v>
@@ -13720,7 +13517,7 @@
         <v>118</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>116</v>
@@ -13747,7 +13544,7 @@
         <v>119</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>116</v>
@@ -13774,10 +13571,10 @@
         <v>118</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="7"/>
@@ -13801,7 +13598,7 @@
         <v>121</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>122</v>
@@ -13828,7 +13625,7 @@
         <v>123</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>124</v>
@@ -13855,7 +13652,7 @@
         <v>125</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H40" s="5" t="s">
         <v>124</v>
@@ -13882,7 +13679,7 @@
         <v>126</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>124</v>
@@ -13909,7 +13706,7 @@
         <v>127</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>124</v>
@@ -13936,7 +13733,7 @@
         <v>128</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>129</v>
@@ -13963,7 +13760,7 @@
         <v>130</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="H44" s="5" t="s">
         <v>129</v>
@@ -13990,7 +13787,7 @@
         <v>131</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>129</v>
@@ -14017,7 +13814,7 @@
         <v>132</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H46" s="5" t="s">
         <v>129</v>
@@ -14041,13 +13838,13 @@
         <v>19</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="7"/>
@@ -14068,13 +13865,13 @@
         <v>19</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="7"/>
@@ -14095,13 +13892,13 @@
         <v>19</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="7"/>
@@ -14125,10 +13922,10 @@
         <v>133</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="7"/>
@@ -14146,16 +13943,16 @@
         <v>113</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F51" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
@@ -14179,10 +13976,10 @@
         <v>133</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="7"/>
@@ -14200,16 +13997,16 @@
         <v>113</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F53" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="7"/>
@@ -14233,10 +14030,10 @@
         <v>133</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="7"/>
@@ -14254,16 +14051,16 @@
         <v>113</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="7"/>
@@ -14287,10 +14084,10 @@
         <v>133</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="7"/>
@@ -14308,16 +14105,16 @@
         <v>113</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>134</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="7"/>
@@ -14341,14 +14138,14 @@
         <v>133</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="I58" s="14"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="14"/>
+        <v>294</v>
+      </c>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="13"/>
     </row>
     <row r="59" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
@@ -14362,20 +14159,20 @@
         <v>113</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="F59" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G59" s="11" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I59" s="14"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="14"/>
+        <v>297</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="13"/>
     </row>
     <row r="60" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
@@ -14389,20 +14186,20 @@
         <v>110</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F60" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I60" s="14"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="14"/>
+        <v>312</v>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="13"/>
     </row>
     <row r="61" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
@@ -14416,20 +14213,20 @@
         <v>113</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F61" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I61" s="14"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="14"/>
+        <v>297</v>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="13"/>
     </row>
     <row r="62" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
@@ -14443,20 +14240,20 @@
         <v>110</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I62" s="14"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="14"/>
+        <v>312</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="13"/>
     </row>
     <row r="63" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
@@ -14470,20 +14267,20 @@
         <v>113</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F63" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I63" s="14"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="14"/>
+        <v>297</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="13"/>
     </row>
     <row r="64" spans="1:11" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
@@ -14497,20 +14294,20 @@
         <v>110</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F64" s="11" t="s">
         <v>133</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="I64" s="14"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="14"/>
+        <v>312</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="13"/>
     </row>
     <row r="65" spans="1:12" s="3" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
@@ -14524,20 +14321,20 @@
         <v>113</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>134</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="I65" s="14"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="14"/>
+        <v>297</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="13"/>
     </row>
     <row r="66" spans="1:12" s="3" customFormat="1" ht="206.25" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
@@ -14554,17 +14351,17 @@
         <v>19</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="I66" s="14"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="14"/>
+        <v>322</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="13"/>
     </row>
     <row r="67" spans="1:12" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
@@ -14572,7 +14369,7 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>135</v>
@@ -14589,10 +14386,10 @@
       <c r="H67" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="I67" s="14"/>
-      <c r="J67" s="14"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="22"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="19"/>
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
@@ -14617,10 +14414,10 @@
       <c r="H68" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="14"/>
-      <c r="J68" s="14"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="22"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="19"/>
     </row>
     <row r="69" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
@@ -14725,14 +14522,14 @@
         <v>146</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="14"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="13"/>
     </row>
     <row r="73" spans="1:12" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
@@ -14757,9 +14554,9 @@
       <c r="H73" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I73" s="14"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="14"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="13"/>
     </row>
     <row r="74" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
@@ -14772,7 +14569,7 @@
       <c r="D74" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="11" t="s">
@@ -14784,9 +14581,9 @@
       <c r="H74" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="14"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="13"/>
     </row>
     <row r="75" spans="1:12" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
@@ -14813,9 +14610,9 @@
       <c r="H75" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="14"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="13"/>
     </row>
     <row r="76" spans="1:12" ht="75" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
@@ -14826,7 +14623,7 @@
         <v>80</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>156</v>
@@ -14943,10 +14740,10 @@
         <v>111</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I80" s="6"/>
       <c r="J80" s="7"/>
@@ -14970,10 +14767,10 @@
         <v>114</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="7"/>
@@ -14994,13 +14791,13 @@
         <v>19</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="7"/>
@@ -15021,13 +14818,13 @@
         <v>19</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="7"/>
@@ -15048,13 +14845,13 @@
         <v>19</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I84" s="6"/>
       <c r="J84" s="7"/>
@@ -15075,13 +14872,13 @@
         <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I85" s="6"/>
       <c r="J85" s="7"/>
@@ -15102,13 +14899,13 @@
         <v>19</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
@@ -15129,13 +14926,13 @@
         <v>19</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="7"/>
@@ -15156,13 +14953,13 @@
         <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
@@ -15183,13 +14980,13 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="7"/>
@@ -15210,13 +15007,13 @@
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
@@ -15237,13 +15034,13 @@
         <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
@@ -15264,13 +15061,13 @@
         <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
@@ -15291,13 +15088,13 @@
         <v>19</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="7"/>
@@ -15318,13 +15115,13 @@
         <v>19</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="7"/>
@@ -15345,13 +15142,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="7"/>
@@ -15372,13 +15169,13 @@
         <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="7"/>
@@ -15399,2625 +15196,2761 @@
         <v>19</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>91</v>
       </c>
-      <c r="B98" s="4"/>
-      <c r="C98" s="5" t="s">
+      <c r="B98" s="33"/>
+      <c r="C98" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="4" t="s">
+      <c r="D98" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I98" s="8"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="6"/>
-    </row>
-    <row r="99" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="E98" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F98" s="34" t="s">
+        <v>435</v>
+      </c>
+      <c r="G98" s="34" t="s">
+        <v>436</v>
+      </c>
+      <c r="H98" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I98" s="35"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="37"/>
+    </row>
+    <row r="99" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>92</v>
       </c>
-      <c r="B99" s="4"/>
-      <c r="C99" s="5" t="s">
+      <c r="B99" s="33"/>
+      <c r="C99" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I99" s="8"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="6"/>
-    </row>
-    <row r="100" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="D99" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E99" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F99" s="34" t="s">
+        <v>438</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>439</v>
+      </c>
+      <c r="H99" s="34" t="s">
+        <v>437</v>
+      </c>
+      <c r="I99" s="35"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="37"/>
+    </row>
+    <row r="100" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>93</v>
       </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="5" t="s">
+      <c r="B100" s="33"/>
+      <c r="C100" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="D100" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I100" s="8"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="6"/>
-    </row>
-    <row r="101" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="E100" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F100" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G100" s="34" t="s">
+        <v>363</v>
+      </c>
+      <c r="H100" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I100" s="35"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="37"/>
+    </row>
+    <row r="101" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>94</v>
       </c>
-      <c r="B101" s="4"/>
-      <c r="C101" s="5" t="s">
+      <c r="B101" s="33"/>
+      <c r="C101" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I101" s="8"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="6"/>
-    </row>
-    <row r="102" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="E101" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F101" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G101" s="34" t="s">
+        <v>365</v>
+      </c>
+      <c r="H101" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I101" s="35"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="37"/>
+    </row>
+    <row r="102" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>95</v>
       </c>
-      <c r="B102" s="4"/>
-      <c r="C102" s="5" t="s">
+      <c r="B102" s="33"/>
+      <c r="C102" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="D102" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="G102" s="5" t="s">
-        <v>378</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="I102" s="8"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="6"/>
-    </row>
-    <row r="103" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="E102" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F102" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>366</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I102" s="35"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="37"/>
+    </row>
+    <row r="103" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>96</v>
       </c>
-      <c r="B103" s="4"/>
-      <c r="C103" s="5" t="s">
+      <c r="B103" s="33"/>
+      <c r="C103" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E103" s="36" t="s">
-        <v>379</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I103" s="8"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="6"/>
-    </row>
-    <row r="104" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="D103" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F103" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G103" s="34" t="s">
+        <v>367</v>
+      </c>
+      <c r="H103" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I103" s="35"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="37"/>
+    </row>
+    <row r="104" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>97</v>
       </c>
-      <c r="B104" s="4"/>
-      <c r="C104" s="5" t="s">
+      <c r="B104" s="33"/>
+      <c r="C104" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E104" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G104" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="6"/>
-    </row>
-    <row r="105" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="D104" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E104" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F104" s="34" t="s">
+        <v>362</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>368</v>
+      </c>
+      <c r="H104" s="34" t="s">
+        <v>364</v>
+      </c>
+      <c r="I104" s="35"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="37"/>
+    </row>
+    <row r="105" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>98</v>
       </c>
-      <c r="B105" s="4"/>
-      <c r="C105" s="5" t="s">
+      <c r="B105" s="33"/>
+      <c r="C105" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="D105" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="F105" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G105" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="H105" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I105" s="8"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="6"/>
-    </row>
-    <row r="106" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="E105" s="34" t="str">
+        <f>"テストNo."&amp;A100&amp;"のデータが[TM_point]に登録されている"</f>
+        <v>テストNo.93のデータが[TM_point]に登録されている</v>
+      </c>
+      <c r="F105" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="G105" s="34" t="str">
+        <f>"テストNo."&amp;A100&amp;"のデータをクリック
+[技官区分]入力値=技術系
+[業資区分]入力値=管理系
+[pt]入力値=1
+[Expt]入力値=1
+[内容]入力値=テスト21
+[備考]入力値=なし
+[更新]ボタン押下"</f>
+        <v>テストNo.93のデータをクリック
+[技官区分]入力値=技術系
+[業資区分]入力値=管理系
+[pt]入力値=1
+[Expt]入力値=1
+[内容]入力値=テスト21
+[備考]入力値=なし
+[更新]ボタン押下</v>
+      </c>
+      <c r="H105" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I105" s="35"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="37"/>
+    </row>
+    <row r="106" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>99</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5" t="s">
+      <c r="B106" s="33"/>
+      <c r="C106" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="D106" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="H106" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I106" s="8"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="6"/>
-    </row>
-    <row r="107" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+      <c r="E106" s="34" t="str">
+        <f>"テストNo."&amp;A101&amp;"のデータが[TM_point]に登録されている"</f>
+        <v>テストNo.94のデータが[TM_point]に登録されている</v>
+      </c>
+      <c r="F106" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="G106" s="34" t="str">
+        <f>"テストNo."&amp;A101&amp;"のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=-1
+[内容]入力値=テスト17
+[備考]入力値=なし
+[更新]ボタン押下"</f>
+        <v>テストNo.94のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=-1
+[内容]入力値=テスト17
+[備考]入力値=なし
+[更新]ボタン押下</v>
+      </c>
+      <c r="H106" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I106" s="35"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="37"/>
+    </row>
+    <row r="107" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>100</v>
       </c>
-      <c r="B107" s="4"/>
-      <c r="C107" s="5" t="s">
+      <c r="B107" s="33"/>
+      <c r="C107" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="D107" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="36" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G107" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="H107" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I107" s="8"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="6"/>
-    </row>
-    <row r="108" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E107" s="34" t="str">
+        <f>"テストNo."&amp;A102&amp;"のデータが[TM_point]に登録されている"</f>
+        <v>テストNo.95のデータが[TM_point]に登録されている</v>
+      </c>
+      <c r="F107" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="G107" s="34" t="str">
+        <f>"テストNo."&amp;A102&amp;"のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=資格系
+[pt]入力値=1
+[Expt]入力値=2
+[内容]入力値=テスト18
+[備考]入力値=なし
+[更新]ボタン押下"</f>
+        <v>テストNo.95のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=資格系
+[pt]入力値=1
+[Expt]入力値=2
+[内容]入力値=テスト18
+[備考]入力値=なし
+[更新]ボタン押下</v>
+      </c>
+      <c r="H107" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I107" s="35"/>
+      <c r="J107" s="36"/>
+      <c r="K107" s="37"/>
+    </row>
+    <row r="108" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>101</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C108" s="5" t="s">
+      <c r="B108" s="33"/>
+      <c r="C108" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H108" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="I108" s="6"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="6"/>
-    </row>
-    <row r="109" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="D108" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E108" s="34" t="str">
+        <f t="shared" ref="E108:E109" si="0">"テストNo."&amp;A103&amp;"のデータが[TM_point]に登録されている"</f>
+        <v>テストNo.96のデータが[TM_point]に登録されている</v>
+      </c>
+      <c r="F108" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="G108" s="34" t="str">
+        <f>"テストNo."&amp;A103&amp;"のデータをクリック
+[技官区分]入力値=会社貢献系
+[業資区分]入力値=会社貢献系
+[pt]入力値=0
+[Expt]入力値=-1
+[内容]入力値=テスト19
+[備考]入力値=なし
+[更新]ボタン押下"</f>
+        <v>テストNo.96のデータをクリック
+[技官区分]入力値=会社貢献系
+[業資区分]入力値=会社貢献系
+[pt]入力値=0
+[Expt]入力値=-1
+[内容]入力値=テスト19
+[備考]入力値=なし
+[更新]ボタン押下</v>
+      </c>
+      <c r="H108" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I108" s="35"/>
+      <c r="J108" s="36"/>
+      <c r="K108" s="37"/>
+    </row>
+    <row r="109" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>102</v>
       </c>
-      <c r="B109" s="4"/>
-      <c r="C109" s="5" t="s">
+      <c r="B109" s="33"/>
+      <c r="C109" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="H109" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I109" s="6"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="6"/>
-    </row>
-    <row r="110" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="D109" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E109" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>テストNo.97のデータが[TM_point]に登録されている</v>
+      </c>
+      <c r="F109" s="34" t="s">
+        <v>369</v>
+      </c>
+      <c r="G109" s="34" t="str">
+        <f>"テストNo."&amp;A104&amp;"のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=実務系
+[pt]入力値=2
+[Expt]入力値=1
+[内容]入力値=テスト20
+[備考]入力値=なし
+[更新]ボタン押下"</f>
+        <v>テストNo.97のデータをクリック
+[技官区分]入力値=管理系
+[業資区分]入力値=実務系
+[pt]入力値=2
+[Expt]入力値=1
+[内容]入力値=テスト20
+[備考]入力値=なし
+[更新]ボタン押下</v>
+      </c>
+      <c r="H109" s="34" t="s">
+        <v>370</v>
+      </c>
+      <c r="I109" s="35"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="37"/>
+    </row>
+    <row r="110" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>103</v>
       </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="5" t="s">
+      <c r="B110" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="C110" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E110" s="5" t="s">
+      <c r="D110" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E110" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F110" s="34" t="s">
+        <v>372</v>
+      </c>
+      <c r="G110" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I110" s="8"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="6"/>
-    </row>
-    <row r="111" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H110" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="I110" s="37"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="37"/>
+    </row>
+    <row r="111" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>104</v>
       </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="5" t="s">
+      <c r="B111" s="33"/>
+      <c r="C111" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E111" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I111" s="8"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="6"/>
-    </row>
-    <row r="112" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="D111" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E111" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="F111" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G111" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="H111" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="I111" s="37"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="37"/>
+    </row>
+    <row r="112" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>105</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="5" t="s">
+      <c r="B112" s="33"/>
+      <c r="C112" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E112" s="5" t="s">
+      <c r="D112" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E112" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H112" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I112" s="6"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="6"/>
-    </row>
-    <row r="113" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F112" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G112" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="H112" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I112" s="35"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="37"/>
+    </row>
+    <row r="113" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>106</v>
       </c>
-      <c r="B113" s="4"/>
-      <c r="C113" s="5" t="s">
+      <c r="B113" s="33"/>
+      <c r="C113" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E113" s="4" t="s">
+      <c r="D113" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E113" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G113" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H113" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I113" s="6"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="6"/>
-    </row>
-    <row r="114" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F113" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G113" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="H113" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="I113" s="35"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="37"/>
+    </row>
+    <row r="114" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>107</v>
       </c>
-      <c r="B114" s="4"/>
-      <c r="C114" s="5" t="s">
+      <c r="B114" s="33"/>
+      <c r="C114" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E114" s="4" t="s">
+      <c r="D114" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H114" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="I114" s="6"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="6"/>
-    </row>
-    <row r="115" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F114" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H114" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I114" s="37"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="37"/>
+    </row>
+    <row r="115" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>108</v>
       </c>
-      <c r="B115" s="4"/>
-      <c r="C115" s="5" t="s">
+      <c r="B115" s="33"/>
+      <c r="C115" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="G115" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="H115" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I115" s="6"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="6"/>
-    </row>
-    <row r="116" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F115" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G115" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="H115" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I115" s="37"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="37"/>
+    </row>
+    <row r="116" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="4"/>
-      <c r="C116" s="5" t="s">
+      <c r="B116" s="33"/>
+      <c r="C116" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="D116" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="H116" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="I116" s="8"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="6"/>
-    </row>
-    <row r="117" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F116" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="G116" s="34" t="s">
+        <v>376</v>
+      </c>
+      <c r="H116" s="34" t="s">
+        <v>377</v>
+      </c>
+      <c r="I116" s="37"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="37"/>
+    </row>
+    <row r="117" spans="1:11" s="38" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="4"/>
-      <c r="C117" s="5" t="s">
+      <c r="B117" s="33"/>
+      <c r="C117" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="D117" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G117" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H117" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F117" s="34" t="s">
+        <v>378</v>
+      </c>
+      <c r="G117" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H117" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I117" s="37"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="37"/>
+    </row>
+    <row r="118" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>111</v>
       </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="5" t="s">
+      <c r="B118" s="33"/>
+      <c r="C118" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E118" s="4" t="s">
+      <c r="E118" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H118" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="I118" s="6"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="6"/>
-    </row>
-    <row r="119" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A119" s="37">
+      <c r="F118" s="34" t="s">
+        <v>381</v>
+      </c>
+      <c r="G118" s="34" t="s">
+        <v>379</v>
+      </c>
+      <c r="H118" s="34" t="s">
+        <v>380</v>
+      </c>
+      <c r="I118" s="35"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="37"/>
+    </row>
+    <row r="119" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A119" s="4">
         <v>112</v>
       </c>
-      <c r="B119" s="37"/>
-      <c r="C119" s="38" t="s">
+      <c r="B119" s="33"/>
+      <c r="C119" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="37" t="s">
+      <c r="D119" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E119" s="37" t="s">
+      <c r="E119" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="G119" s="38" t="s">
-        <v>404</v>
-      </c>
-      <c r="H119" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="I119" s="39"/>
-      <c r="J119" s="40"/>
-      <c r="K119" s="39"/>
-    </row>
-    <row r="120" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A120" s="37">
+      <c r="F119" s="34" t="s">
+        <v>382</v>
+      </c>
+      <c r="G119" s="34" t="s">
+        <v>383</v>
+      </c>
+      <c r="H119" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="I119" s="35"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="37"/>
+    </row>
+    <row r="120" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A120" s="4">
         <v>113</v>
       </c>
-      <c r="B120" s="37"/>
-      <c r="C120" s="38" t="s">
+      <c r="B120" s="33"/>
+      <c r="C120" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="37" t="s">
+      <c r="D120" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F120" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="G120" s="34" t="s">
+        <v>386</v>
+      </c>
+      <c r="H120" s="34" t="s">
+        <v>384</v>
+      </c>
+      <c r="I120" s="37"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="37"/>
+    </row>
+    <row r="121" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A121" s="4">
+        <v>114</v>
+      </c>
+      <c r="B121" s="33"/>
+      <c r="C121" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D121" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E120" s="37" t="s">
+      <c r="E121" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="38" t="s">
-        <v>351</v>
-      </c>
-      <c r="G120" s="38" t="s">
-        <v>405</v>
-      </c>
-      <c r="H120" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="I120" s="39"/>
-      <c r="J120" s="40"/>
-      <c r="K120" s="39"/>
-    </row>
-    <row r="121" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A121" s="37">
-        <v>114</v>
-      </c>
-      <c r="B121" s="37"/>
-      <c r="C121" s="38" t="s">
+      <c r="F121" s="34" t="s">
+        <v>338</v>
+      </c>
+      <c r="G121" s="34" t="s">
+        <v>387</v>
+      </c>
+      <c r="H121" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I121" s="37"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="37"/>
+    </row>
+    <row r="122" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A122" s="4">
+        <v>115</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="37" t="s">
+      <c r="D122" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E122" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F122" s="34" t="s">
+        <v>341</v>
+      </c>
+      <c r="G122" s="34" t="s">
+        <v>388</v>
+      </c>
+      <c r="H122" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I122" s="37"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="37"/>
+    </row>
+    <row r="123" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A123" s="4">
+        <v>116</v>
+      </c>
+      <c r="B123" s="33"/>
+      <c r="C123" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D123" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E121" s="37" t="s">
+      <c r="E123" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="38" t="s">
-        <v>353</v>
-      </c>
-      <c r="G121" s="38" t="s">
-        <v>406</v>
-      </c>
-      <c r="H121" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="I121" s="39"/>
-      <c r="J121" s="40"/>
-      <c r="K121" s="39"/>
-    </row>
-    <row r="122" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A122" s="37">
-        <v>115</v>
-      </c>
-      <c r="B122" s="37"/>
-      <c r="C122" s="38" t="s">
+      <c r="F123" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="G123" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="H123" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I123" s="37"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="37"/>
+    </row>
+    <row r="124" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A124" s="4">
+        <v>117</v>
+      </c>
+      <c r="B124" s="33"/>
+      <c r="C124" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="37" t="s">
+      <c r="D124" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E122" s="37" t="s">
+      <c r="E124" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="38" t="s">
-        <v>355</v>
-      </c>
-      <c r="G122" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="H122" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="I122" s="39"/>
-      <c r="J122" s="40"/>
-      <c r="K122" s="39"/>
-    </row>
-    <row r="123" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A123" s="37">
-        <v>116</v>
-      </c>
-      <c r="B123" s="37"/>
-      <c r="C123" s="38" t="s">
+      <c r="F124" s="34" t="s">
+        <v>345</v>
+      </c>
+      <c r="G124" s="34" t="s">
+        <v>390</v>
+      </c>
+      <c r="H124" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="I124" s="37"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="37"/>
+    </row>
+    <row r="125" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A125" s="4">
+        <v>118</v>
+      </c>
+      <c r="B125" s="33"/>
+      <c r="C125" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="37" t="s">
+      <c r="D125" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E123" s="37" t="s">
+      <c r="E125" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="G123" s="38" t="s">
-        <v>408</v>
-      </c>
-      <c r="H123" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="I123" s="42"/>
-      <c r="J123" s="40"/>
-      <c r="K123" s="39"/>
-    </row>
-    <row r="124" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A124" s="37">
-        <v>117</v>
-      </c>
-      <c r="B124" s="37"/>
-      <c r="C124" s="38" t="s">
+      <c r="F125" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G125" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="H125" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I125" s="35"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="37"/>
+    </row>
+    <row r="126" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A126" s="4">
+        <v>119</v>
+      </c>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="37" t="s">
+      <c r="D126" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E124" s="37" t="s">
+      <c r="E126" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="G124" s="38" t="s">
-        <v>409</v>
-      </c>
-      <c r="H124" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="I124" s="42"/>
-      <c r="J124" s="40"/>
-      <c r="K124" s="39"/>
-    </row>
-    <row r="125" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A125" s="37">
-        <v>118</v>
-      </c>
-      <c r="B125" s="37"/>
-      <c r="C125" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D125" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E125" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="G125" s="38" t="s">
-        <v>411</v>
-      </c>
-      <c r="H125" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="I125" s="39"/>
-      <c r="J125" s="40"/>
-      <c r="K125" s="39"/>
-    </row>
-    <row r="126" spans="1:11" s="41" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A126" s="37">
-        <v>119</v>
-      </c>
-      <c r="B126" s="37"/>
-      <c r="C126" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="E126" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="38" t="s">
-        <v>410</v>
-      </c>
-      <c r="G126" s="38" t="s">
-        <v>412</v>
-      </c>
-      <c r="H126" s="38" t="s">
-        <v>359</v>
-      </c>
-      <c r="I126" s="39"/>
-      <c r="J126" s="40"/>
-      <c r="K126" s="39"/>
-    </row>
-    <row r="127" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F126" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="G126" s="34" t="s">
+        <v>392</v>
+      </c>
+      <c r="H126" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I126" s="35"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="37"/>
+    </row>
+    <row r="127" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
         <v>120</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="5" t="s">
+      <c r="B127" s="33"/>
+      <c r="C127" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D127" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E127" s="4" t="s">
+      <c r="D127" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E127" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I127" s="6"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="6"/>
-    </row>
-    <row r="128" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F127" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G127" s="34" t="s">
+        <v>394</v>
+      </c>
+      <c r="H127" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I127" s="37"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="37"/>
+    </row>
+    <row r="128" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>121</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="5" t="s">
+      <c r="B128" s="33"/>
+      <c r="C128" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D128" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="G128" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="H128" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="I128" s="6"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="6"/>
-    </row>
-    <row r="129" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F128" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="G128" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="H128" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="I128" s="37"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="37"/>
+    </row>
+    <row r="129" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <v>122</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="5" t="s">
+      <c r="B129" s="33"/>
+      <c r="C129" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="E129" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="F129" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G129" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H129" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="I129" s="8"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="6"/>
-    </row>
-    <row r="130" spans="1:11" s="3" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="E129" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="G129" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="H129" s="34" t="s">
+        <v>398</v>
+      </c>
+      <c r="I129" s="37"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="37"/>
+    </row>
+    <row r="130" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>123</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="5" t="s">
+      <c r="B130" s="33"/>
+      <c r="C130" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="10" t="s">
+      <c r="D130" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="E130" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F130" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="G130" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="H130" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="I130" s="12"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="14"/>
-    </row>
-    <row r="131" spans="1:11" s="3" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="E130" s="34" t="str">
+        <f>"テストNo."&amp;A129&amp;"のデータが[TM_self_check]に登録されている"</f>
+        <v>テストNo.122のデータが[TM_self_check]に登録されている</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>440</v>
+      </c>
+      <c r="H130" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I130" s="37"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="37"/>
+    </row>
+    <row r="131" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
         <v>124</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="C131" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F131" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H131" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="I131" s="16"/>
-      <c r="J131" s="13"/>
-      <c r="K131" s="14"/>
-    </row>
-    <row r="132" spans="1:11" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B131" s="33"/>
+      <c r="C131" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D131" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E131" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="F131" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="G131" s="34" t="s">
+        <v>441</v>
+      </c>
+      <c r="H131" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="I131" s="35"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="37"/>
+    </row>
+    <row r="132" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>125</v>
       </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10" t="s">
+      <c r="B132" s="33"/>
+      <c r="C132" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G132" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H132" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I132" s="14"/>
-      <c r="J132" s="13"/>
-      <c r="K132" s="14"/>
-    </row>
-    <row r="133" spans="1:11" s="3" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D132" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E132" s="34" t="str">
+        <f>"テストNo."&amp;A131&amp;"のデータが[TM_self_check]に登録されている"</f>
+        <v>テストNo.124のデータが[TM_self_check]に登録されている</v>
+      </c>
+      <c r="F132" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="G132" s="34" t="s">
+        <v>442</v>
+      </c>
+      <c r="H132" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="37"/>
+    </row>
+    <row r="133" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
         <v>126</v>
       </c>
-      <c r="B133" s="10"/>
-      <c r="C133" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E133" s="10" t="s">
+      <c r="B133" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="E133" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F133" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G133" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="H133" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="I133" s="14"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="14"/>
-    </row>
-    <row r="134" spans="1:11" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H133" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="I133" s="35"/>
+      <c r="J133" s="36"/>
+      <c r="K133" s="37"/>
+    </row>
+    <row r="134" spans="1:11" s="38" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>127</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="10" t="s">
+      <c r="B134" s="33"/>
+      <c r="C134" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E134" s="10" t="s">
+      <c r="D134" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E134" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="G134" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="I134" s="14"/>
-      <c r="J134" s="13"/>
-      <c r="K134" s="14"/>
-    </row>
-    <row r="135" spans="1:11" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F134" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G134" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H134" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I134" s="37"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="37"/>
+    </row>
+    <row r="135" spans="1:11" s="38" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
         <v>128</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="C135" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D135" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="G135" s="10" t="s">
+      <c r="B135" s="33"/>
+      <c r="C135" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D135" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E135" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H135" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="I135" s="16"/>
-      <c r="J135" s="13"/>
-      <c r="K135" s="14"/>
-    </row>
-    <row r="136" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="F135" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="G135" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="H135" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I135" s="37"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="37"/>
+    </row>
+    <row r="136" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>129</v>
       </c>
-      <c r="B136" s="4"/>
-      <c r="C136" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E136" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G136" s="5" t="s">
+      <c r="B136" s="33"/>
+      <c r="C136" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D136" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E136" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="H136" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I136" s="6"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="6"/>
-    </row>
-    <row r="137" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F136" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="G136" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H136" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I136" s="37"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="37"/>
+    </row>
+    <row r="137" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
         <v>130</v>
       </c>
-      <c r="B137" s="4"/>
-      <c r="C137" s="5" t="s">
+      <c r="B137" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="C137" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D137" s="4" t="s">
+      <c r="D137" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E137" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G137" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="H137" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="I137" s="6"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="6"/>
-    </row>
-    <row r="138" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E137" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="F137" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="G137" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="I137" s="35"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="37"/>
+    </row>
+    <row r="138" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>131</v>
       </c>
-      <c r="B138" s="4"/>
-      <c r="C138" s="5" t="s">
+      <c r="B138" s="33"/>
+      <c r="C138" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="G138" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="H138" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I138" s="6"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="6"/>
-    </row>
-    <row r="139" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="E138" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F138" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="G138" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="I138" s="37"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="37"/>
+    </row>
+    <row r="139" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
         <v>132</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="5" t="s">
+      <c r="B139" s="33"/>
+      <c r="C139" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D139" s="4" t="s">
+      <c r="D139" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="19" t="s">
+      <c r="E139" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F139" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I139" s="6"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="6"/>
-    </row>
-    <row r="140" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F139" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G139" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H139" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I139" s="37"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="37"/>
+    </row>
+    <row r="140" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>133</v>
       </c>
-      <c r="B140" s="4"/>
-      <c r="C140" s="5" t="s">
+      <c r="B140" s="33"/>
+      <c r="C140" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="D140" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E140" s="19" t="s">
+      <c r="D140" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E140" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I140" s="6"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="6"/>
-    </row>
-    <row r="141" spans="1:11" s="47" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
-      <c r="A141" s="43">
+      <c r="F140" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="G140" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H140" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I140" s="37"/>
+      <c r="J140" s="36"/>
+      <c r="K140" s="37"/>
+    </row>
+    <row r="141" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A141" s="4">
         <v>134</v>
       </c>
-      <c r="B141" s="43"/>
-      <c r="C141" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D141" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="E141" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="F141" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="G141" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H141" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="I141" s="45"/>
-      <c r="J141" s="46"/>
-      <c r="K141" s="45"/>
-    </row>
-    <row r="142" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B141" s="33"/>
+      <c r="C141" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D141" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="E141" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F141" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="G141" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="H141" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I141" s="37"/>
+      <c r="J141" s="36"/>
+      <c r="K141" s="37"/>
+    </row>
+    <row r="142" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>135</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E142" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F142" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I142" s="6"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="6"/>
-    </row>
-    <row r="143" spans="1:11" s="3" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B142" s="33"/>
+      <c r="C142" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E142" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="F142" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H142" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I142" s="37"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="37"/>
+    </row>
+    <row r="143" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
         <v>136</v>
       </c>
-      <c r="B143" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D143" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E143" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="G143" s="10" t="s">
+      <c r="B143" s="33"/>
+      <c r="C143" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="E143" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="F143" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="G143" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H143" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="I143" s="37"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="37"/>
+    </row>
+    <row r="144" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A144" s="4">
+        <v>137</v>
+      </c>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D144" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E144" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="I143" s="14"/>
-      <c r="J143" s="13"/>
-      <c r="K143" s="14"/>
-    </row>
-    <row r="144" spans="1:11" s="47" customFormat="1" ht="150" x14ac:dyDescent="0.4">
-      <c r="A144" s="43">
-        <v>137</v>
-      </c>
-      <c r="B144" s="43"/>
-      <c r="C144" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D144" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="E144" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="F144" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="G144" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="H144" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I144" s="45"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="45"/>
-    </row>
-    <row r="145" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F144" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H144" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I144" s="37"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="37"/>
+    </row>
+    <row r="145" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
         <v>138</v>
       </c>
-      <c r="B145" s="4"/>
-      <c r="C145" s="5" t="s">
+      <c r="B145" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D145" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E145" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I145" s="6"/>
-      <c r="J145" s="7"/>
-      <c r="K145" s="6"/>
-    </row>
-    <row r="146" spans="1:11" s="47" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
-      <c r="A146" s="43">
+      <c r="D145" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="E145" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="F145" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G145" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="H145" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="I145" s="37"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="37"/>
+    </row>
+    <row r="146" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="A146" s="4">
         <v>139</v>
       </c>
-      <c r="B146" s="43"/>
-      <c r="C146" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D146" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="E146" s="48" t="s">
-        <v>215</v>
-      </c>
-      <c r="F146" s="44" t="s">
-        <v>216</v>
-      </c>
-      <c r="G146" s="36" t="s">
-        <v>196</v>
-      </c>
-      <c r="H146" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="I146" s="45"/>
-      <c r="J146" s="46"/>
-      <c r="K146" s="45"/>
-    </row>
-    <row r="147" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B146" s="33"/>
+      <c r="C146" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D146" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E146" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H146" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="I146" s="37"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="37"/>
+    </row>
+    <row r="147" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
         <v>140</v>
       </c>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E147" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F147" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I147" s="6"/>
-      <c r="J147" s="7"/>
-      <c r="K147" s="6"/>
-    </row>
-    <row r="148" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B147" s="33"/>
+      <c r="C147" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D147" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E147" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="F147" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="G147" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="H147" s="34" t="s">
+        <v>192</v>
+      </c>
+      <c r="I147" s="37"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="37"/>
+    </row>
+    <row r="148" spans="1:11" s="38" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
         <v>141</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4" t="s">
+      <c r="B148" s="33"/>
+      <c r="C148" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D148" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E148" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F148" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="I148" s="6"/>
-      <c r="J148" s="7"/>
-      <c r="K148" s="6"/>
-    </row>
-    <row r="149" spans="1:11" s="3" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D148" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="E148" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="F148" s="41" t="s">
+        <v>216</v>
+      </c>
+      <c r="G148" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H148" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="I148" s="37"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="37"/>
+    </row>
+    <row r="149" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
         <v>142</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F149" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G149" s="11" t="s">
+      <c r="B149" s="33"/>
+      <c r="C149" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D149" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E149" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H149" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="I149" s="16"/>
-      <c r="J149" s="13"/>
-      <c r="K149" s="14"/>
-    </row>
-    <row r="150" spans="1:11" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="F149" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="G149" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="H149" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="I149" s="37"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="37"/>
+    </row>
+    <row r="150" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
         <v>143</v>
       </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="21" t="s">
+      <c r="B150" s="33"/>
+      <c r="C150" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G150" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H150" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I150" s="16"/>
-      <c r="J150" s="13"/>
-      <c r="K150" s="14"/>
-    </row>
-    <row r="151" spans="1:11" s="3" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D150" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F150" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G150" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H150" s="34" t="s">
+        <v>220</v>
+      </c>
+      <c r="I150" s="37"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="37"/>
+    </row>
+    <row r="151" spans="1:11" s="38" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
         <v>144</v>
       </c>
-      <c r="B151" s="10"/>
-      <c r="C151" s="10" t="s">
+      <c r="B151" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D151" s="11" t="s">
+      <c r="D151" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E151" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F151" s="11" t="s">
+      <c r="E151" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F151" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H151" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="I151" s="16"/>
-      <c r="J151" s="13"/>
-      <c r="K151" s="14"/>
-    </row>
-    <row r="152" spans="1:11" s="3" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="H151" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="I151" s="35"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="37"/>
+    </row>
+    <row r="152" spans="1:11" s="38" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
         <v>145</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="21" t="s">
+      <c r="B152" s="33"/>
+      <c r="C152" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F152" s="11" t="s">
+      <c r="E152" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F152" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G152" s="11" t="s">
+      <c r="G152" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H152" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I152" s="16"/>
-      <c r="J152" s="13"/>
-      <c r="K152" s="14"/>
-    </row>
-    <row r="153" spans="1:11" s="3" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H152" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="I152" s="35"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="37"/>
+    </row>
+    <row r="153" spans="1:11" s="38" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
         <v>146</v>
       </c>
-      <c r="B153" s="10"/>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="33"/>
+      <c r="C153" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D153" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F153" s="11" t="s">
+      <c r="E153" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F153" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I153" s="16"/>
-      <c r="J153" s="13"/>
-      <c r="K153" s="14"/>
-    </row>
-    <row r="154" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H153" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I153" s="35"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="37"/>
+    </row>
+    <row r="154" spans="1:11" s="38" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
         <v>147</v>
       </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="21" t="s">
+      <c r="B154" s="33"/>
+      <c r="C154" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E154" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F154" s="11" t="s">
+      <c r="E154" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F154" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G154" s="11" t="s">
+      <c r="G154" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H154" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="I154" s="14"/>
-      <c r="J154" s="13"/>
-      <c r="K154" s="14"/>
-    </row>
-    <row r="155" spans="1:11" s="3" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H154" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="I154" s="35"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="37"/>
+    </row>
+    <row r="155" spans="1:11" s="38" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
         <v>148</v>
       </c>
-      <c r="B155" s="10"/>
-      <c r="C155" s="10" t="s">
+      <c r="B155" s="33"/>
+      <c r="C155" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F155" s="11" t="s">
+      <c r="E155" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F155" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="11" t="s">
+      <c r="G155" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="I155" s="16"/>
-      <c r="J155" s="13"/>
-      <c r="K155" s="14"/>
-    </row>
-    <row r="156" spans="1:11" s="3" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+      <c r="H155" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="I155" s="35"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="37"/>
+    </row>
+    <row r="156" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
         <v>149</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="21" t="s">
+      <c r="B156" s="33"/>
+      <c r="C156" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="10" t="s">
+      <c r="D156" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E156" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F156" s="11" t="s">
+      <c r="E156" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F156" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G156" s="11" t="s">
+      <c r="G156" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I156" s="16"/>
-      <c r="J156" s="13"/>
-      <c r="K156" s="14"/>
-    </row>
-    <row r="157" spans="1:11" s="3" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H156" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="I156" s="37"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="37"/>
+    </row>
+    <row r="157" spans="1:11" s="38" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
         <v>150</v>
       </c>
-      <c r="B157" s="10"/>
-      <c r="C157" s="10" t="s">
+      <c r="B157" s="33"/>
+      <c r="C157" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E157" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F157" s="11" t="s">
+      <c r="E157" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F157" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="11" t="s">
+      <c r="G157" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="I157" s="16"/>
-      <c r="J157" s="13"/>
-      <c r="K157" s="14"/>
-    </row>
-    <row r="158" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H157" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="I157" s="35"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="37"/>
+    </row>
+    <row r="158" spans="1:11" s="38" customFormat="1" ht="300" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
         <v>151</v>
       </c>
-      <c r="B158" s="10"/>
-      <c r="C158" s="21" t="s">
+      <c r="B158" s="33"/>
+      <c r="C158" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D158" s="10" t="s">
+      <c r="D158" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F158" s="11" t="s">
+      <c r="E158" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F158" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G158" s="11" t="s">
+      <c r="G158" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I158" s="16"/>
-      <c r="J158" s="13"/>
-      <c r="K158" s="14"/>
-    </row>
-    <row r="159" spans="1:11" s="3" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H158" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="I158" s="35"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="37"/>
+    </row>
+    <row r="159" spans="1:11" s="38" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
         <v>152</v>
       </c>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="33"/>
+      <c r="C159" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D159" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E159" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F159" s="11" t="s">
+      <c r="E159" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F159" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G159" s="11" t="s">
+      <c r="G159" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H159" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I159" s="16"/>
-      <c r="J159" s="13"/>
-      <c r="K159" s="14"/>
-    </row>
-    <row r="160" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H159" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I159" s="35"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="37"/>
+    </row>
+    <row r="160" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
         <v>153</v>
       </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="21" t="s">
+      <c r="B160" s="33"/>
+      <c r="C160" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="10" t="s">
+      <c r="D160" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E160" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F160" s="11" t="s">
+      <c r="E160" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F160" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G160" s="11" t="s">
+      <c r="G160" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I160" s="16"/>
-      <c r="J160" s="13"/>
-      <c r="K160" s="14"/>
-    </row>
-    <row r="161" spans="1:11" s="3" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H160" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="I160" s="35"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="37"/>
+    </row>
+    <row r="161" spans="1:11" s="38" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
         <v>154</v>
       </c>
-      <c r="B161" s="10"/>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="33"/>
+      <c r="C161" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D161" s="11" t="s">
+      <c r="D161" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E161" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F161" s="11" t="s">
+      <c r="E161" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F161" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G161" s="11" t="s">
+      <c r="G161" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H161" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I161" s="16"/>
-      <c r="J161" s="13"/>
-      <c r="K161" s="14"/>
-    </row>
-    <row r="162" spans="1:11" s="3" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="H161" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="I161" s="35"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="37"/>
+    </row>
+    <row r="162" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
         <v>155</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="21" t="s">
+      <c r="B162" s="33"/>
+      <c r="C162" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D162" s="10" t="s">
+      <c r="D162" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E162" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F162" s="11" t="s">
+      <c r="E162" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F162" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G162" s="11" t="s">
+      <c r="G162" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H162" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="I162" s="16"/>
-      <c r="J162" s="13"/>
-      <c r="K162" s="14"/>
-    </row>
-    <row r="163" spans="1:11" s="3" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H162" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="I162" s="35"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="37"/>
+    </row>
+    <row r="163" spans="1:11" s="38" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
         <v>156</v>
       </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10" t="s">
+      <c r="B163" s="33"/>
+      <c r="C163" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="11" t="s">
+      <c r="D163" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E163" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F163" s="11" t="s">
+      <c r="E163" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F163" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G163" s="11" t="s">
+      <c r="G163" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H163" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I163" s="16"/>
-      <c r="J163" s="13"/>
-      <c r="K163" s="14"/>
-    </row>
-    <row r="164" spans="1:11" s="3" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="H163" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="I163" s="35"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="37"/>
+    </row>
+    <row r="164" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
         <v>157</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="21" t="s">
+      <c r="B164" s="33"/>
+      <c r="C164" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D164" s="10" t="s">
+      <c r="D164" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F164" s="11" t="s">
+      <c r="E164" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F164" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G164" s="11" t="s">
+      <c r="G164" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H164" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="I164" s="16"/>
-      <c r="J164" s="13"/>
-      <c r="K164" s="14"/>
-    </row>
-    <row r="165" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H164" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="I164" s="35"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="37"/>
+    </row>
+    <row r="165" spans="1:11" s="38" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
         <v>158</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="E165" s="19" t="s">
+      <c r="B165" s="33"/>
+      <c r="C165" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D165" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E165" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F165" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G165" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F165" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="G165" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="H165" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="I165" s="6"/>
-      <c r="J165" s="7"/>
-      <c r="K165" s="6"/>
-    </row>
-    <row r="166" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H165" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I165" s="35"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="37"/>
+    </row>
+    <row r="166" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
         <v>159</v>
       </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="4" t="s">
+      <c r="B166" s="33"/>
+      <c r="C166" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="E166" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F166" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G166" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H166" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I166" s="6"/>
-      <c r="J166" s="7"/>
-      <c r="K166" s="6"/>
-    </row>
-    <row r="167" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D166" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E166" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F166" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G166" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H166" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="I166" s="35"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="37"/>
+    </row>
+    <row r="167" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
         <v>160</v>
       </c>
-      <c r="B167" s="4"/>
-      <c r="C167" s="4" t="s">
+      <c r="B167" s="33"/>
+      <c r="C167" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D167" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E167" s="19" t="s">
+      <c r="D167" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E167" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="G167" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="H167" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="I167" s="6"/>
-      <c r="J167" s="7"/>
-      <c r="K167" s="6"/>
-    </row>
-    <row r="168" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F167" s="41" t="s">
+        <v>234</v>
+      </c>
+      <c r="G167" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="H167" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="I167" s="37"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="37"/>
+    </row>
+    <row r="168" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
         <v>161</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F168" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G168" s="4" t="s">
+      <c r="B168" s="33"/>
+      <c r="C168" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D168" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E168" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H168" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="I168" s="6"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="6"/>
-    </row>
-    <row r="169" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="F168" s="41" t="s">
+        <v>218</v>
+      </c>
+      <c r="G168" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="H168" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="I168" s="37"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="37"/>
+    </row>
+    <row r="169" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A169" s="4">
         <v>162</v>
       </c>
-      <c r="B169" s="4"/>
-      <c r="C169" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D169" s="5" t="s">
-        <v>424</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F169" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H169" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="I169" s="6"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="6"/>
-    </row>
-    <row r="170" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B169" s="33"/>
+      <c r="C169" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="E169" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F169" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="G169" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="H169" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="I169" s="37"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="37"/>
+    </row>
+    <row r="170" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A170" s="4">
         <v>163</v>
       </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E170" s="5" t="s">
+      <c r="B170" s="33" t="s">
+        <v>402</v>
+      </c>
+      <c r="C170" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E170" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F170" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="G170" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F170" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="G170" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H170" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="I170" s="6"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="6"/>
-    </row>
-    <row r="171" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H170" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="I170" s="37"/>
+      <c r="J170" s="36"/>
+      <c r="K170" s="37"/>
+    </row>
+    <row r="171" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A171" s="4">
         <v>164</v>
       </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H171" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="6"/>
-    </row>
-    <row r="172" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B171" s="33"/>
+      <c r="C171" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D171" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="E171" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F171" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="G171" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="H171" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="I171" s="37"/>
+      <c r="J171" s="36"/>
+      <c r="K171" s="37"/>
+    </row>
+    <row r="172" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A172" s="4">
         <v>165</v>
       </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4" t="s">
+      <c r="B172" s="33"/>
+      <c r="C172" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="I172" s="6"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="6"/>
-    </row>
-    <row r="173" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D172" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E172" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F172" s="34" t="s">
+        <v>410</v>
+      </c>
+      <c r="G172" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H172" s="34" t="s">
+        <v>411</v>
+      </c>
+      <c r="I172" s="37"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="37"/>
+    </row>
+    <row r="173" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A173" s="4">
         <v>166</v>
       </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4" t="s">
+      <c r="B173" s="33"/>
+      <c r="C173" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="H173" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="I173" s="8"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="6"/>
-    </row>
-    <row r="174" spans="1:11" s="3" customFormat="1" ht="369" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D173" s="33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E173" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F173" s="34" t="s">
+        <v>413</v>
+      </c>
+      <c r="G173" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="H173" s="34" t="s">
+        <v>415</v>
+      </c>
+      <c r="I173" s="37"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="37"/>
+    </row>
+    <row r="174" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A174" s="4">
         <v>167</v>
       </c>
-      <c r="B174" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D174" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E174" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="G174" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H174" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="I174" s="16"/>
-      <c r="J174" s="13"/>
-      <c r="K174" s="14"/>
-    </row>
-    <row r="175" spans="1:11" s="3" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="B174" s="33"/>
+      <c r="C174" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D174" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="E174" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="F174" s="34" t="s">
+        <v>417</v>
+      </c>
+      <c r="G174" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="H174" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="I174" s="37"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="37"/>
+    </row>
+    <row r="175" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A175" s="4">
         <v>168</v>
       </c>
-      <c r="B175" s="10"/>
-      <c r="C175" s="21" t="s">
+      <c r="B175" s="33"/>
+      <c r="C175" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D175" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E175" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="G175" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="H175" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="I175" s="16"/>
-      <c r="J175" s="13"/>
-      <c r="K175" s="14"/>
-    </row>
-    <row r="176" spans="1:11" s="3" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="E175" s="34" t="s">
+        <v>421</v>
+      </c>
+      <c r="F175" s="34" t="s">
+        <v>422</v>
+      </c>
+      <c r="G175" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="H175" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="I175" s="35"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="37"/>
+    </row>
+    <row r="176" spans="1:11" s="38" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4">
         <v>169</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="10" t="s">
+      <c r="B176" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C176" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D176" s="11" t="s">
+      <c r="D176" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E176" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F176" s="11" t="s">
+      <c r="E176" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F176" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G176" s="11" t="s">
+      <c r="G176" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H176" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="I176" s="16"/>
-      <c r="J176" s="13"/>
-      <c r="K176" s="14"/>
-    </row>
-    <row r="177" spans="1:11" s="3" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="H176" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="I176" s="35"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="37"/>
+    </row>
+    <row r="177" spans="1:11" s="38" customFormat="1" ht="225" x14ac:dyDescent="0.4">
       <c r="A177" s="4">
         <v>170</v>
       </c>
-      <c r="B177" s="10"/>
-      <c r="C177" s="21" t="s">
+      <c r="B177" s="33"/>
+      <c r="C177" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="10" t="s">
+      <c r="D177" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E177" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F177" s="11" t="s">
+      <c r="E177" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="F177" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G177" s="11" t="s">
+      <c r="G177" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H177" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="I177" s="16"/>
-      <c r="J177" s="13"/>
-      <c r="K177" s="14"/>
-    </row>
-    <row r="178" spans="1:11" s="3" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H177" s="43" t="s">
+        <v>427</v>
+      </c>
+      <c r="I177" s="35"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="37"/>
+    </row>
+    <row r="178" spans="1:11" s="38" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4">
         <v>171</v>
       </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="10" t="s">
+      <c r="B178" s="33"/>
+      <c r="C178" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D178" s="11" t="s">
+      <c r="D178" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E178" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F178" s="11" t="s">
+      <c r="E178" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F178" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G178" s="11" t="s">
+      <c r="G178" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H178" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="I178" s="16"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="14"/>
-    </row>
-    <row r="179" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H178" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="I178" s="35"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="37"/>
+    </row>
+    <row r="179" spans="1:11" s="38" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A179" s="4">
         <v>172</v>
       </c>
-      <c r="B179" s="10"/>
-      <c r="C179" s="21" t="s">
+      <c r="B179" s="33"/>
+      <c r="C179" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D179" s="10" t="s">
+      <c r="D179" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E179" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="F179" s="11" t="s">
+      <c r="E179" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F179" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G179" s="11" t="s">
+      <c r="G179" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H179" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="I179" s="14"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="14"/>
-    </row>
-    <row r="180" spans="1:11" s="3" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H179" s="43" t="s">
+        <v>428</v>
+      </c>
+      <c r="I179" s="35"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="37"/>
+    </row>
+    <row r="180" spans="1:11" s="38" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4">
         <v>173</v>
       </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="10" t="s">
+      <c r="B180" s="33"/>
+      <c r="C180" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D180" s="11" t="s">
+      <c r="D180" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E180" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F180" s="11" t="s">
+      <c r="E180" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F180" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G180" s="11" t="s">
+      <c r="G180" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H180" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="I180" s="16"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="14"/>
-    </row>
-    <row r="181" spans="1:11" s="3" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+      <c r="H180" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="I180" s="35"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="37"/>
+    </row>
+    <row r="181" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A181" s="4">
         <v>174</v>
       </c>
-      <c r="B181" s="10"/>
-      <c r="C181" s="21" t="s">
+      <c r="B181" s="33"/>
+      <c r="C181" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D181" s="10" t="s">
+      <c r="D181" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E181" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="F181" s="11" t="s">
+      <c r="E181" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="F181" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G181" s="11" t="s">
+      <c r="G181" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H181" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="I181" s="16"/>
-      <c r="J181" s="13"/>
-      <c r="K181" s="14"/>
-    </row>
-    <row r="182" spans="1:11" s="3" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H181" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="I181" s="37"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="37"/>
+    </row>
+    <row r="182" spans="1:11" s="38" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4">
         <v>175</v>
       </c>
-      <c r="B182" s="10"/>
-      <c r="C182" s="10" t="s">
+      <c r="B182" s="33"/>
+      <c r="C182" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D182" s="11" t="s">
+      <c r="D182" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E182" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F182" s="11" t="s">
+      <c r="E182" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F182" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G182" s="11" t="s">
+      <c r="G182" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H182" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="I182" s="16"/>
-      <c r="J182" s="13"/>
-      <c r="K182" s="14"/>
-    </row>
-    <row r="183" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H182" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="I182" s="35"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="37"/>
+    </row>
+    <row r="183" spans="1:11" s="38" customFormat="1" ht="300" x14ac:dyDescent="0.4">
       <c r="A183" s="4">
         <v>176</v>
       </c>
-      <c r="B183" s="10"/>
-      <c r="C183" s="21" t="s">
+      <c r="B183" s="33"/>
+      <c r="C183" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D183" s="10" t="s">
+      <c r="D183" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E183" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F183" s="11" t="s">
+      <c r="E183" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="F183" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G183" s="11" t="s">
+      <c r="G183" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="I183" s="16"/>
-      <c r="J183" s="13"/>
-      <c r="K183" s="14"/>
-    </row>
-    <row r="184" spans="1:11" s="3" customFormat="1" ht="367.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H183" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="I183" s="35"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="37"/>
+    </row>
+    <row r="184" spans="1:11" s="38" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4">
         <v>177</v>
       </c>
-      <c r="B184" s="10"/>
-      <c r="C184" s="10" t="s">
+      <c r="B184" s="33"/>
+      <c r="C184" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D184" s="11" t="s">
+      <c r="D184" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E184" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="F184" s="11" t="s">
+      <c r="E184" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F184" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G184" s="11" t="s">
+      <c r="G184" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H184" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="I184" s="16"/>
-      <c r="J184" s="13"/>
-      <c r="K184" s="14"/>
-    </row>
-    <row r="185" spans="1:11" s="3" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="H184" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I184" s="35"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="37"/>
+    </row>
+    <row r="185" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A185" s="4">
         <v>178</v>
       </c>
-      <c r="B185" s="10"/>
-      <c r="C185" s="21" t="s">
+      <c r="B185" s="33"/>
+      <c r="C185" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="10" t="s">
+      <c r="D185" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E185" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F185" s="11" t="s">
+      <c r="E185" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="F185" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G185" s="11" t="s">
+      <c r="G185" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H185" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="I185" s="16"/>
-      <c r="J185" s="13"/>
-      <c r="K185" s="14"/>
-    </row>
-    <row r="186" spans="1:11" s="3" customFormat="1" ht="366.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H185" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="I185" s="35"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="37"/>
+    </row>
+    <row r="186" spans="1:11" s="38" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4">
         <v>179</v>
       </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="10" t="s">
+      <c r="B186" s="33"/>
+      <c r="C186" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="11" t="s">
+      <c r="D186" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E186" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F186" s="11" t="s">
+      <c r="E186" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="F186" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G186" s="11" t="s">
+      <c r="G186" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H186" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I186" s="16"/>
-      <c r="J186" s="13"/>
-      <c r="K186" s="14"/>
-    </row>
-    <row r="187" spans="1:11" s="3" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="H186" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="I186" s="35"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="37"/>
+    </row>
+    <row r="187" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A187" s="4">
         <v>180</v>
       </c>
-      <c r="B187" s="10"/>
-      <c r="C187" s="21" t="s">
+      <c r="B187" s="33"/>
+      <c r="C187" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D187" s="10" t="s">
+      <c r="D187" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E187" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="F187" s="11" t="s">
+      <c r="E187" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="F187" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G187" s="11" t="s">
+      <c r="G187" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H187" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="I187" s="16"/>
-      <c r="J187" s="13"/>
-      <c r="K187" s="14"/>
-    </row>
-    <row r="188" spans="1:11" s="3" customFormat="1" ht="369" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H187" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="I187" s="35"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="37"/>
+    </row>
+    <row r="188" spans="1:11" s="38" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4">
         <v>181</v>
       </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="10" t="s">
+      <c r="B188" s="33"/>
+      <c r="C188" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D188" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="E188" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F188" s="11" t="s">
+      <c r="E188" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F188" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="G188" s="11" t="s">
+      <c r="G188" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H188" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="I188" s="16"/>
-      <c r="J188" s="13"/>
-      <c r="K188" s="14"/>
-    </row>
-    <row r="189" spans="1:11" s="3" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="H188" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="I188" s="35"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="37"/>
+    </row>
+    <row r="189" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A189" s="4">
         <v>182</v>
       </c>
-      <c r="B189" s="10"/>
-      <c r="C189" s="21" t="s">
+      <c r="B189" s="33"/>
+      <c r="C189" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D189" s="10" t="s">
+      <c r="D189" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="F189" s="11" t="s">
+      <c r="E189" s="34" t="s">
+        <v>232</v>
+      </c>
+      <c r="F189" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="G189" s="11" t="s">
+      <c r="G189" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="I189" s="16"/>
-      <c r="J189" s="13"/>
-      <c r="K189" s="14"/>
-    </row>
-    <row r="190" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H189" s="43" t="s">
+        <v>433</v>
+      </c>
+      <c r="I189" s="35"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="37"/>
+    </row>
+    <row r="190" spans="1:11" s="38" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4">
         <v>183</v>
       </c>
-      <c r="B190" s="4"/>
-      <c r="C190" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E190" s="19" t="s">
+      <c r="B190" s="33"/>
+      <c r="C190" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D190" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E190" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F190" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="G190" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="F190" s="19" t="s">
-        <v>253</v>
-      </c>
-      <c r="G190" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="H190" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="I190" s="6"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="6"/>
-    </row>
-    <row r="191" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H190" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="I190" s="35"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="37"/>
+    </row>
+    <row r="191" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A191" s="4">
         <v>184</v>
       </c>
-      <c r="B191" s="4"/>
-      <c r="C191" s="4" t="s">
+      <c r="B191" s="33"/>
+      <c r="C191" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D191" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E191" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="F191" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="G191" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="H191" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="6"/>
-    </row>
-    <row r="192" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D191" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E191" s="34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F191" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="G191" s="34" t="s">
+        <v>225</v>
+      </c>
+      <c r="H191" s="43" t="s">
+        <v>434</v>
+      </c>
+      <c r="I191" s="35"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="37"/>
+    </row>
+    <row r="192" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A192" s="4">
         <v>185</v>
       </c>
-      <c r="B192" s="4"/>
-      <c r="C192" s="4" t="s">
+      <c r="B192" s="33"/>
+      <c r="C192" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D192" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E192" s="19" t="s">
+      <c r="D192" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E192" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="G192" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="H192" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I192" s="6"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="6"/>
-    </row>
-    <row r="193" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="F192" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="G192" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="H192" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="I192" s="37"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="37"/>
+    </row>
+    <row r="193" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A193" s="4">
         <v>186</v>
       </c>
-      <c r="B193" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E193" s="5" t="s">
+      <c r="B193" s="33"/>
+      <c r="C193" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="E193" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="G193" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H193" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="I193" s="18"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="6"/>
+      <c r="F193" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="G193" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="H193" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="I193" s="37"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="37"/>
+    </row>
+    <row r="194" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A194" s="4">
+        <v>187</v>
+      </c>
+      <c r="B194" s="33"/>
+      <c r="C194" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E194" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F194" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G194" s="41" t="s">
+        <v>252</v>
+      </c>
+      <c r="H194" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="I194" s="37"/>
+      <c r="J194" s="36"/>
+      <c r="K194" s="37"/>
+    </row>
+    <row r="195" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="A195" s="4">
+        <v>188</v>
+      </c>
+      <c r="B195" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="C195" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="D195" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E195" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F195" s="34" t="s">
+        <v>263</v>
+      </c>
+      <c r="G195" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="H195" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="I195" s="39"/>
+      <c r="J195" s="36"/>
+      <c r="K195" s="37"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:M37" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>

--- a/テスト/評価システム結合テストチェックリスト.xlsx
+++ b/テスト/評価システム結合テストチェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B251BF-00C3-4E83-9FFA-B904D4BF0781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A9F5B-8BE1-4959-8B31-74B077C7AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -9246,61 +9246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=128
-[Expt]入力値=0
-[内容]入力値=テスト3
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[エラーメッセージ]に
 "※ptの上限値を超えています。"
 と表示される</t>
@@ -9342,61 +9287,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=-129
-[Expt]入力値=0
-[内容]入力値=テスト4
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [pt]の値が上限値以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -9429,61 +9319,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=128
-[Expt]入力値=0
-[内容]入力値=テスト5
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="46" eb="49">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [pt]の値が下限値以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -9516,61 +9351,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=-129
-[Expt]入力値=0
-[内容]入力値=テスト6
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="47" eb="50">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[登録確認OK]ボタン押下時
 [Expt]の値が上限値以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -9599,61 +9379,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=128
-[内容]入力値=テスト7
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9695,171 +9420,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=-129
-[内容]入力値=テスト8
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=128
-[内容]入力値=テスト9
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="69" eb="72">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=-129
-[内容]入力値=テスト10
-[備考]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="57" eb="60">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="71" eb="74">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10929,180 +10489,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[評価項目]入力値=テスト3
-[pt]入力値=128
-[Expt]入力値=0
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト4
-[pt]入力値=-129
-[Expt]入力値=0
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト5
-[pt]入力値=128
-[Expt]入力値=0
-[説明]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="33" eb="36">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト6
-[pt]入力値=-129
-[Expt]入力値=0
-[説明]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト3
-[pt]入力値=0
-[Expt]入力値=128
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト4
-[pt]入力値=0
-[Expt]入力値=-129
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [Expt]の値が上限値以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -11131,64 +10517,6 @@
     </rPh>
     <rPh sb="36" eb="38">
       <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト5
-[pt]入力値=0
-[Expt]入力値=128
-[説明]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト6
-[pt]入力値=0
-[Expt]入力値=-129
-[説明]入力値=なし
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -11961,6 +11289,678 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="55" eb="57">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=32768
+[Expt]入力値=0
+[内容]入力値=テスト3
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=-32769
+[Expt]入力値=0
+[内容]入力値=テスト4
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=32768
+[Expt]入力値=0
+[内容]入力値=テスト5
+[備考]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=-32769
+[Expt]入力値=0
+[内容]入力値=テスト6
+[備考]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="52">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=32768
+[内容]入力値=テスト7
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=-32769
+[内容]入力値=テスト8
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=32768
+[内容]入力値=テスト9
+[備考]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="71" eb="74">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=0
+[Expt]入力値=-32769
+[内容]入力値=テスト10
+[備考]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト3
+[pt]入力値=32768
+[Expt]入力値=0
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト4
+[pt]入力値=-32769
+[Expt]入力値=0
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト5
+[pt]入力値=32768
+[Expt]入力値=0
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト6
+[pt]入力値=-32769
+[Expt]入力値=0
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト3
+[pt]入力値=0
+[Expt]入力値=32768
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト4
+[pt]入力値=0
+[Expt]入力値=-32769
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト5
+[pt]入力値=0
+[Expt]入力値=32768
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト6
+[pt]入力値=0
+[Expt]入力値=-32769
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="46" eb="49">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -12175,7 +12175,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12236,6 +12236,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -12274,42 +12283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12627,8 +12600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B200" sqref="B200"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12646,70 +12619,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="30">
+      <c r="I1" s="33">
         <v>45173</v>
       </c>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="33" t="s">
+        <v>409</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I5" s="2"/>
@@ -12717,52 +12690,52 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="32" t="s">
+      <c r="E6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="I6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="35" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -14369,7 +14342,7 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>135</v>
@@ -14902,10 +14875,10 @@
         <v>338</v>
       </c>
       <c r="G86" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>339</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>340</v>
       </c>
       <c r="I86" s="6"/>
       <c r="J86" s="7"/>
@@ -14926,13 +14899,13 @@
         <v>19</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>342</v>
+        <v>428</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="7"/>
@@ -14953,13 +14926,13 @@
         <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I88" s="6"/>
       <c r="J88" s="7"/>
@@ -14980,13 +14953,13 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="7"/>
@@ -15007,13 +14980,13 @@
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>348</v>
+        <v>431</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I90" s="6"/>
       <c r="J90" s="7"/>
@@ -15034,13 +15007,13 @@
         <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>351</v>
+        <v>432</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I91" s="6"/>
       <c r="J91" s="7"/>
@@ -15061,13 +15034,13 @@
         <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>352</v>
+        <v>433</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I92" s="6"/>
       <c r="J92" s="7"/>
@@ -15088,13 +15061,13 @@
         <v>19</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>353</v>
+        <v>434</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="7"/>
@@ -15115,13 +15088,13 @@
         <v>19</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="7"/>
@@ -15142,13 +15115,13 @@
         <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="7"/>
@@ -15169,13 +15142,13 @@
         <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="7"/>
@@ -15196,226 +15169,226 @@
         <v>19</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
     </row>
-    <row r="98" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>91</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="34" t="s">
+      <c r="B98" s="4"/>
+      <c r="C98" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D98" s="33" t="s">
+      <c r="D98" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E98" s="33" t="s">
+      <c r="E98" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="34" t="s">
-        <v>435</v>
-      </c>
-      <c r="G98" s="34" t="s">
-        <v>436</v>
-      </c>
-      <c r="H98" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="I98" s="35"/>
-      <c r="J98" s="36"/>
-      <c r="K98" s="37"/>
-    </row>
-    <row r="99" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F98" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I98" s="8"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="6"/>
+    </row>
+    <row r="99" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>92</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="34" t="s">
+      <c r="B99" s="4"/>
+      <c r="C99" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D99" s="33" t="s">
+      <c r="D99" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E99" s="33" t="s">
+      <c r="E99" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="34" t="s">
-        <v>438</v>
-      </c>
-      <c r="G99" s="34" t="s">
-        <v>439</v>
-      </c>
-      <c r="H99" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="I99" s="35"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="37"/>
-    </row>
-    <row r="100" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F99" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="I99" s="8"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="6"/>
+    </row>
+    <row r="100" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>93</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="34" t="s">
+      <c r="B100" s="4"/>
+      <c r="C100" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D100" s="33" t="s">
+      <c r="D100" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="33" t="s">
+      <c r="E100" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F100" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G100" s="34" t="s">
-        <v>363</v>
-      </c>
-      <c r="H100" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="I100" s="35"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="37"/>
-    </row>
-    <row r="101" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F100" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I100" s="8"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="6"/>
+    </row>
+    <row r="101" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A101" s="4">
         <v>94</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="34" t="s">
+      <c r="B101" s="4"/>
+      <c r="C101" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D101" s="33" t="s">
+      <c r="D101" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E101" s="33" t="s">
+      <c r="E101" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F101" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G101" s="34" t="s">
-        <v>365</v>
-      </c>
-      <c r="H101" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="I101" s="35"/>
-      <c r="J101" s="36"/>
-      <c r="K101" s="37"/>
-    </row>
-    <row r="102" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F101" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I101" s="8"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="6"/>
+    </row>
+    <row r="102" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A102" s="4">
         <v>95</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="34" t="s">
+      <c r="B102" s="4"/>
+      <c r="C102" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D102" s="33" t="s">
+      <c r="D102" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E102" s="33" t="s">
+      <c r="E102" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F102" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>366</v>
-      </c>
-      <c r="H102" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="I102" s="35"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="37"/>
-    </row>
-    <row r="103" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F102" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="6"/>
+    </row>
+    <row r="103" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A103" s="4">
         <v>96</v>
       </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="34" t="s">
+      <c r="B103" s="4"/>
+      <c r="C103" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D103" s="33" t="s">
+      <c r="D103" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="33" t="s">
+      <c r="E103" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F103" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G103" s="34" t="s">
-        <v>367</v>
-      </c>
-      <c r="H103" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="I103" s="35"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="37"/>
-    </row>
-    <row r="104" spans="1:11" s="38" customFormat="1" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="F103" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I103" s="8"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="6"/>
+    </row>
+    <row r="104" spans="1:11" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A104" s="4">
         <v>97</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="34" t="s">
+      <c r="B104" s="4"/>
+      <c r="C104" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D104" s="33" t="s">
+      <c r="D104" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E104" s="33" t="s">
+      <c r="E104" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F104" s="34" t="s">
-        <v>362</v>
-      </c>
-      <c r="G104" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="H104" s="34" t="s">
-        <v>364</v>
-      </c>
-      <c r="I104" s="35"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="37"/>
-    </row>
-    <row r="105" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="F104" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I104" s="8"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="6"/>
+    </row>
+    <row r="105" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A105" s="4">
         <v>98</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="34" t="s">
+      <c r="B105" s="4"/>
+      <c r="C105" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D105" s="33" t="s">
+      <c r="D105" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E105" s="34" t="str">
+      <c r="E105" s="5" t="str">
         <f>"テストNo."&amp;A100&amp;"のデータが[TM_point]に登録されている"</f>
         <v>テストNo.93のデータが[TM_point]に登録されている</v>
       </c>
-      <c r="F105" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G105" s="34" t="str">
+      <c r="F105" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G105" s="5" t="str">
         <f>"テストNo."&amp;A100&amp;"のデータをクリック
 [技官区分]入力値=技術系
 [業資区分]入力値=管理系
@@ -15433,32 +15406,32 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H105" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I105" s="35"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="37"/>
-    </row>
-    <row r="106" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="H105" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I105" s="8"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="6"/>
+    </row>
+    <row r="106" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A106" s="4">
         <v>99</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="34" t="s">
+      <c r="B106" s="4"/>
+      <c r="C106" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D106" s="33" t="s">
+      <c r="D106" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E106" s="34" t="str">
+      <c r="E106" s="5" t="str">
         <f>"テストNo."&amp;A101&amp;"のデータが[TM_point]に登録されている"</f>
         <v>テストNo.94のデータが[TM_point]に登録されている</v>
       </c>
-      <c r="F106" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G106" s="34" t="str">
+      <c r="F106" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G106" s="5" t="str">
         <f>"テストNo."&amp;A101&amp;"のデータをクリック
 [技官区分]入力値=管理系
 [業資区分]入力値=実務系
@@ -15476,32 +15449,32 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H106" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I106" s="35"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="37"/>
-    </row>
-    <row r="107" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="H106" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I106" s="8"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="6"/>
+    </row>
+    <row r="107" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A107" s="4">
         <v>100</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="34" t="s">
+      <c r="B107" s="4"/>
+      <c r="C107" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D107" s="33" t="s">
+      <c r="D107" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E107" s="34" t="str">
+      <c r="E107" s="5" t="str">
         <f>"テストNo."&amp;A102&amp;"のデータが[TM_point]に登録されている"</f>
         <v>テストNo.95のデータが[TM_point]に登録されている</v>
       </c>
-      <c r="F107" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G107" s="34" t="str">
+      <c r="F107" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G107" s="5" t="str">
         <f>"テストNo."&amp;A102&amp;"のデータをクリック
 [技官区分]入力値=管理系
 [業資区分]入力値=資格系
@@ -15519,32 +15492,32 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H107" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I107" s="35"/>
-      <c r="J107" s="36"/>
-      <c r="K107" s="37"/>
-    </row>
-    <row r="108" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="H107" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I107" s="8"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="6"/>
+    </row>
+    <row r="108" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A108" s="4">
         <v>101</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="34" t="s">
+      <c r="B108" s="4"/>
+      <c r="C108" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D108" s="33" t="s">
+      <c r="D108" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E108" s="34" t="str">
+      <c r="E108" s="5" t="str">
         <f t="shared" ref="E108:E109" si="0">"テストNo."&amp;A103&amp;"のデータが[TM_point]に登録されている"</f>
         <v>テストNo.96のデータが[TM_point]に登録されている</v>
       </c>
-      <c r="F108" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G108" s="34" t="str">
+      <c r="F108" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G108" s="5" t="str">
         <f>"テストNo."&amp;A103&amp;"のデータをクリック
 [技官区分]入力値=会社貢献系
 [業資区分]入力値=会社貢献系
@@ -15562,32 +15535,32 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H108" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I108" s="35"/>
-      <c r="J108" s="36"/>
-      <c r="K108" s="37"/>
-    </row>
-    <row r="109" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="H108" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="6"/>
+    </row>
+    <row r="109" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A109" s="4">
         <v>102</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="34" t="s">
+      <c r="B109" s="4"/>
+      <c r="C109" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D109" s="33" t="s">
+      <c r="D109" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E109" s="34" t="str">
+      <c r="E109" s="5" t="str">
         <f t="shared" si="0"/>
         <v>テストNo.97のデータが[TM_point]に登録されている</v>
       </c>
-      <c r="F109" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="G109" s="34" t="str">
+      <c r="F109" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G109" s="5" t="str">
         <f>"テストNo."&amp;A104&amp;"のデータをクリック
 [技官区分]入力値=管理系
 [業資区分]入力値=実務系
@@ -15605,2352 +15578,2352 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H109" s="34" t="s">
-        <v>370</v>
-      </c>
-      <c r="I109" s="35"/>
-      <c r="J109" s="36"/>
-      <c r="K109" s="37"/>
-    </row>
-    <row r="110" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H109" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="I109" s="8"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="6"/>
+    </row>
+    <row r="110" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A110" s="4">
         <v>103</v>
       </c>
-      <c r="B110" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C110" s="34" t="s">
+      <c r="B110" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C110" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E110" s="34" t="s">
+      <c r="E110" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F110" s="34" t="s">
-        <v>372</v>
-      </c>
-      <c r="G110" s="33" t="s">
+      <c r="F110" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G110" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="I110" s="37"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="37"/>
-    </row>
-    <row r="111" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="H110" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I110" s="6"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="6"/>
+    </row>
+    <row r="111" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A111" s="4">
         <v>104</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34" t="s">
+      <c r="B111" s="4"/>
+      <c r="C111" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="33" t="s">
+      <c r="D111" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E111" s="34" t="s">
+      <c r="E111" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="F111" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="G111" s="33" t="s">
-        <v>375</v>
-      </c>
-      <c r="H111" s="34" t="s">
+      <c r="F111" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H111" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I111" s="37"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="37"/>
-    </row>
-    <row r="112" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I111" s="6"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="6"/>
+    </row>
+    <row r="112" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A112" s="4">
         <v>105</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34" t="s">
+      <c r="B112" s="4"/>
+      <c r="C112" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E112" s="34" t="s">
+      <c r="E112" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="34" t="s">
+      <c r="F112" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="G112" s="34" t="s">
+      <c r="G112" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="H112" s="34" t="s">
+      <c r="H112" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I112" s="35"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="37"/>
-    </row>
-    <row r="113" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I112" s="8"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="6"/>
+    </row>
+    <row r="113" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A113" s="4">
         <v>106</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="34" t="s">
+      <c r="B113" s="4"/>
+      <c r="C113" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="34" t="s">
+      <c r="E113" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="34" t="s">
+      <c r="F113" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="G113" s="34" t="s">
+      <c r="G113" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H113" s="34" t="s">
+      <c r="H113" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I113" s="35"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="37"/>
-    </row>
-    <row r="114" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I113" s="8"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="6"/>
+    </row>
+    <row r="114" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A114" s="4">
         <v>107</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="34" t="s">
+      <c r="B114" s="4"/>
+      <c r="C114" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E114" s="34" t="s">
+      <c r="E114" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="34" t="s">
+      <c r="F114" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="G114" s="34" t="s">
+      <c r="G114" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="34" t="s">
+      <c r="H114" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I114" s="37"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="37"/>
-    </row>
-    <row r="115" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="I114" s="6"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="6"/>
+    </row>
+    <row r="115" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A115" s="4">
         <v>108</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="34" t="s">
+      <c r="B115" s="4"/>
+      <c r="C115" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="33" t="s">
+      <c r="E115" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="34" t="s">
+      <c r="F115" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G115" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="H115" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="I115" s="37"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="37"/>
-    </row>
-    <row r="116" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="G115" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I115" s="6"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="6"/>
+    </row>
+    <row r="116" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A116" s="4">
         <v>109</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="34" t="s">
+      <c r="B116" s="4"/>
+      <c r="C116" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E116" s="33" t="s">
+      <c r="E116" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="34" t="s">
+      <c r="F116" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="G116" s="34" t="s">
-        <v>376</v>
-      </c>
-      <c r="H116" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="I116" s="37"/>
-      <c r="J116" s="36"/>
-      <c r="K116" s="37"/>
-    </row>
-    <row r="117" spans="1:11" s="38" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G116" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I116" s="6"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="6"/>
+    </row>
+    <row r="117" spans="1:11" ht="131.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4">
         <v>110</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="34" t="s">
+      <c r="B117" s="4"/>
+      <c r="C117" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E117" s="33" t="s">
+      <c r="E117" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="G117" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="H117" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="I117" s="37"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="37"/>
-    </row>
-    <row r="118" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F117" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I117" s="6"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A118" s="4">
         <v>111</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34" t="s">
+      <c r="B118" s="4"/>
+      <c r="C118" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E118" s="33" t="s">
+      <c r="E118" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F118" s="34" t="s">
-        <v>381</v>
-      </c>
-      <c r="G118" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="H118" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="I118" s="35"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="37"/>
-    </row>
-    <row r="119" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F118" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="I118" s="8"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="6"/>
+    </row>
+    <row r="119" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A119" s="4">
         <v>112</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="34" t="s">
+      <c r="B119" s="4"/>
+      <c r="C119" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E119" s="33" t="s">
+      <c r="E119" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F119" s="34" t="s">
-        <v>382</v>
-      </c>
-      <c r="G119" s="34" t="s">
-        <v>383</v>
-      </c>
-      <c r="H119" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="I119" s="35"/>
-      <c r="J119" s="36"/>
-      <c r="K119" s="37"/>
-    </row>
-    <row r="120" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F119" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I119" s="8"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="6"/>
+    </row>
+    <row r="120" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A120" s="4">
         <v>113</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="34" t="s">
+      <c r="B120" s="4"/>
+      <c r="C120" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E120" s="33" t="s">
+      <c r="E120" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F120" s="34" t="s">
-        <v>385</v>
-      </c>
-      <c r="G120" s="34" t="s">
-        <v>386</v>
-      </c>
-      <c r="H120" s="34" t="s">
-        <v>384</v>
-      </c>
-      <c r="I120" s="37"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="37"/>
-    </row>
-    <row r="121" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F120" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I120" s="6"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="6"/>
+    </row>
+    <row r="121" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A121" s="4">
         <v>114</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="34" t="s">
+      <c r="B121" s="4"/>
+      <c r="C121" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="34" t="s">
+      <c r="F121" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G121" s="34" t="s">
-        <v>387</v>
-      </c>
-      <c r="H121" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="I121" s="37"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="37"/>
-    </row>
-    <row r="122" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="G121" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="6"/>
+    </row>
+    <row r="122" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A122" s="4">
         <v>115</v>
       </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="34" t="s">
+      <c r="B122" s="4"/>
+      <c r="C122" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E122" s="33" t="s">
+      <c r="E122" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="G122" s="34" t="s">
-        <v>388</v>
-      </c>
-      <c r="H122" s="34" t="s">
+      <c r="F122" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="I122" s="37"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="37"/>
-    </row>
-    <row r="123" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="G122" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I122" s="6"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="6"/>
+    </row>
+    <row r="123" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A123" s="4">
         <v>116</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="34" t="s">
+      <c r="B123" s="4"/>
+      <c r="C123" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D123" s="33" t="s">
+      <c r="D123" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E123" s="33" t="s">
+      <c r="E123" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="G123" s="34" t="s">
-        <v>389</v>
-      </c>
-      <c r="H123" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="I123" s="37"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="37"/>
-    </row>
-    <row r="124" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F123" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="6"/>
+    </row>
+    <row r="124" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A124" s="4">
         <v>117</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="34" t="s">
+      <c r="B124" s="4"/>
+      <c r="C124" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D124" s="33" t="s">
+      <c r="D124" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E124" s="33" t="s">
+      <c r="E124" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="G124" s="34" t="s">
-        <v>390</v>
-      </c>
-      <c r="H124" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="I124" s="37"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="37"/>
-    </row>
-    <row r="125" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F124" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="6"/>
+    </row>
+    <row r="125" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A125" s="4">
         <v>118</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="34" t="s">
+      <c r="B125" s="4"/>
+      <c r="C125" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D125" s="33" t="s">
+      <c r="D125" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E125" s="33" t="s">
+      <c r="E125" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G125" s="34" t="s">
-        <v>391</v>
-      </c>
-      <c r="H125" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="I125" s="35"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="37"/>
-    </row>
-    <row r="126" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F125" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I125" s="8"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="6"/>
+    </row>
+    <row r="126" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A126" s="4">
         <v>119</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="34" t="s">
+      <c r="B126" s="4"/>
+      <c r="C126" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D126" s="33" t="s">
+      <c r="D126" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E126" s="33" t="s">
+      <c r="E126" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="G126" s="34" t="s">
-        <v>392</v>
-      </c>
-      <c r="H126" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="I126" s="35"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="37"/>
-    </row>
-    <row r="127" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F126" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I126" s="8"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="6"/>
+    </row>
+    <row r="127" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A127" s="4">
         <v>120</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="34" t="s">
+      <c r="B127" s="4"/>
+      <c r="C127" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D127" s="33" t="s">
+      <c r="D127" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E127" s="33" t="s">
+      <c r="E127" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F127" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="G127" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="H127" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="I127" s="37"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="37"/>
-    </row>
-    <row r="128" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F127" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="6"/>
+    </row>
+    <row r="128" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <v>121</v>
       </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="34" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D128" s="33" t="s">
+      <c r="D128" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E128" s="33" t="s">
+      <c r="E128" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F128" s="34" t="s">
-        <v>393</v>
-      </c>
-      <c r="G128" s="34" t="s">
-        <v>395</v>
-      </c>
-      <c r="H128" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="I128" s="37"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="37"/>
-    </row>
-    <row r="129" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F128" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="6"/>
+    </row>
+    <row r="129" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <v>122</v>
       </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="34" t="s">
+      <c r="B129" s="4"/>
+      <c r="C129" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D129" s="33" t="s">
+      <c r="D129" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E129" s="33" t="s">
+      <c r="E129" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F129" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="G129" s="34" t="s">
-        <v>397</v>
-      </c>
-      <c r="H129" s="34" t="s">
-        <v>398</v>
-      </c>
-      <c r="I129" s="37"/>
-      <c r="J129" s="36"/>
-      <c r="K129" s="37"/>
-    </row>
-    <row r="130" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F129" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="I129" s="6"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="6"/>
+    </row>
+    <row r="130" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A130" s="4">
         <v>123</v>
       </c>
-      <c r="B130" s="33"/>
-      <c r="C130" s="34" t="s">
+      <c r="B130" s="4"/>
+      <c r="C130" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D130" s="33" t="s">
+      <c r="D130" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E130" s="34" t="str">
+      <c r="E130" s="5" t="str">
         <f>"テストNo."&amp;A129&amp;"のデータが[TM_self_check]に登録されている"</f>
         <v>テストNo.122のデータが[TM_self_check]に登録されている</v>
       </c>
-      <c r="F130" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>440</v>
-      </c>
-      <c r="H130" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="I130" s="37"/>
-      <c r="J130" s="36"/>
-      <c r="K130" s="37"/>
-    </row>
-    <row r="131" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F130" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I130" s="6"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="6"/>
+    </row>
+    <row r="131" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A131" s="4">
         <v>124</v>
       </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="34" t="s">
+      <c r="B131" s="4"/>
+      <c r="C131" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D131" s="33" t="s">
+      <c r="D131" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E131" s="33" t="s">
+      <c r="E131" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="F131" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="G131" s="34" t="s">
-        <v>441</v>
-      </c>
-      <c r="H131" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="I131" s="35"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="37"/>
-    </row>
-    <row r="132" spans="1:11" s="38" customFormat="1" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="F131" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="6"/>
+    </row>
+    <row r="132" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A132" s="4">
         <v>125</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="34" t="s">
+      <c r="B132" s="4"/>
+      <c r="C132" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D132" s="33" t="s">
+      <c r="D132" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E132" s="34" t="str">
+      <c r="E132" s="5" t="str">
         <f>"テストNo."&amp;A131&amp;"のデータが[TM_self_check]に登録されている"</f>
         <v>テストNo.124のデータが[TM_self_check]に登録されている</v>
       </c>
-      <c r="F132" s="34" t="s">
-        <v>399</v>
-      </c>
-      <c r="G132" s="34" t="s">
-        <v>442</v>
-      </c>
-      <c r="H132" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="I132" s="39"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="37"/>
-    </row>
-    <row r="133" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="F132" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="I132" s="17"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="6"/>
+    </row>
+    <row r="133" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A133" s="4">
         <v>126</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="B133" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C133" s="34" t="s">
+      <c r="C133" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D133" s="33" t="s">
+      <c r="D133" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E133" s="40" t="s">
+      <c r="E133" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F133" s="34" t="s">
+      <c r="F133" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H133" s="34" t="s">
+      <c r="H133" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I133" s="35"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="37"/>
-    </row>
-    <row r="134" spans="1:11" s="38" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I133" s="8"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="6"/>
+    </row>
+    <row r="134" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4">
         <v>127</v>
       </c>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33" t="s">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D134" s="33" t="s">
+      <c r="D134" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E134" s="33" t="s">
+      <c r="E134" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="34" t="s">
+      <c r="F134" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G134" s="34" t="s">
+      <c r="G134" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="H134" s="34" t="s">
+      <c r="H134" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I134" s="37"/>
-      <c r="J134" s="36"/>
-      <c r="K134" s="37"/>
-    </row>
-    <row r="135" spans="1:11" s="38" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I134" s="6"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="6"/>
+    </row>
+    <row r="135" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4">
         <v>128</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33" t="s">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E135" s="33" t="s">
+      <c r="E135" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="34" t="s">
+      <c r="F135" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="G135" s="34" t="s">
+      <c r="G135" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="H135" s="34" t="s">
+      <c r="H135" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I135" s="37"/>
-      <c r="J135" s="36"/>
-      <c r="K135" s="37"/>
-    </row>
-    <row r="136" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I135" s="6"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="6"/>
+    </row>
+    <row r="136" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A136" s="4">
         <v>129</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33" t="s">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D136" s="33" t="s">
+      <c r="D136" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E136" s="33" t="s">
+      <c r="E136" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F136" s="34" t="s">
+      <c r="F136" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="G136" s="34" t="s">
+      <c r="G136" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H136" s="34" t="s">
+      <c r="H136" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I136" s="37"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="37"/>
-    </row>
-    <row r="137" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I136" s="6"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="6"/>
+    </row>
+    <row r="137" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A137" s="4">
         <v>130</v>
       </c>
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D137" s="33" t="s">
+      <c r="D137" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E137" s="40" t="s">
+      <c r="E137" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F137" s="34" t="s">
+      <c r="F137" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="G137" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H137" s="34" t="s">
+      <c r="H137" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I137" s="35"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="37"/>
-    </row>
-    <row r="138" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="I137" s="8"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="6"/>
+    </row>
+    <row r="138" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A138" s="4">
         <v>131</v>
       </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34" t="s">
+      <c r="B138" s="4"/>
+      <c r="C138" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D138" s="33" t="s">
+      <c r="D138" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="41" t="s">
+      <c r="E138" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="F138" s="34" t="s">
+      <c r="F138" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="G138" s="34" t="s">
+      <c r="G138" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H138" s="34" t="s">
+      <c r="H138" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I138" s="37"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="37"/>
-    </row>
-    <row r="139" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I138" s="6"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="6"/>
+    </row>
+    <row r="139" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A139" s="4">
         <v>132</v>
       </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="34" t="s">
+      <c r="B139" s="4"/>
+      <c r="C139" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D139" s="33" t="s">
+      <c r="D139" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="41" t="s">
+      <c r="E139" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F139" s="34" t="s">
+      <c r="F139" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="G139" s="34" t="s">
+      <c r="G139" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="H139" s="34" t="s">
+      <c r="H139" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I139" s="37"/>
-      <c r="J139" s="36"/>
-      <c r="K139" s="37"/>
-    </row>
-    <row r="140" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I139" s="6"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="6"/>
+    </row>
+    <row r="140" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A140" s="4">
         <v>133</v>
       </c>
-      <c r="B140" s="33"/>
-      <c r="C140" s="34" t="s">
+      <c r="B140" s="4"/>
+      <c r="C140" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D140" s="33" t="s">
+      <c r="D140" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="41" t="s">
+      <c r="E140" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F140" s="34" t="s">
+      <c r="F140" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="G140" s="34" t="s">
+      <c r="G140" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="H140" s="34" t="s">
+      <c r="H140" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I140" s="37"/>
-      <c r="J140" s="36"/>
-      <c r="K140" s="37"/>
-    </row>
-    <row r="141" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I140" s="6"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="6"/>
+    </row>
+    <row r="141" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A141" s="4">
         <v>134</v>
       </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="34" t="s">
+      <c r="B141" s="4"/>
+      <c r="C141" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D141" s="33" t="s">
+      <c r="D141" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="41" t="s">
+      <c r="E141" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F141" s="34" t="s">
+      <c r="F141" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G141" s="34" t="s">
+      <c r="G141" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="H141" s="34" t="s">
+      <c r="H141" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I141" s="37"/>
-      <c r="J141" s="36"/>
-      <c r="K141" s="37"/>
-    </row>
-    <row r="142" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I141" s="6"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="6"/>
+    </row>
+    <row r="142" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A142" s="4">
         <v>135</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="34" t="s">
+      <c r="B142" s="4"/>
+      <c r="C142" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D142" s="33" t="s">
+      <c r="D142" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E142" s="41" t="s">
+      <c r="E142" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="F142" s="34" t="s">
+      <c r="F142" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="G142" s="34" t="s">
+      <c r="G142" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="H142" s="34" t="s">
+      <c r="H142" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I142" s="37"/>
-      <c r="J142" s="36"/>
-      <c r="K142" s="37"/>
-    </row>
-    <row r="143" spans="1:11" s="38" customFormat="1" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="I142" s="6"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="6"/>
+    </row>
+    <row r="143" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A143" s="4">
         <v>136</v>
       </c>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33" t="s">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D143" s="33" t="s">
+      <c r="D143" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E143" s="41" t="s">
+      <c r="E143" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F143" s="41" t="s">
+      <c r="F143" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="G143" s="34" t="s">
+      <c r="G143" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H143" s="34" t="s">
+      <c r="H143" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I143" s="37"/>
-      <c r="J143" s="36"/>
-      <c r="K143" s="37"/>
-    </row>
-    <row r="144" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I143" s="6"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="6"/>
+    </row>
+    <row r="144" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A144" s="4">
         <v>137</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33" t="s">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D144" s="33" t="s">
+      <c r="D144" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E144" s="41" t="s">
+      <c r="E144" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F144" s="41" t="s">
+      <c r="F144" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G144" s="34" t="s">
+      <c r="G144" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H144" s="34" t="s">
+      <c r="H144" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I144" s="37"/>
-      <c r="J144" s="36"/>
-      <c r="K144" s="37"/>
-    </row>
-    <row r="145" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I144" s="6"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="6"/>
+    </row>
+    <row r="145" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A145" s="4">
         <v>138</v>
       </c>
-      <c r="B145" s="33" t="s">
+      <c r="B145" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C145" s="33" t="s">
+      <c r="C145" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D145" s="33" t="s">
+      <c r="D145" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E145" s="40" t="s">
+      <c r="E145" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="F145" s="34" t="s">
+      <c r="F145" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H145" s="34" t="s">
+      <c r="H145" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I145" s="37"/>
-      <c r="J145" s="36"/>
-      <c r="K145" s="37"/>
-    </row>
-    <row r="146" spans="1:11" s="38" customFormat="1" ht="150" x14ac:dyDescent="0.4">
+      <c r="I145" s="6"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="6"/>
+    </row>
+    <row r="146" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A146" s="4">
         <v>139</v>
       </c>
-      <c r="B146" s="33"/>
-      <c r="C146" s="34" t="s">
+      <c r="B146" s="4"/>
+      <c r="C146" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D146" s="33" t="s">
+      <c r="D146" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E146" s="41" t="s">
+      <c r="E146" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F146" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="G146" s="34" t="s">
+      <c r="G146" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H146" s="34" t="s">
+      <c r="H146" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I146" s="37"/>
-      <c r="J146" s="36"/>
-      <c r="K146" s="37"/>
-    </row>
-    <row r="147" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I146" s="6"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="6"/>
+    </row>
+    <row r="147" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A147" s="4">
         <v>140</v>
       </c>
-      <c r="B147" s="33"/>
-      <c r="C147" s="34" t="s">
+      <c r="B147" s="4"/>
+      <c r="C147" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D147" s="33" t="s">
+      <c r="D147" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E147" s="41" t="s">
+      <c r="E147" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="F147" s="34" t="s">
+      <c r="F147" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="G147" s="34" t="s">
+      <c r="G147" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="H147" s="34" t="s">
+      <c r="H147" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I147" s="37"/>
-      <c r="J147" s="36"/>
-      <c r="K147" s="37"/>
-    </row>
-    <row r="148" spans="1:11" s="38" customFormat="1" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="I147" s="6"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="6"/>
+    </row>
+    <row r="148" spans="1:11" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A148" s="4">
         <v>141</v>
       </c>
-      <c r="B148" s="33"/>
-      <c r="C148" s="33" t="s">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D148" s="33" t="s">
+      <c r="D148" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="42" t="s">
+      <c r="E148" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="41" t="s">
+      <c r="F148" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="G148" s="34" t="s">
+      <c r="G148" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="H148" s="34" t="s">
+      <c r="H148" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I148" s="37"/>
-      <c r="J148" s="36"/>
-      <c r="K148" s="37"/>
-    </row>
-    <row r="149" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I148" s="6"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="6"/>
+    </row>
+    <row r="149" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A149" s="4">
         <v>142</v>
       </c>
-      <c r="B149" s="33"/>
-      <c r="C149" s="33" t="s">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D149" s="33" t="s">
+      <c r="D149" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E149" s="41" t="s">
+      <c r="E149" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="41" t="s">
+      <c r="F149" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="G149" s="34" t="s">
+      <c r="G149" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="H149" s="34" t="s">
+      <c r="H149" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I149" s="37"/>
-      <c r="J149" s="36"/>
-      <c r="K149" s="37"/>
-    </row>
-    <row r="150" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I149" s="6"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="6"/>
+    </row>
+    <row r="150" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A150" s="4">
         <v>143</v>
       </c>
-      <c r="B150" s="33"/>
-      <c r="C150" s="33" t="s">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D150" s="33" t="s">
+      <c r="D150" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E150" s="41" t="s">
+      <c r="E150" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F150" s="41" t="s">
+      <c r="F150" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G150" s="34" t="s">
+      <c r="G150" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H150" s="34" t="s">
+      <c r="H150" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I150" s="37"/>
-      <c r="J150" s="36"/>
-      <c r="K150" s="37"/>
-    </row>
-    <row r="151" spans="1:11" s="38" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I150" s="6"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="6"/>
+    </row>
+    <row r="151" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4">
         <v>144</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C151" s="33" t="s">
+      <c r="C151" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E151" s="34" t="s">
+      <c r="E151" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F151" s="34" t="s">
+      <c r="F151" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G151" s="34" t="s">
+      <c r="G151" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H151" s="43" t="s">
+      <c r="H151" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I151" s="35"/>
-      <c r="J151" s="36"/>
-      <c r="K151" s="37"/>
-    </row>
-    <row r="152" spans="1:11" s="38" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="I151" s="8"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="6"/>
+    </row>
+    <row r="152" spans="1:11" ht="225" x14ac:dyDescent="0.4">
       <c r="A152" s="4">
         <v>145</v>
       </c>
-      <c r="B152" s="33"/>
-      <c r="C152" s="44" t="s">
+      <c r="B152" s="4"/>
+      <c r="C152" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D152" s="33" t="s">
+      <c r="D152" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E152" s="34" t="s">
+      <c r="E152" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F152" s="34" t="s">
+      <c r="F152" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G152" s="34" t="s">
+      <c r="G152" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H152" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="I152" s="35"/>
-      <c r="J152" s="36"/>
-      <c r="K152" s="37"/>
-    </row>
-    <row r="153" spans="1:11" s="38" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H152" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="I152" s="8"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="6"/>
+    </row>
+    <row r="153" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4">
         <v>146</v>
       </c>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33" t="s">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E153" s="34" t="s">
+      <c r="E153" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F153" s="34" t="s">
+      <c r="F153" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G153" s="34" t="s">
+      <c r="G153" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="43" t="s">
+      <c r="H153" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I153" s="35"/>
-      <c r="J153" s="36"/>
-      <c r="K153" s="37"/>
-    </row>
-    <row r="154" spans="1:11" s="38" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="I153" s="8"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="6"/>
+    </row>
+    <row r="154" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A154" s="4">
         <v>147</v>
       </c>
-      <c r="B154" s="33"/>
-      <c r="C154" s="44" t="s">
+      <c r="B154" s="4"/>
+      <c r="C154" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D154" s="33" t="s">
+      <c r="D154" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E154" s="34" t="s">
+      <c r="E154" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F154" s="34" t="s">
+      <c r="F154" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G154" s="34" t="s">
+      <c r="G154" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H154" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="I154" s="35"/>
-      <c r="J154" s="36"/>
-      <c r="K154" s="37"/>
-    </row>
-    <row r="155" spans="1:11" s="38" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H154" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I154" s="8"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="6"/>
+    </row>
+    <row r="155" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4">
         <v>148</v>
       </c>
-      <c r="B155" s="33"/>
-      <c r="C155" s="33" t="s">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E155" s="34" t="s">
+      <c r="E155" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F155" s="34" t="s">
+      <c r="F155" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G155" s="34" t="s">
+      <c r="G155" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="43" t="s">
+      <c r="H155" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="I155" s="35"/>
-      <c r="J155" s="36"/>
-      <c r="K155" s="37"/>
-    </row>
-    <row r="156" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I155" s="8"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="6"/>
+    </row>
+    <row r="156" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A156" s="4">
         <v>149</v>
       </c>
-      <c r="B156" s="33"/>
-      <c r="C156" s="44" t="s">
+      <c r="B156" s="4"/>
+      <c r="C156" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D156" s="33" t="s">
+      <c r="D156" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E156" s="34" t="s">
+      <c r="E156" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F156" s="34" t="s">
+      <c r="F156" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G156" s="34" t="s">
+      <c r="G156" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="I156" s="37"/>
-      <c r="J156" s="36"/>
-      <c r="K156" s="37"/>
-    </row>
-    <row r="157" spans="1:11" s="38" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H156" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="I156" s="6"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="6"/>
+    </row>
+    <row r="157" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4">
         <v>150</v>
       </c>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33" t="s">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D157" s="34" t="s">
+      <c r="D157" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E157" s="34" t="s">
+      <c r="E157" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F157" s="34" t="s">
+      <c r="F157" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G157" s="34" t="s">
+      <c r="G157" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="43" t="s">
+      <c r="H157" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I157" s="35"/>
-      <c r="J157" s="36"/>
-      <c r="K157" s="37"/>
-    </row>
-    <row r="158" spans="1:11" s="38" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+      <c r="I157" s="8"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="6"/>
+    </row>
+    <row r="158" spans="1:11" ht="300" x14ac:dyDescent="0.4">
       <c r="A158" s="4">
         <v>151</v>
       </c>
-      <c r="B158" s="33"/>
-      <c r="C158" s="44" t="s">
+      <c r="B158" s="4"/>
+      <c r="C158" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D158" s="33" t="s">
+      <c r="D158" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E158" s="34" t="s">
+      <c r="E158" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F158" s="34" t="s">
+      <c r="F158" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G158" s="34" t="s">
+      <c r="G158" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="I158" s="35"/>
-      <c r="J158" s="36"/>
-      <c r="K158" s="37"/>
-    </row>
-    <row r="159" spans="1:11" s="38" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H158" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="I158" s="8"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="6"/>
+    </row>
+    <row r="159" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4">
         <v>152</v>
       </c>
-      <c r="B159" s="33"/>
-      <c r="C159" s="33" t="s">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D159" s="34" t="s">
+      <c r="D159" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E159" s="34" t="s">
+      <c r="E159" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F159" s="34" t="s">
+      <c r="F159" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G159" s="34" t="s">
+      <c r="G159" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H159" s="43" t="s">
+      <c r="H159" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I159" s="35"/>
-      <c r="J159" s="36"/>
-      <c r="K159" s="37"/>
-    </row>
-    <row r="160" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I159" s="8"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="6"/>
+    </row>
+    <row r="160" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A160" s="4">
         <v>153</v>
       </c>
-      <c r="B160" s="33"/>
-      <c r="C160" s="44" t="s">
+      <c r="B160" s="4"/>
+      <c r="C160" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D160" s="33" t="s">
+      <c r="D160" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E160" s="34" t="s">
+      <c r="E160" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F160" s="34" t="s">
+      <c r="F160" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G160" s="34" t="s">
+      <c r="G160" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="I160" s="35"/>
-      <c r="J160" s="36"/>
-      <c r="K160" s="37"/>
-    </row>
-    <row r="161" spans="1:11" s="38" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H160" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I160" s="8"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="6"/>
+    </row>
+    <row r="161" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4">
         <v>154</v>
       </c>
-      <c r="B161" s="33"/>
-      <c r="C161" s="33" t="s">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D161" s="34" t="s">
+      <c r="D161" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E161" s="34" t="s">
+      <c r="E161" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F161" s="34" t="s">
+      <c r="F161" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G161" s="34" t="s">
+      <c r="G161" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H161" s="43" t="s">
+      <c r="H161" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I161" s="35"/>
-      <c r="J161" s="36"/>
-      <c r="K161" s="37"/>
-    </row>
-    <row r="162" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I161" s="8"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="6"/>
+    </row>
+    <row r="162" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A162" s="4">
         <v>155</v>
       </c>
-      <c r="B162" s="33"/>
-      <c r="C162" s="44" t="s">
+      <c r="B162" s="4"/>
+      <c r="C162" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D162" s="33" t="s">
+      <c r="D162" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E162" s="34" t="s">
+      <c r="E162" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F162" s="34" t="s">
+      <c r="F162" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G162" s="34" t="s">
+      <c r="G162" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H162" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="I162" s="35"/>
-      <c r="J162" s="36"/>
-      <c r="K162" s="37"/>
-    </row>
-    <row r="163" spans="1:11" s="38" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H162" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="I162" s="8"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="6"/>
+    </row>
+    <row r="163" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4">
         <v>156</v>
       </c>
-      <c r="B163" s="33"/>
-      <c r="C163" s="33" t="s">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D163" s="34" t="s">
+      <c r="D163" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E163" s="34" t="s">
+      <c r="E163" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F163" s="34" t="s">
+      <c r="F163" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G163" s="34" t="s">
+      <c r="G163" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H163" s="43" t="s">
+      <c r="H163" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="I163" s="35"/>
-      <c r="J163" s="36"/>
-      <c r="K163" s="37"/>
-    </row>
-    <row r="164" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="I163" s="8"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="6"/>
+    </row>
+    <row r="164" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A164" s="4">
         <v>157</v>
       </c>
-      <c r="B164" s="33"/>
-      <c r="C164" s="44" t="s">
+      <c r="B164" s="4"/>
+      <c r="C164" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D164" s="33" t="s">
+      <c r="D164" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E164" s="34" t="s">
+      <c r="E164" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F164" s="34" t="s">
+      <c r="F164" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G164" s="34" t="s">
+      <c r="G164" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H164" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="I164" s="35"/>
-      <c r="J164" s="36"/>
-      <c r="K164" s="37"/>
-    </row>
-    <row r="165" spans="1:11" s="38" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H164" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I164" s="8"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="6"/>
+    </row>
+    <row r="165" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4">
         <v>158</v>
       </c>
-      <c r="B165" s="33"/>
-      <c r="C165" s="33" t="s">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D165" s="34" t="s">
+      <c r="D165" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E165" s="34" t="s">
+      <c r="E165" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F165" s="34" t="s">
+      <c r="F165" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G165" s="34" t="s">
+      <c r="G165" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H165" s="43" t="s">
+      <c r="H165" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I165" s="35"/>
-      <c r="J165" s="36"/>
-      <c r="K165" s="37"/>
-    </row>
-    <row r="166" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="I165" s="8"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="6"/>
+    </row>
+    <row r="166" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A166" s="4">
         <v>159</v>
       </c>
-      <c r="B166" s="33"/>
-      <c r="C166" s="44" t="s">
+      <c r="B166" s="4"/>
+      <c r="C166" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D166" s="33" t="s">
+      <c r="D166" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E166" s="34" t="s">
+      <c r="E166" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F166" s="34" t="s">
+      <c r="F166" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G166" s="34" t="s">
+      <c r="G166" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H166" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="I166" s="35"/>
-      <c r="J166" s="36"/>
-      <c r="K166" s="37"/>
-    </row>
-    <row r="167" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H166" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="I166" s="8"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="6"/>
+    </row>
+    <row r="167" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A167" s="4">
         <v>160</v>
       </c>
-      <c r="B167" s="33"/>
-      <c r="C167" s="33" t="s">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D167" s="33" t="s">
+      <c r="D167" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E167" s="41" t="s">
+      <c r="E167" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="41" t="s">
+      <c r="F167" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="G167" s="34" t="s">
+      <c r="G167" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="H167" s="34" t="s">
+      <c r="H167" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I167" s="37"/>
-      <c r="J167" s="36"/>
-      <c r="K167" s="37"/>
-    </row>
-    <row r="168" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I167" s="6"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="6"/>
+    </row>
+    <row r="168" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A168" s="4">
         <v>161</v>
       </c>
-      <c r="B168" s="33"/>
-      <c r="C168" s="33" t="s">
+      <c r="B168" s="4"/>
+      <c r="C168" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D168" s="33" t="s">
+      <c r="D168" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E168" s="41" t="s">
+      <c r="E168" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F168" s="41" t="s">
+      <c r="F168" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="G168" s="34" t="s">
+      <c r="G168" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="H168" s="34" t="s">
+      <c r="H168" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I168" s="37"/>
-      <c r="J168" s="36"/>
-      <c r="K168" s="37"/>
-    </row>
-    <row r="169" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I168" s="6"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="6"/>
+    </row>
+    <row r="169" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A169" s="4">
         <v>162</v>
       </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33" t="s">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D169" s="33" t="s">
+      <c r="D169" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E169" s="41" t="s">
+      <c r="E169" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F169" s="41" t="s">
+      <c r="F169" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="G169" s="34" t="s">
+      <c r="G169" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H169" s="34" t="s">
+      <c r="H169" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="I169" s="37"/>
-      <c r="J169" s="36"/>
-      <c r="K169" s="37"/>
-    </row>
-    <row r="170" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="I169" s="6"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="6"/>
+    </row>
+    <row r="170" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A170" s="4">
         <v>163</v>
       </c>
-      <c r="B170" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="C170" s="33" t="s">
+      <c r="B170" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D170" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="E170" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="F170" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="G170" s="33" t="s">
+      <c r="D170" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G170" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="I170" s="37"/>
-      <c r="J170" s="36"/>
-      <c r="K170" s="37"/>
-    </row>
-    <row r="171" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="H170" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="I170" s="6"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="6"/>
+    </row>
+    <row r="171" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A171" s="4">
         <v>164</v>
       </c>
-      <c r="B171" s="33"/>
-      <c r="C171" s="33" t="s">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D171" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="E171" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="F171" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="G171" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="H171" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="I171" s="37"/>
-      <c r="J171" s="36"/>
-      <c r="K171" s="37"/>
-    </row>
-    <row r="172" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D171" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H171" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I171" s="6"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="6"/>
+    </row>
+    <row r="172" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A172" s="4">
         <v>165</v>
       </c>
-      <c r="B172" s="33"/>
-      <c r="C172" s="33" t="s">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D172" s="33" t="s">
+      <c r="D172" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E172" s="34" t="s">
+      <c r="E172" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F172" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="G172" s="34" t="s">
+      <c r="F172" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G172" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="H172" s="34" t="s">
-        <v>411</v>
-      </c>
-      <c r="I172" s="37"/>
-      <c r="J172" s="36"/>
-      <c r="K172" s="37"/>
-    </row>
-    <row r="173" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H172" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="6"/>
+    </row>
+    <row r="173" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A173" s="4">
         <v>166</v>
       </c>
-      <c r="B173" s="33"/>
-      <c r="C173" s="33" t="s">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D173" s="33" t="s">
-        <v>412</v>
-      </c>
-      <c r="E173" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="F173" s="34" t="s">
-        <v>413</v>
-      </c>
-      <c r="G173" s="34" t="s">
-        <v>414</v>
-      </c>
-      <c r="H173" s="34" t="s">
-        <v>415</v>
-      </c>
-      <c r="I173" s="37"/>
-      <c r="J173" s="36"/>
-      <c r="K173" s="37"/>
-    </row>
-    <row r="174" spans="1:11" s="38" customFormat="1" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="D173" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G173" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H173" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I173" s="6"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="6"/>
+    </row>
+    <row r="174" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A174" s="4">
         <v>167</v>
       </c>
-      <c r="B174" s="33"/>
-      <c r="C174" s="33" t="s">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D174" s="33" t="s">
-        <v>416</v>
-      </c>
-      <c r="E174" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="F174" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="G174" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="H174" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="I174" s="37"/>
-      <c r="J174" s="36"/>
-      <c r="K174" s="37"/>
-    </row>
-    <row r="175" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="D174" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I174" s="6"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="6"/>
+    </row>
+    <row r="175" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A175" s="4">
         <v>168</v>
       </c>
-      <c r="B175" s="33"/>
-      <c r="C175" s="33" t="s">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D175" s="33" t="s">
-        <v>420</v>
-      </c>
-      <c r="E175" s="34" t="s">
-        <v>421</v>
-      </c>
-      <c r="F175" s="34" t="s">
-        <v>422</v>
-      </c>
-      <c r="G175" s="34" t="s">
-        <v>423</v>
-      </c>
-      <c r="H175" s="34" t="s">
-        <v>424</v>
-      </c>
-      <c r="I175" s="35"/>
-      <c r="J175" s="36"/>
-      <c r="K175" s="37"/>
-    </row>
-    <row r="176" spans="1:11" s="38" customFormat="1" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D175" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G175" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="H175" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I175" s="8"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="6"/>
+    </row>
+    <row r="176" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4">
         <v>169</v>
       </c>
-      <c r="B176" s="33" t="s">
+      <c r="B176" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D176" s="34" t="s">
+      <c r="D176" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E176" s="34" t="s">
+      <c r="E176" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F176" s="34" t="s">
+      <c r="F176" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G176" s="34" t="s">
+      <c r="G176" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H176" s="43" t="s">
+      <c r="H176" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="I176" s="35"/>
-      <c r="J176" s="36"/>
-      <c r="K176" s="37"/>
-    </row>
-    <row r="177" spans="1:11" s="38" customFormat="1" ht="225" x14ac:dyDescent="0.4">
+      <c r="I176" s="8"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="6"/>
+    </row>
+    <row r="177" spans="1:11" ht="225" x14ac:dyDescent="0.4">
       <c r="A177" s="4">
         <v>170</v>
       </c>
-      <c r="B177" s="33"/>
-      <c r="C177" s="44" t="s">
+      <c r="B177" s="4"/>
+      <c r="C177" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D177" s="33" t="s">
+      <c r="D177" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E177" s="34" t="s">
+      <c r="E177" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F177" s="34" t="s">
+      <c r="F177" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G177" s="34" t="s">
+      <c r="G177" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H177" s="43" t="s">
-        <v>427</v>
-      </c>
-      <c r="I177" s="35"/>
-      <c r="J177" s="36"/>
-      <c r="K177" s="37"/>
-    </row>
-    <row r="178" spans="1:11" s="38" customFormat="1" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H177" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="I177" s="8"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="6"/>
+    </row>
+    <row r="178" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4">
         <v>171</v>
       </c>
-      <c r="B178" s="33"/>
-      <c r="C178" s="33" t="s">
+      <c r="B178" s="4"/>
+      <c r="C178" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D178" s="34" t="s">
+      <c r="D178" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E178" s="34" t="s">
+      <c r="E178" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F178" s="34" t="s">
+      <c r="F178" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G178" s="34" t="s">
+      <c r="G178" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H178" s="43" t="s">
+      <c r="H178" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I178" s="35"/>
-      <c r="J178" s="36"/>
-      <c r="K178" s="37"/>
-    </row>
-    <row r="179" spans="1:11" s="38" customFormat="1" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="I178" s="8"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="6"/>
+    </row>
+    <row r="179" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A179" s="4">
         <v>172</v>
       </c>
-      <c r="B179" s="33"/>
-      <c r="C179" s="44" t="s">
+      <c r="B179" s="4"/>
+      <c r="C179" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D179" s="33" t="s">
+      <c r="D179" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E179" s="34" t="s">
+      <c r="E179" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F179" s="34" t="s">
+      <c r="F179" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G179" s="34" t="s">
+      <c r="G179" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H179" s="43" t="s">
-        <v>428</v>
-      </c>
-      <c r="I179" s="35"/>
-      <c r="J179" s="36"/>
-      <c r="K179" s="37"/>
-    </row>
-    <row r="180" spans="1:11" s="38" customFormat="1" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H179" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="I179" s="8"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="6"/>
+    </row>
+    <row r="180" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4">
         <v>173</v>
       </c>
-      <c r="B180" s="33"/>
-      <c r="C180" s="33" t="s">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D180" s="34" t="s">
+      <c r="D180" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E180" s="34" t="s">
+      <c r="E180" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F180" s="34" t="s">
+      <c r="F180" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G180" s="34" t="s">
+      <c r="G180" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H180" s="43" t="s">
+      <c r="H180" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="I180" s="35"/>
-      <c r="J180" s="36"/>
-      <c r="K180" s="37"/>
-    </row>
-    <row r="181" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I180" s="8"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="6"/>
+    </row>
+    <row r="181" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A181" s="4">
         <v>174</v>
       </c>
-      <c r="B181" s="33"/>
-      <c r="C181" s="44" t="s">
+      <c r="B181" s="4"/>
+      <c r="C181" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D181" s="33" t="s">
+      <c r="D181" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E181" s="34" t="s">
+      <c r="E181" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F181" s="34" t="s">
+      <c r="F181" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G181" s="34" t="s">
+      <c r="G181" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H181" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="I181" s="37"/>
-      <c r="J181" s="36"/>
-      <c r="K181" s="37"/>
-    </row>
-    <row r="182" spans="1:11" s="38" customFormat="1" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H181" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="I181" s="6"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="6"/>
+    </row>
+    <row r="182" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4">
         <v>175</v>
       </c>
-      <c r="B182" s="33"/>
-      <c r="C182" s="33" t="s">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D182" s="34" t="s">
+      <c r="D182" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E182" s="34" t="s">
+      <c r="E182" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F182" s="34" t="s">
+      <c r="F182" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G182" s="34" t="s">
+      <c r="G182" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H182" s="43" t="s">
+      <c r="H182" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="I182" s="35"/>
-      <c r="J182" s="36"/>
-      <c r="K182" s="37"/>
-    </row>
-    <row r="183" spans="1:11" s="38" customFormat="1" ht="300" x14ac:dyDescent="0.4">
+      <c r="I182" s="8"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="6"/>
+    </row>
+    <row r="183" spans="1:11" ht="300" x14ac:dyDescent="0.4">
       <c r="A183" s="4">
         <v>176</v>
       </c>
-      <c r="B183" s="33"/>
-      <c r="C183" s="44" t="s">
+      <c r="B183" s="4"/>
+      <c r="C183" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D183" s="33" t="s">
+      <c r="D183" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E183" s="34" t="s">
+      <c r="E183" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F183" s="34" t="s">
+      <c r="F183" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G183" s="34" t="s">
+      <c r="G183" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="43" t="s">
-        <v>430</v>
-      </c>
-      <c r="I183" s="35"/>
-      <c r="J183" s="36"/>
-      <c r="K183" s="37"/>
-    </row>
-    <row r="184" spans="1:11" s="38" customFormat="1" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H183" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="I183" s="8"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="6"/>
+    </row>
+    <row r="184" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4">
         <v>177</v>
       </c>
-      <c r="B184" s="33"/>
-      <c r="C184" s="33" t="s">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D184" s="34" t="s">
+      <c r="D184" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E184" s="34" t="s">
+      <c r="E184" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F184" s="34" t="s">
+      <c r="F184" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G184" s="34" t="s">
+      <c r="G184" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H184" s="43" t="s">
+      <c r="H184" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="I184" s="35"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="37"/>
-    </row>
-    <row r="185" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I184" s="8"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="6"/>
+    </row>
+    <row r="185" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A185" s="4">
         <v>178</v>
       </c>
-      <c r="B185" s="33"/>
-      <c r="C185" s="44" t="s">
+      <c r="B185" s="4"/>
+      <c r="C185" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D185" s="33" t="s">
+      <c r="D185" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E185" s="34" t="s">
+      <c r="E185" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F185" s="34" t="s">
+      <c r="F185" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G185" s="34" t="s">
+      <c r="G185" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H185" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="I185" s="35"/>
-      <c r="J185" s="36"/>
-      <c r="K185" s="37"/>
-    </row>
-    <row r="186" spans="1:11" s="38" customFormat="1" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H185" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="I185" s="8"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="6"/>
+    </row>
+    <row r="186" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4">
         <v>179</v>
       </c>
-      <c r="B186" s="33"/>
-      <c r="C186" s="33" t="s">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D186" s="34" t="s">
+      <c r="D186" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E186" s="34" t="s">
+      <c r="E186" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="F186" s="34" t="s">
+      <c r="F186" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G186" s="34" t="s">
+      <c r="G186" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H186" s="43" t="s">
+      <c r="H186" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="I186" s="35"/>
-      <c r="J186" s="36"/>
-      <c r="K186" s="37"/>
-    </row>
-    <row r="187" spans="1:11" s="38" customFormat="1" ht="318.75" x14ac:dyDescent="0.4">
+      <c r="I186" s="8"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="6"/>
+    </row>
+    <row r="187" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A187" s="4">
         <v>180</v>
       </c>
-      <c r="B187" s="33"/>
-      <c r="C187" s="44" t="s">
+      <c r="B187" s="4"/>
+      <c r="C187" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D187" s="33" t="s">
+      <c r="D187" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E187" s="34" t="s">
+      <c r="E187" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="F187" s="34" t="s">
+      <c r="F187" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G187" s="34" t="s">
+      <c r="G187" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H187" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="I187" s="35"/>
-      <c r="J187" s="36"/>
-      <c r="K187" s="37"/>
-    </row>
-    <row r="188" spans="1:11" s="38" customFormat="1" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H187" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="I187" s="8"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="6"/>
+    </row>
+    <row r="188" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4">
         <v>181</v>
       </c>
-      <c r="B188" s="33"/>
-      <c r="C188" s="33" t="s">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D188" s="34" t="s">
+      <c r="D188" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E188" s="34" t="s">
+      <c r="E188" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F188" s="34" t="s">
+      <c r="F188" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G188" s="34" t="s">
+      <c r="G188" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H188" s="43" t="s">
+      <c r="H188" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="I188" s="35"/>
-      <c r="J188" s="36"/>
-      <c r="K188" s="37"/>
-    </row>
-    <row r="189" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="I188" s="8"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="6"/>
+    </row>
+    <row r="189" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A189" s="4">
         <v>182</v>
       </c>
-      <c r="B189" s="33"/>
-      <c r="C189" s="44" t="s">
+      <c r="B189" s="4"/>
+      <c r="C189" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D189" s="33" t="s">
+      <c r="D189" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E189" s="34" t="s">
+      <c r="E189" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="F189" s="34" t="s">
+      <c r="F189" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G189" s="34" t="s">
+      <c r="G189" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="I189" s="35"/>
-      <c r="J189" s="36"/>
-      <c r="K189" s="37"/>
-    </row>
-    <row r="190" spans="1:11" s="38" customFormat="1" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H189" s="21" t="s">
+        <v>417</v>
+      </c>
+      <c r="I189" s="8"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="6"/>
+    </row>
+    <row r="190" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4">
         <v>183</v>
       </c>
-      <c r="B190" s="33"/>
-      <c r="C190" s="33" t="s">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D190" s="34" t="s">
+      <c r="D190" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E190" s="34" t="s">
+      <c r="E190" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F190" s="34" t="s">
+      <c r="F190" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="G190" s="34" t="s">
+      <c r="G190" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H190" s="43" t="s">
+      <c r="H190" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="I190" s="35"/>
-      <c r="J190" s="36"/>
-      <c r="K190" s="37"/>
-    </row>
-    <row r="191" spans="1:11" s="38" customFormat="1" ht="356.25" x14ac:dyDescent="0.4">
+      <c r="I190" s="8"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="6"/>
+    </row>
+    <row r="191" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A191" s="4">
         <v>184</v>
       </c>
-      <c r="B191" s="33"/>
-      <c r="C191" s="44" t="s">
+      <c r="B191" s="4"/>
+      <c r="C191" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="D191" s="33" t="s">
+      <c r="D191" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E191" s="34" t="s">
+      <c r="E191" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="F191" s="34" t="s">
+      <c r="F191" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="G191" s="34" t="s">
+      <c r="G191" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H191" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="I191" s="35"/>
-      <c r="J191" s="36"/>
-      <c r="K191" s="37"/>
-    </row>
-    <row r="192" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="H191" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="I191" s="8"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="6"/>
+    </row>
+    <row r="192" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A192" s="4">
         <v>185</v>
       </c>
-      <c r="B192" s="33"/>
-      <c r="C192" s="33" t="s">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D192" s="33" t="s">
+      <c r="D192" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E192" s="41" t="s">
+      <c r="E192" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="41" t="s">
+      <c r="F192" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="G192" s="34" t="s">
+      <c r="G192" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="H192" s="34" t="s">
+      <c r="H192" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="I192" s="37"/>
-      <c r="J192" s="36"/>
-      <c r="K192" s="37"/>
-    </row>
-    <row r="193" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I192" s="6"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="6"/>
+    </row>
+    <row r="193" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A193" s="4">
         <v>186</v>
       </c>
-      <c r="B193" s="33"/>
-      <c r="C193" s="33" t="s">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D193" s="33" t="s">
+      <c r="D193" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E193" s="41" t="s">
+      <c r="E193" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="41" t="s">
+      <c r="F193" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="G193" s="41" t="s">
+      <c r="G193" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="H193" s="34" t="s">
+      <c r="H193" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I193" s="37"/>
-      <c r="J193" s="36"/>
-      <c r="K193" s="37"/>
-    </row>
-    <row r="194" spans="1:11" s="38" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="I193" s="6"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="6"/>
+    </row>
+    <row r="194" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A194" s="4">
         <v>187</v>
       </c>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33" t="s">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D194" s="33" t="s">
+      <c r="D194" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E194" s="41" t="s">
+      <c r="E194" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F194" s="41" t="s">
+      <c r="F194" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="G194" s="41" t="s">
+      <c r="G194" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="H194" s="34" t="s">
+      <c r="H194" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I194" s="37"/>
-      <c r="J194" s="36"/>
-      <c r="K194" s="37"/>
-    </row>
-    <row r="195" spans="1:11" s="38" customFormat="1" ht="75" x14ac:dyDescent="0.4">
+      <c r="I194" s="6"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="6"/>
+    </row>
+    <row r="195" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A195" s="4">
         <v>188</v>
       </c>
-      <c r="B195" s="33" t="s">
+      <c r="B195" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C195" s="33" t="s">
+      <c r="C195" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D195" s="33" t="s">
+      <c r="D195" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E195" s="34" t="s">
+      <c r="E195" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F195" s="34" t="s">
+      <c r="F195" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G195" s="34" t="s">
+      <c r="G195" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="H195" s="34" t="s">
+      <c r="H195" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I195" s="39"/>
-      <c r="J195" s="36"/>
-      <c r="K195" s="37"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:M37" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>

--- a/テスト/評価システム結合テストチェックリスト.xlsx
+++ b/テスト/評価システム結合テストチェックリスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-matsuka\Desktop\GitHub_クローン\company_evaluation\テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C43A9F5B-8BE1-4959-8B31-74B077C7AFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB60FAC-A15F-4A06-B76F-11C8F37C6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="445">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -9124,18 +9124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[エラーメッセージ]に
-"※備考は200文字以内で入力してください。"
-と表示される</t>
-    <rPh sb="14" eb="16">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [備考]の文字数が200桁以上の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -9809,6 +9797,829 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>テキストボックスに入力された内容がDBに保存され、[会社評価テーブル]に表示される</t>
+    <rPh sb="26" eb="30">
+      <t>カイシャヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[会社評価テーブル]に表示されることを確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[会社評価テーブル]に表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己評価管理</t>
+    <rPh sb="0" eb="6">
+      <t>ジコヒョウカカンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[自己評価テーブル]に[TM_self_check]のデータが
+表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価テーブル]に[TM_self_check]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価テーブル]クリック時、
+クリックした行のデータが
+テキストボックスに
+表示されることの確認</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[自己評価テーブル]クリック</t>
+    <rPh sb="1" eb="3">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=なし
+[pt]入力値=なし
+[Expt]入力値=なし
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※評価項目を入力してください。"
+"※ptを入力してください。"
+"※Exptを入力してください。"
+と表示される</t>
+    <rPh sb="14" eb="18">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[評価項目]の桁数が200桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※評価項目は200文字以内で入力してください。"
+と表示される
+</t>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[評価項目]の桁数が200桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[説明]の桁数が200桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[エラーメッセージ]に
+"※説明は200文字以内で入力してください。"
+と表示される
+</t>
+    <rPh sb="14" eb="16">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[説明]の桁数が200桁以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[Expt]の値が上限値以上の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示されることを確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
+    <rPh sb="26" eb="28">
+      <t>ジコ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示されることを確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
+    <rPh sb="26" eb="30">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="42" eb="46">
+      <t>ジコヒョウカ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>評価出力</t>
+    <rPh sb="0" eb="4">
+      <t>ヒョウカシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[TE_staff_sc]にデータがあること</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面読み込み時[社員選択テーブル]に[TE_staff_sc]のデータが表示されていることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に[TE_staff_sc]のデータが表示されている</t>
+    <rPh sb="1" eb="3">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック時、
+クリックした行の背景色が黄色に変わることの確認</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]クリック</t>
+    <rPh sb="1" eb="5">
+      <t>シャインセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリックした行の背景色が黄色に変わる</t>
+    <rPh sb="8" eb="11">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[戻る]ボタン押下時
+[画面選択]画面に遷移されることの確認</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ガメンセンタク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[画面選択]に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移されることの確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[確認]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員の[確認]画面に遷移される</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わることを確認</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゼンシャイン</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ハイケイショク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わる</t>
+  </si>
+  <si>
+    <t>[出力]</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[全選択]ボタン押下後</t>
+    <rPh sb="1" eb="4">
+      <t>ゼンセンタク</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>オウカゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力されることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[出力]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択された社員のCSVファイルが出力される</t>
+  </si>
+  <si>
+    <t>加藤千瑞</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェックボックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2003-1-12,
+0,2023-4-10,専門卒(3年),
+220000,19,3,1,1,0,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,
+0年目,20代,2023-9,-,-,-,-,-</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1983-1-1,
+40,2023-4-1,0,専門卒(2年),
+226000,24,2,3,4,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,0
+年目,40代,2023-9,-,2022-9,2023/3,-,-</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2005-1-1,
+18,2020-4-1,3,高卒,
+235000,35,2,6,2,4,-,-,-,-,2,0,-,-,0,0,-,-,-,-,2,0,
+3年目,10代,2023-09,-,2022-09,2023-03,-,-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1992-12-1,
+30,2020-4-1,3,大卒(文系),
+226000,25,4,0,0,-,-,-,0,0,2,0,-,-,0,0,-,-,-,-,2,0,
+3年目,20代,2023-09,-,2022-09,2023-03,-,2022-03,CC007,0,1,CC008,3,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,2060-2-1,
+-37,2082-12-1,-60,大卒(理系),
+229000,27,4,2,0,-,-4,0,0,0,2,0,-,-,0,0,-,-,-,-,-2,0,
+-60年目,20代,2023/09,-,2022-09,2023-03,2021-09,2022-03,TQ003,0,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1862-07-22,
+161,1962-3-21,61,高専卒,
+223000,23,2,0,3,,2,0,0,0,2,0,-,-,0,0,-,-,-,-,4,0,
+61年目,100代,2023-09,-,2022-09,2023-03,2021-09,2022-03</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1862-07-22,161,1962-3-21,61,高卒,242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,61年目,100代,2023-09,-,2022-09,2023-03,2021-092022-03,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>&lt;CSVファイルの中身&gt;
+999999,テスト用CL君,1962-3-21,61,1962-3-21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,2022-09,2023-03,2021-09,2022-03,2020-09,2021-03</t>
+    <rPh sb="9" eb="11">
+      <t>ナカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[pt]と[Expt]の入力値が0の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>[技官区分]入力値=技術系
 [業資区分]入力値=実務系
 [pt]入力値=0
@@ -9825,1235 +10636,6 @@
     <rPh sb="6" eb="9">
       <t>ニュウリョクチ</t>
     </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容がDBに保存され、[会社評価テーブル]に表示される</t>
-    <rPh sb="26" eb="30">
-      <t>カイシャヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=資格系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト16
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ギジュツケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=管理系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト17
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンリケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="27">
-      <t>ジツムケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=管理系
-[業資区分]入力値=資格系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト18
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>カンリケイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="20" eb="23">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="32" eb="35">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="44" eb="47">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="57">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="68" eb="71">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=会社貢献系
-[業資区分]入力値=会社貢献系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト19
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウケン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="26" eb="30">
-      <t>カイシャコウケン</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ケイ</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="48" eb="51">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="58" eb="61">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ビコウ</t>
-    </rPh>
-    <rPh sb="72" eb="75">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[会社評価テーブル]に表示されることを確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[会社評価テーブル]に表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自己評価管理</t>
-    <rPh sb="0" eb="6">
-      <t>ジコヒョウカカンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面読み込み時[自己評価テーブル]に[TM_self_check]のデータが
-表示されていることの確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価テーブル]に[TM_self_check]のデータが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価テーブル]クリック時、
-クリックした行のデータが
-テキストボックスに
-表示されることの確認</t>
-    <rPh sb="1" eb="3">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[自己評価テーブル]クリック</t>
-    <rPh sb="1" eb="3">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=なし
-[pt]入力値=なし
-[Expt]入力値=なし
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[エラーメッセージ]に
-"※評価項目を入力してください。"
-"※ptを入力してください。"
-"※Exptを入力してください。"
-と表示される</t>
-    <rPh sb="14" eb="18">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[評価項目]の桁数が200桁以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="20">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=1234567890（200文字まで繰り返す）
-[pt]入力値=0
-[Expt]入力値=0
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="50" eb="53">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="60" eb="63">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※評価項目は200文字以内で入力してください。"
-と表示される
-</t>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-[評価項目]の桁数が200桁以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[説明]の桁数が200桁以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト1
-[pt]入力値=0
-[Expt]入力値=0
-[説明]入力値=1234567890（200文字まで繰り返す）
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[エラーメッセージ]に
-"※説明は200文字以内で入力してください。"
-と表示される
-</t>
-    <rPh sb="14" eb="16">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-[説明]の桁数が200桁以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト2
-[pt]入力値=0
-[Expt]入力値=0
-[説明]入力値=1234567890（200文字まで繰り返す）
-[更新]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-[Expt]の値が上限値以上の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示されることを確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[評価項目]入力値=テスト7
-[pt]入力値=0
-[Expt]入力値=0
-[説明]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="5">
-      <t>ヒョウカコウモク</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="41" eb="44">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
-    <rPh sb="26" eb="28">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[更新確認OK]ボタン押下時
-テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示されることを確認</t>
-    <rPh sb="1" eb="3">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容がDBに保存され、[自己評価テーブル]に表示される</t>
-    <rPh sb="26" eb="30">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキストボックスに入力された内容をもとにDBのデータが更新され、更新されたデータが[自己評価テーブル]に表示される</t>
-    <rPh sb="9" eb="11">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="42" eb="46">
-      <t>ジコヒョウカ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>評価出力</t>
-    <rPh sb="0" eb="4">
-      <t>ヒョウカシュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[TE_staff_sc]にデータがあること</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面読み込み時[社員選択テーブル]に[TE_staff_sc]のデータが表示されていることの確認</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>シャインセンタク</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に[TE_staff_sc]のデータが表示されている</t>
-    <rPh sb="1" eb="3">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]クリック時、
-クリックした行の背景色が黄色に変わることの確認</t>
-    <rPh sb="1" eb="5">
-      <t>シャインセンタク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ギョウ</t>
-    </rPh>
-    <rPh sb="25" eb="28">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]クリック</t>
-    <rPh sb="1" eb="5">
-      <t>シャインセンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリックした行の背景色が黄色に変わる</t>
-    <rPh sb="8" eb="11">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[戻る]ボタン押下時
-[画面選択]画面に遷移されることの確認</t>
-    <rPh sb="1" eb="2">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ガメンセンタク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[画面選択]に遷移される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[確認]</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員の[確認]画面に遷移されることの確認</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[確認]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員の[確認]画面に遷移される</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わることを確認</t>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ゼンシャイン</t>
-    </rPh>
-    <rPh sb="22" eb="25">
-      <t>ハイケイショク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キイロ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]ボタン押下</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[社員選択テーブル]に表示されている全社員の背景色が黄色に変わる</t>
-  </si>
-  <si>
-    <t>[出力]</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[全選択]ボタン押下後</t>
-    <rPh sb="1" eb="4">
-      <t>ゼンセンタク</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>オウカゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員のCSVファイルが出力されることを確認</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[出力]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択された社員のCSVファイルが出力される</t>
-  </si>
-  <si>
-    <t>加藤千瑞</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>セン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェックボックス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2003-1-12,
-0,2023-4-10,専門卒(3年),
-220000,19,3,1,1,0,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,
-0年目,20代,2023-9,-,-,-,-,-</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1983-1-1,
-40,2023-4-1,0,専門卒(2年),
-226000,24,2,3,4,-,-,-,-,-,-,-,-,0,0,-,-,-,-,0,0,0
-年目,40代,2023-9,-,2022-9,2023/3,-,-</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2005-1-1,
-18,2020-4-1,3,高卒,
-235000,35,2,6,2,4,-,-,-,-,2,0,-,-,0,0,-,-,-,-,2,0,
-3年目,10代,2023-09,-,2022-09,2023-03,-,-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1992-12-1,
-30,2020-4-1,3,大卒(文系),
-226000,25,4,0,0,-,-,-,0,0,2,0,-,-,0,0,-,-,-,-,2,0,
-3年目,20代,2023-09,-,2022-09,2023-03,-,2022-03,CC007,0,1,CC008,3,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,2060-2-1,
--37,2082-12-1,-60,大卒(理系),
-229000,27,4,2,0,-,-4,0,0,0,2,0,-,-,0,0,-,-,-,-,-2,0,
--60年目,20代,2023/09,-,2022-09,2023-03,2021-09,2022-03,TQ003,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,
-161,1962-3-21,61,高専卒,
-223000,23,2,0,3,,2,0,0,0,2,0,-,-,0,0,-,-,-,-,4,0,
-61年目,100代,2023-09,-,2022-09,2023-03,2021-09,2022-03</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1862-07-22,161,1962-3-21,61,高卒,242000,41,43,0,3,2,0,0,0,2,0,0,0,0,0,-,-,2,0,8,0,61年目,100代,2023-09,-,2022-09,2023-03,2021-092022-03,CC002,0,2,CC003,1,0,CC004,0,1,CC005,0,1,CC006,3,0,CC007,0,1,CC008,3,1,CC009,0,1,CC010,0,3,MJ001,1,1,MJ002,2,1,MJ003,0,1,MJ004,0,2,MJ005,0,2,MQ001,0,1,MQ002,0,2,MQ003,0,2,MQ004,0,2,MQ005,0,2,TJ001,0,1,TJ002,0,1,TJ003,0,1,TJ004,3,0,TJ005,3,1,TJ006,3,1,TJ007,2,1,TJ008,0,1,TQ001,3,0,TQ002,3,0,TQ003,0,1,TQ004,0,2,TQ005,0,1,TQ006,0,2,TQ007,0,1,TQ008,0,1,TQ009,1,0,TQ010,0,1</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;CSVファイルの中身&gt;
-999999,テスト用CL君,1962-3-21,61,1962-3-21,61,-,166000,8,0,0,10,0,0,2,0,2,0,0,0,2,0,0,0,-,-,8,0,61年目,0代,2022-09,2023-03,2021-09,2022-03,2020-09,2021-03</t>
-    <rPh sb="9" eb="11">
-      <t>ナカミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[登録確認OK]ボタン押下時
-[pt]と[Expt]の入力値が0の時のエラーの確認</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>オウカジ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ニュウリョクチ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[技官区分]入力値=技術系
-[業資区分]入力値=実務系
-[pt]入力値=0
-[Expt]入力値=0
-[内容]入力値=テスト15
-[備考]入力値=なし
-[登録]ボタン押下</t>
-    <rPh sb="1" eb="3">
-      <t>ギカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>クブン</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>ニュウリョクチ</t>
-    </rPh>
     <rPh sb="10" eb="12">
       <t>ギジュツ</t>
     </rPh>
@@ -11961,6 +11543,433 @@
       <t>コウシン</t>
     </rPh>
     <rPh sb="60" eb="62">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※内容を入力してください。"
+"※備考は200文字以内で入力してください。"
+と表示される</t>
+    <rPh sb="30" eb="32">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>✖</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=実務系
+[pt]入力値=1
+[Expt]入力値=0
+[内容]入力値=テスト15
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=技術系
+[業資区分]入力値=資格系
+[pt]入力値=1
+[Expt]入力値=0
+[内容]入力値=テスト16
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ギジュツケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=管理系
+[業資区分]入力値=実務系
+[pt]入力値=1
+[Expt]入力値=0
+[内容]入力値=テスト17
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジツムケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=管理系
+[業資区分]入力値=資格系
+[pt]入力値=1
+[Expt]入力値=0
+[内容]入力値=テスト18
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カンリケイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="44" eb="47">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="57">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="68" eb="71">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[技官区分]入力値=会社貢献系
+[業資区分]入力値=会社貢献系
+[pt]入力値=1
+[Expt]入力値=0
+[内容]入力値=テスト19
+[備考]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="3">
+      <t>ギカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>カイシャコウケン</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="48" eb="51">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="58" eb="61">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="72" eb="75">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=1234567890（201文字まで繰り返す）
+[pt]入力値=0
+[Expt]入力値=0
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="50" eb="53">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="60" eb="63">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト1
+[pt]入力値=0
+[Expt]入力値=0
+[説明]入力値=1234567890（201文字まで繰り返す）
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト2
+[pt]入力値=0
+[Expt]入力値=0
+[説明]入力値=1234567890（201文字まで繰り返す）
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト7
+[pt]入力値=1
+[Expt]入力値=0
+[説明]入力値=なし
+[登録]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
       <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -12175,7 +12184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12220,9 +12229,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -12288,7 +12294,134 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -12600,8 +12733,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12619,70 +12754,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="33">
+      <c r="I1" s="32">
         <v>45173</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="29"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>409</v>
-      </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="29"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="32"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I5" s="2"/>
@@ -12690,52 +12825,52 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="35" t="s">
+      <c r="J6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="34" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="23"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
@@ -12756,13 +12891,15 @@
       <c r="F8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J8" s="7"/>
       <c r="K8" s="6"/>
     </row>
@@ -12783,13 +12920,15 @@
       <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="6"/>
     </row>
@@ -12810,13 +12949,15 @@
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J10" s="7"/>
       <c r="K10" s="6"/>
     </row>
@@ -12837,13 +12978,15 @@
       <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J11" s="7"/>
       <c r="K11" s="6"/>
     </row>
@@ -12864,13 +13007,15 @@
       <c r="F12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J12" s="7"/>
       <c r="K12" s="6"/>
     </row>
@@ -12891,13 +13036,15 @@
       <c r="F13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="17"/>
+      <c r="I13" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
@@ -12915,7 +13062,7 @@
       <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -12924,7 +13071,9 @@
       <c r="H14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
@@ -12939,19 +13088,21 @@
       <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J15" s="7"/>
       <c r="K15" s="6"/>
     </row>
@@ -12966,19 +13117,21 @@
       <c r="D16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="18" t="s">
+      <c r="H16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J16" s="7"/>
       <c r="K16" s="6"/>
     </row>
@@ -12993,19 +13146,21 @@
       <c r="D17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J17" s="7"/>
       <c r="K17" s="6"/>
     </row>
@@ -13020,19 +13175,21 @@
       <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="6"/>
+      <c r="I18" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J18" s="7"/>
       <c r="K18" s="6"/>
     </row>
@@ -13047,19 +13204,21 @@
       <c r="D19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J19" s="7"/>
       <c r="K19" s="6"/>
     </row>
@@ -13074,19 +13233,21 @@
       <c r="D20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="18" t="s">
+      <c r="G20" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="18" t="s">
+      <c r="H20" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I20" s="6"/>
+      <c r="I20" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J20" s="7"/>
       <c r="K20" s="6"/>
     </row>
@@ -13115,7 +13276,9 @@
       <c r="H21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="8"/>
+      <c r="I21" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J21" s="7"/>
       <c r="K21" s="6"/>
     </row>
@@ -13142,7 +13305,9 @@
       <c r="H22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J22" s="7"/>
       <c r="K22" s="6"/>
     </row>
@@ -13169,7 +13334,9 @@
       <c r="H23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J23" s="7"/>
       <c r="K23" s="6"/>
     </row>
@@ -13196,7 +13363,9 @@
       <c r="H24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J24" s="7"/>
       <c r="K24" s="6"/>
     </row>
@@ -13223,7 +13392,9 @@
       <c r="H25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J25" s="7"/>
       <c r="K25" s="6"/>
     </row>
@@ -13252,7 +13423,9 @@
       <c r="H26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J26" s="7"/>
       <c r="K26" s="6"/>
     </row>
@@ -13279,7 +13452,9 @@
       <c r="H27" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J27" s="7"/>
       <c r="K27" s="6"/>
     </row>
@@ -13306,7 +13481,9 @@
       <c r="H28" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J28" s="7"/>
       <c r="K28" s="6"/>
     </row>
@@ -13333,7 +13510,9 @@
       <c r="H29" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J29" s="7"/>
       <c r="K29" s="6"/>
     </row>
@@ -13360,7 +13539,9 @@
       <c r="H30" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I30" s="6"/>
+      <c r="I30" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J30" s="7"/>
       <c r="K30" s="6"/>
     </row>
@@ -14342,7 +14523,7 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="10" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>135</v>
@@ -14362,7 +14543,7 @@
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
       <c r="K67" s="12"/>
-      <c r="L67" s="19"/>
+      <c r="L67" s="18"/>
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
@@ -14390,7 +14571,7 @@
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
       <c r="K68" s="12"/>
-      <c r="L68" s="19"/>
+      <c r="L68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
@@ -14500,7 +14681,9 @@
       <c r="H72" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="I72" s="13"/>
+      <c r="I72" s="13" t="s">
+        <v>433</v>
+      </c>
       <c r="J72" s="12"/>
       <c r="K72" s="13"/>
     </row>
@@ -14527,7 +14710,9 @@
       <c r="H73" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="I73" s="13"/>
+      <c r="I73" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J73" s="12"/>
       <c r="K73" s="13"/>
     </row>
@@ -14554,7 +14739,9 @@
       <c r="H74" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I74" s="15"/>
+      <c r="I74" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J74" s="12"/>
       <c r="K74" s="13"/>
     </row>
@@ -14583,7 +14770,9 @@
       <c r="H75" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J75" s="12"/>
       <c r="K75" s="13"/>
     </row>
@@ -14610,7 +14799,9 @@
       <c r="H76" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J76" s="7"/>
       <c r="K76" s="6"/>
     </row>
@@ -14637,7 +14828,9 @@
       <c r="H77" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="8"/>
+      <c r="I77" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J77" s="7"/>
       <c r="K77" s="6"/>
     </row>
@@ -14664,7 +14857,9 @@
       <c r="H78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I78" s="8"/>
+      <c r="I78" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J78" s="7"/>
       <c r="K78" s="6"/>
     </row>
@@ -14691,7 +14886,9 @@
       <c r="H79" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J79" s="7"/>
       <c r="K79" s="6"/>
     </row>
@@ -14718,7 +14915,9 @@
       <c r="H80" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="I80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J80" s="7"/>
       <c r="K80" s="6"/>
     </row>
@@ -14745,7 +14944,9 @@
       <c r="H81" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J81" s="7"/>
       <c r="K81" s="6"/>
     </row>
@@ -14772,7 +14973,9 @@
       <c r="H82" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J82" s="7"/>
       <c r="K82" s="6"/>
     </row>
@@ -14799,7 +15002,9 @@
       <c r="H83" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J83" s="7"/>
       <c r="K83" s="6"/>
     </row>
@@ -14824,9 +15029,11 @@
         <v>334</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I84" s="6"/>
+        <v>434</v>
+      </c>
+      <c r="I84" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J84" s="7"/>
       <c r="K84" s="6"/>
     </row>
@@ -14845,15 +15052,17 @@
         <v>19</v>
       </c>
       <c r="F85" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="G85" s="5" t="s">
-        <v>337</v>
-      </c>
       <c r="H85" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="I85" s="6"/>
+        <v>434</v>
+      </c>
+      <c r="I85" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J85" s="7"/>
       <c r="K85" s="6"/>
     </row>
@@ -14872,15 +15081,17 @@
         <v>19</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H86" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I86" s="6"/>
+      <c r="I86" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J86" s="7"/>
       <c r="K86" s="6"/>
     </row>
@@ -14899,15 +15110,17 @@
         <v>19</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I87" s="8"/>
+        <v>338</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J87" s="7"/>
       <c r="K87" s="6"/>
     </row>
@@ -14926,15 +15139,17 @@
         <v>19</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I88" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="I88" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J88" s="7"/>
       <c r="K88" s="6"/>
     </row>
@@ -14953,15 +15168,17 @@
         <v>19</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I89" s="8"/>
+        <v>338</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J89" s="7"/>
       <c r="K89" s="6"/>
     </row>
@@ -14980,15 +15197,17 @@
         <v>19</v>
       </c>
       <c r="F90" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="H90" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G90" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="H90" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J90" s="7"/>
       <c r="K90" s="6"/>
     </row>
@@ -15007,15 +15226,17 @@
         <v>19</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I91" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="I91" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J91" s="7"/>
       <c r="K91" s="6"/>
     </row>
@@ -15034,15 +15255,17 @@
         <v>19</v>
       </c>
       <c r="F92" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="H92" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="I92" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="H92" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I92" s="6"/>
       <c r="J92" s="7"/>
       <c r="K92" s="6"/>
     </row>
@@ -15061,15 +15284,17 @@
         <v>19</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I93" s="8"/>
+        <v>343</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J93" s="7"/>
       <c r="K93" s="6"/>
     </row>
@@ -15088,15 +15313,17 @@
         <v>19</v>
       </c>
       <c r="F94" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H94" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I94" s="8"/>
+      <c r="I94" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J94" s="7"/>
       <c r="K94" s="6"/>
     </row>
@@ -15115,15 +15342,17 @@
         <v>19</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="I95" s="8"/>
+        <v>347</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J95" s="7"/>
       <c r="K95" s="6"/>
     </row>
@@ -15142,15 +15371,17 @@
         <v>19</v>
       </c>
       <c r="F96" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="H96" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="I96" s="8"/>
+      <c r="I96" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J96" s="7"/>
       <c r="K96" s="6"/>
     </row>
@@ -15169,15 +15400,17 @@
         <v>19</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="I97" s="8"/>
+        <v>351</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J97" s="7"/>
       <c r="K97" s="6"/>
     </row>
@@ -15196,15 +15429,17 @@
         <v>19</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="I98" s="8"/>
+        <v>411</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>435</v>
+      </c>
       <c r="J98" s="7"/>
       <c r="K98" s="6"/>
     </row>
@@ -15223,15 +15458,17 @@
         <v>19</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="I99" s="8"/>
+        <v>411</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>435</v>
+      </c>
       <c r="J99" s="7"/>
       <c r="K99" s="6"/>
     </row>
@@ -15250,15 +15487,17 @@
         <v>310</v>
       </c>
       <c r="F100" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="H100" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G100" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="H100" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I100" s="8"/>
+      <c r="I100" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J100" s="7"/>
       <c r="K100" s="6"/>
     </row>
@@ -15277,15 +15516,17 @@
         <v>310</v>
       </c>
       <c r="F101" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G101" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I101" s="8"/>
+      <c r="I101" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J101" s="7"/>
       <c r="K101" s="6"/>
     </row>
@@ -15304,15 +15545,17 @@
         <v>310</v>
       </c>
       <c r="F102" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="H102" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G102" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="H102" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I102" s="8"/>
+      <c r="I102" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J102" s="7"/>
       <c r="K102" s="6"/>
     </row>
@@ -15331,15 +15574,17 @@
         <v>310</v>
       </c>
       <c r="F103" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="H103" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G103" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I103" s="8"/>
+      <c r="I103" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J103" s="7"/>
       <c r="K103" s="6"/>
     </row>
@@ -15358,15 +15603,17 @@
         <v>310</v>
       </c>
       <c r="F104" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="H104" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="G104" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="I104" s="8"/>
+      <c r="I104" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J104" s="7"/>
       <c r="K104" s="6"/>
     </row>
@@ -15386,7 +15633,7 @@
         <v>テストNo.93のデータが[TM_point]に登録されている</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G105" s="5" t="str">
         <f>"テストNo."&amp;A100&amp;"のデータをクリック
@@ -15407,9 +15654,11 @@
 [更新]ボタン押下</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I105" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="I105" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J105" s="7"/>
       <c r="K105" s="6"/>
     </row>
@@ -15429,7 +15678,7 @@
         <v>テストNo.94のデータが[TM_point]に登録されている</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G106" s="5" t="str">
         <f>"テストNo."&amp;A101&amp;"のデータをクリック
@@ -15450,9 +15699,11 @@
 [更新]ボタン押下</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I106" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J106" s="7"/>
       <c r="K106" s="6"/>
     </row>
@@ -15472,7 +15723,7 @@
         <v>テストNo.95のデータが[TM_point]に登録されている</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G107" s="5" t="str">
         <f>"テストNo."&amp;A102&amp;"のデータをクリック
@@ -15493,9 +15744,11 @@
 [更新]ボタン押下</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I107" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="I107" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J107" s="7"/>
       <c r="K107" s="6"/>
     </row>
@@ -15515,7 +15768,7 @@
         <v>テストNo.96のデータが[TM_point]に登録されている</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G108" s="5" t="str">
         <f>"テストNo."&amp;A103&amp;"のデータをクリック
@@ -15536,9 +15789,11 @@
 [更新]ボタン押下</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I108" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J108" s="7"/>
       <c r="K108" s="6"/>
     </row>
@@ -15558,7 +15813,7 @@
         <v>テストNo.97のデータが[TM_point]に登録されている</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G109" s="5" t="str">
         <f>"テストNo."&amp;A104&amp;"のデータをクリック
@@ -15579,9 +15834,11 @@
 [更新]ボタン押下</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="I109" s="8"/>
+        <v>356</v>
+      </c>
+      <c r="I109" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J109" s="7"/>
       <c r="K109" s="6"/>
     </row>
@@ -15590,7 +15847,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>41</v>
@@ -15602,15 +15859,17 @@
         <v>204</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="I110" s="6"/>
+        <v>359</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J110" s="7"/>
       <c r="K110" s="6"/>
     </row>
@@ -15629,15 +15888,17 @@
         <v>204</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H111" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="I111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J111" s="7"/>
       <c r="K111" s="6"/>
     </row>
@@ -15664,7 +15925,9 @@
       <c r="H112" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="I112" s="8"/>
+      <c r="I112" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J112" s="7"/>
       <c r="K112" s="6"/>
     </row>
@@ -15691,7 +15954,9 @@
       <c r="H113" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I113" s="8"/>
+      <c r="I113" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J113" s="7"/>
       <c r="K113" s="6"/>
     </row>
@@ -15718,7 +15983,9 @@
       <c r="H114" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I114" s="6"/>
+      <c r="I114" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J114" s="7"/>
       <c r="K114" s="6"/>
     </row>
@@ -15740,12 +16007,14 @@
         <v>111</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I115" s="6"/>
+        <v>363</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J115" s="7"/>
       <c r="K115" s="6"/>
     </row>
@@ -15767,12 +16036,14 @@
         <v>114</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="I116" s="6"/>
+        <v>363</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J116" s="7"/>
       <c r="K116" s="6"/>
     </row>
@@ -15791,15 +16062,17 @@
         <v>19</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I117" s="6"/>
+        <v>365</v>
+      </c>
+      <c r="I117" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J117" s="7"/>
       <c r="K117" s="6"/>
     </row>
@@ -15818,15 +16091,17 @@
         <v>19</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="I118" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J118" s="7"/>
       <c r="K118" s="6"/>
     </row>
@@ -15845,15 +16120,17 @@
         <v>19</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I119" s="8"/>
+        <v>368</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J119" s="7"/>
       <c r="K119" s="6"/>
     </row>
@@ -15872,15 +16149,17 @@
         <v>19</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I120" s="6"/>
+        <v>368</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J120" s="7"/>
       <c r="K120" s="6"/>
     </row>
@@ -15899,15 +16178,17 @@
         <v>19</v>
       </c>
       <c r="F121" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H121" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="G121" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H121" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J121" s="7"/>
       <c r="K121" s="6"/>
     </row>
@@ -15926,15 +16207,17 @@
         <v>19</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I122" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="I122" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J122" s="7"/>
       <c r="K122" s="6"/>
     </row>
@@ -15953,15 +16236,17 @@
         <v>19</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I123" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J123" s="7"/>
       <c r="K123" s="6"/>
     </row>
@@ -15980,15 +16265,17 @@
         <v>19</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="I124" s="6"/>
+        <v>338</v>
+      </c>
+      <c r="I124" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J124" s="7"/>
       <c r="K124" s="6"/>
     </row>
@@ -16007,15 +16294,17 @@
         <v>19</v>
       </c>
       <c r="F125" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="H125" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G125" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="H125" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I125" s="8"/>
+      <c r="I125" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J125" s="7"/>
       <c r="K125" s="6"/>
     </row>
@@ -16034,15 +16323,17 @@
         <v>19</v>
       </c>
       <c r="F126" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="H126" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="G126" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="H126" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I126" s="8"/>
+      <c r="I126" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J126" s="7"/>
       <c r="K126" s="6"/>
     </row>
@@ -16061,15 +16352,17 @@
         <v>19</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I127" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="I127" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J127" s="7"/>
       <c r="K127" s="6"/>
     </row>
@@ -16088,15 +16381,17 @@
         <v>19</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="I128" s="6"/>
+        <v>343</v>
+      </c>
+      <c r="I128" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J128" s="7"/>
       <c r="K128" s="6"/>
     </row>
@@ -16115,15 +16410,17 @@
         <v>19</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>381</v>
+        <v>444</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="I129" s="6"/>
+        <v>372</v>
+      </c>
+      <c r="I129" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J129" s="7"/>
       <c r="K129" s="6"/>
     </row>
@@ -16143,15 +16440,17 @@
         <v>テストNo.122のデータが[TM_self_check]に登録されている</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="I130" s="6"/>
+        <v>375</v>
+      </c>
+      <c r="I130" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J130" s="7"/>
       <c r="K130" s="6"/>
     </row>
@@ -16170,15 +16469,17 @@
         <v>310</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="I131" s="8"/>
+        <v>374</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J131" s="7"/>
       <c r="K131" s="6"/>
     </row>
@@ -16198,15 +16499,17 @@
         <v>テストNo.124のデータが[TM_self_check]に登録されている</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="I132" s="17"/>
+        <v>375</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J132" s="7"/>
       <c r="K132" s="6"/>
     </row>
@@ -16235,7 +16538,9 @@
       <c r="H133" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="I133" s="8"/>
+      <c r="I133" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J133" s="7"/>
       <c r="K133" s="6"/>
     </row>
@@ -16262,7 +16567,9 @@
       <c r="H134" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="I134" s="6"/>
+      <c r="I134" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J134" s="7"/>
       <c r="K134" s="6"/>
     </row>
@@ -16289,7 +16596,9 @@
       <c r="H135" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I135" s="6"/>
+      <c r="I135" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J135" s="7"/>
       <c r="K135" s="6"/>
     </row>
@@ -16316,7 +16625,9 @@
       <c r="H136" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I136" s="6"/>
+      <c r="I136" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J136" s="7"/>
       <c r="K136" s="6"/>
     </row>
@@ -16345,7 +16656,9 @@
       <c r="H137" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="I137" s="8"/>
+      <c r="I137" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J137" s="7"/>
       <c r="K137" s="6"/>
     </row>
@@ -16360,7 +16673,7 @@
       <c r="D138" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="17" t="s">
         <v>177</v>
       </c>
       <c r="F138" s="5" t="s">
@@ -16372,7 +16685,9 @@
       <c r="H138" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="I138" s="6"/>
+      <c r="I138" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J138" s="7"/>
       <c r="K138" s="6"/>
     </row>
@@ -16387,7 +16702,7 @@
       <c r="D139" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F139" s="5" t="s">
@@ -16399,7 +16714,9 @@
       <c r="H139" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="I139" s="6"/>
+      <c r="I139" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J139" s="7"/>
       <c r="K139" s="6"/>
     </row>
@@ -16414,7 +16731,7 @@
       <c r="D140" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F140" s="5" t="s">
@@ -16426,7 +16743,9 @@
       <c r="H140" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I140" s="6"/>
+      <c r="I140" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J140" s="7"/>
       <c r="K140" s="6"/>
     </row>
@@ -16441,7 +16760,7 @@
       <c r="D141" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F141" s="5" t="s">
@@ -16453,7 +16772,9 @@
       <c r="H141" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="I141" s="6"/>
+      <c r="I141" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J141" s="7"/>
       <c r="K141" s="6"/>
     </row>
@@ -16468,7 +16789,7 @@
       <c r="D142" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>180</v>
       </c>
       <c r="F142" s="5" t="s">
@@ -16480,7 +16801,9 @@
       <c r="H142" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I142" s="6"/>
+      <c r="I142" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J142" s="7"/>
       <c r="K142" s="6"/>
     </row>
@@ -16495,10 +16818,10 @@
       <c r="D143" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="F143" s="18" t="s">
+      <c r="F143" s="17" t="s">
         <v>195</v>
       </c>
       <c r="G143" s="5" t="s">
@@ -16507,7 +16830,9 @@
       <c r="H143" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="I143" s="6"/>
+      <c r="I143" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J143" s="7"/>
       <c r="K143" s="6"/>
     </row>
@@ -16522,10 +16847,10 @@
       <c r="D144" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G144" s="5" t="s">
@@ -16534,7 +16859,9 @@
       <c r="H144" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I144" s="6"/>
+      <c r="I144" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J144" s="7"/>
       <c r="K144" s="6"/>
     </row>
@@ -16563,7 +16890,9 @@
       <c r="H145" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="I145" s="6"/>
+      <c r="I145" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J145" s="7"/>
       <c r="K145" s="6"/>
     </row>
@@ -16578,7 +16907,7 @@
       <c r="D146" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>208</v>
       </c>
       <c r="F146" s="5" t="s">
@@ -16590,7 +16919,9 @@
       <c r="H146" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I146" s="6"/>
+      <c r="I146" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J146" s="7"/>
       <c r="K146" s="6"/>
     </row>
@@ -16605,7 +16936,7 @@
       <c r="D147" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="17" t="s">
         <v>211</v>
       </c>
       <c r="F147" s="5" t="s">
@@ -16617,7 +16948,9 @@
       <c r="H147" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="I147" s="6"/>
+      <c r="I147" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J147" s="7"/>
       <c r="K147" s="6"/>
     </row>
@@ -16632,10 +16965,10 @@
       <c r="D148" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E148" s="20" t="s">
+      <c r="E148" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="F148" s="17" t="s">
         <v>216</v>
       </c>
       <c r="G148" s="5" t="s">
@@ -16644,7 +16977,9 @@
       <c r="H148" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="I148" s="6"/>
+      <c r="I148" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J148" s="7"/>
       <c r="K148" s="6"/>
     </row>
@@ -16659,10 +16994,10 @@
       <c r="D149" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F149" s="18" t="s">
+      <c r="F149" s="17" t="s">
         <v>199</v>
       </c>
       <c r="G149" s="5" t="s">
@@ -16671,7 +17006,9 @@
       <c r="H149" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="I149" s="6"/>
+      <c r="I149" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J149" s="7"/>
       <c r="K149" s="6"/>
     </row>
@@ -16686,10 +17023,10 @@
       <c r="D150" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F150" s="18" t="s">
+      <c r="F150" s="17" t="s">
         <v>218</v>
       </c>
       <c r="G150" s="5" t="s">
@@ -16698,7 +17035,9 @@
       <c r="H150" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="I150" s="6"/>
+      <c r="I150" s="6" t="s">
+        <v>433</v>
+      </c>
       <c r="J150" s="7"/>
       <c r="K150" s="6"/>
     </row>
@@ -16724,7 +17063,7 @@
       <c r="G151" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H151" s="21" t="s">
+      <c r="H151" s="20" t="s">
         <v>254</v>
       </c>
       <c r="I151" s="8"/>
@@ -16736,7 +17075,7 @@
         <v>145</v>
       </c>
       <c r="B152" s="4"/>
-      <c r="C152" s="22" t="s">
+      <c r="C152" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D152" s="4" t="s">
@@ -16751,8 +17090,8 @@
       <c r="G152" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H152" s="21" t="s">
-        <v>411</v>
+      <c r="H152" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="I152" s="8"/>
       <c r="J152" s="7"/>
@@ -16778,7 +17117,7 @@
       <c r="G153" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="21" t="s">
+      <c r="H153" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I153" s="8"/>
@@ -16790,7 +17129,7 @@
         <v>147</v>
       </c>
       <c r="B154" s="4"/>
-      <c r="C154" s="22" t="s">
+      <c r="C154" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D154" s="4" t="s">
@@ -16805,8 +17144,8 @@
       <c r="G154" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H154" s="21" t="s">
-        <v>412</v>
+      <c r="H154" s="20" t="s">
+        <v>402</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="7"/>
@@ -16832,7 +17171,7 @@
       <c r="G155" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="21" t="s">
+      <c r="H155" s="20" t="s">
         <v>256</v>
       </c>
       <c r="I155" s="8"/>
@@ -16844,7 +17183,7 @@
         <v>149</v>
       </c>
       <c r="B156" s="4"/>
-      <c r="C156" s="22" t="s">
+      <c r="C156" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D156" s="4" t="s">
@@ -16859,8 +17198,8 @@
       <c r="G156" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="21" t="s">
-        <v>413</v>
+      <c r="H156" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="7"/>
@@ -16886,7 +17225,7 @@
       <c r="G157" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="21" t="s">
+      <c r="H157" s="20" t="s">
         <v>257</v>
       </c>
       <c r="I157" s="8"/>
@@ -16898,7 +17237,7 @@
         <v>151</v>
       </c>
       <c r="B158" s="4"/>
-      <c r="C158" s="22" t="s">
+      <c r="C158" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -16913,8 +17252,8 @@
       <c r="G158" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="21" t="s">
-        <v>414</v>
+      <c r="H158" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="I158" s="8"/>
       <c r="J158" s="7"/>
@@ -16940,7 +17279,7 @@
       <c r="G159" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H159" s="21" t="s">
+      <c r="H159" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I159" s="8"/>
@@ -16952,7 +17291,7 @@
         <v>153</v>
       </c>
       <c r="B160" s="4"/>
-      <c r="C160" s="22" t="s">
+      <c r="C160" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D160" s="4" t="s">
@@ -16967,8 +17306,8 @@
       <c r="G160" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="21" t="s">
-        <v>415</v>
+      <c r="H160" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="I160" s="8"/>
       <c r="J160" s="7"/>
@@ -16994,7 +17333,7 @@
       <c r="G161" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H161" s="21" t="s">
+      <c r="H161" s="20" t="s">
         <v>259</v>
       </c>
       <c r="I161" s="8"/>
@@ -17006,7 +17345,7 @@
         <v>155</v>
       </c>
       <c r="B162" s="4"/>
-      <c r="C162" s="22" t="s">
+      <c r="C162" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D162" s="4" t="s">
@@ -17021,8 +17360,8 @@
       <c r="G162" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H162" s="21" t="s">
-        <v>416</v>
+      <c r="H162" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="7"/>
@@ -17048,7 +17387,7 @@
       <c r="G163" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H163" s="21" t="s">
+      <c r="H163" s="20" t="s">
         <v>260</v>
       </c>
       <c r="I163" s="8"/>
@@ -17060,7 +17399,7 @@
         <v>157</v>
       </c>
       <c r="B164" s="4"/>
-      <c r="C164" s="22" t="s">
+      <c r="C164" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="4" t="s">
@@ -17075,8 +17414,8 @@
       <c r="G164" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H164" s="21" t="s">
-        <v>417</v>
+      <c r="H164" s="20" t="s">
+        <v>407</v>
       </c>
       <c r="I164" s="8"/>
       <c r="J164" s="7"/>
@@ -17102,7 +17441,7 @@
       <c r="G165" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H165" s="21" t="s">
+      <c r="H165" s="20" t="s">
         <v>261</v>
       </c>
       <c r="I165" s="8"/>
@@ -17114,7 +17453,7 @@
         <v>159</v>
       </c>
       <c r="B166" s="4"/>
-      <c r="C166" s="22" t="s">
+      <c r="C166" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D166" s="4" t="s">
@@ -17129,8 +17468,8 @@
       <c r="G166" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H166" s="21" t="s">
-        <v>418</v>
+      <c r="H166" s="20" t="s">
+        <v>408</v>
       </c>
       <c r="I166" s="8"/>
       <c r="J166" s="7"/>
@@ -17147,10 +17486,10 @@
       <c r="D167" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="18" t="s">
+      <c r="F167" s="17" t="s">
         <v>234</v>
       </c>
       <c r="G167" s="5" t="s">
@@ -17174,10 +17513,10 @@
       <c r="D168" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F168" s="18" t="s">
+      <c r="F168" s="17" t="s">
         <v>218</v>
       </c>
       <c r="G168" s="5" t="s">
@@ -17201,10 +17540,10 @@
       <c r="D169" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F169" s="18" t="s">
+      <c r="F169" s="17" t="s">
         <v>239</v>
       </c>
       <c r="G169" s="5" t="s">
@@ -17222,25 +17561,25 @@
         <v>163</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E170" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="7"/>
@@ -17255,19 +17594,19 @@
         <v>80</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="E171" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="7"/>
@@ -17288,13 +17627,13 @@
         <v>19</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>108</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="7"/>
@@ -17309,19 +17648,19 @@
         <v>41</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E173" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G173" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="F173" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="G173" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="H173" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="I173" s="6"/>
       <c r="J173" s="7"/>
@@ -17336,19 +17675,19 @@
         <v>41</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="E174" s="5" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I174" s="6"/>
       <c r="J174" s="7"/>
@@ -17363,19 +17702,19 @@
         <v>41</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="E175" s="5" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="I175" s="8"/>
       <c r="J175" s="7"/>
@@ -17403,7 +17742,7 @@
       <c r="G176" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H176" s="21" t="s">
+      <c r="H176" s="20" t="s">
         <v>254</v>
       </c>
       <c r="I176" s="8"/>
@@ -17415,7 +17754,7 @@
         <v>170</v>
       </c>
       <c r="B177" s="4"/>
-      <c r="C177" s="22" t="s">
+      <c r="C177" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="4" t="s">
@@ -17430,8 +17769,8 @@
       <c r="G177" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H177" s="21" t="s">
-        <v>411</v>
+      <c r="H177" s="20" t="s">
+        <v>401</v>
       </c>
       <c r="I177" s="8"/>
       <c r="J177" s="7"/>
@@ -17457,7 +17796,7 @@
       <c r="G178" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H178" s="21" t="s">
+      <c r="H178" s="20" t="s">
         <v>255</v>
       </c>
       <c r="I178" s="8"/>
@@ -17469,7 +17808,7 @@
         <v>172</v>
       </c>
       <c r="B179" s="4"/>
-      <c r="C179" s="22" t="s">
+      <c r="C179" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D179" s="4" t="s">
@@ -17484,8 +17823,8 @@
       <c r="G179" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H179" s="21" t="s">
-        <v>412</v>
+      <c r="H179" s="20" t="s">
+        <v>402</v>
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="7"/>
@@ -17511,7 +17850,7 @@
       <c r="G180" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H180" s="21" t="s">
+      <c r="H180" s="20" t="s">
         <v>256</v>
       </c>
       <c r="I180" s="8"/>
@@ -17523,7 +17862,7 @@
         <v>174</v>
       </c>
       <c r="B181" s="4"/>
-      <c r="C181" s="22" t="s">
+      <c r="C181" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D181" s="4" t="s">
@@ -17538,8 +17877,8 @@
       <c r="G181" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H181" s="21" t="s">
-        <v>413</v>
+      <c r="H181" s="20" t="s">
+        <v>403</v>
       </c>
       <c r="I181" s="6"/>
       <c r="J181" s="7"/>
@@ -17565,7 +17904,7 @@
       <c r="G182" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H182" s="21" t="s">
+      <c r="H182" s="20" t="s">
         <v>257</v>
       </c>
       <c r="I182" s="8"/>
@@ -17577,7 +17916,7 @@
         <v>176</v>
       </c>
       <c r="B183" s="4"/>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D183" s="4" t="s">
@@ -17592,8 +17931,8 @@
       <c r="G183" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="21" t="s">
-        <v>414</v>
+      <c r="H183" s="20" t="s">
+        <v>404</v>
       </c>
       <c r="I183" s="8"/>
       <c r="J183" s="7"/>
@@ -17619,7 +17958,7 @@
       <c r="G184" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H184" s="21" t="s">
+      <c r="H184" s="20" t="s">
         <v>258</v>
       </c>
       <c r="I184" s="8"/>
@@ -17631,7 +17970,7 @@
         <v>178</v>
       </c>
       <c r="B185" s="4"/>
-      <c r="C185" s="22" t="s">
+      <c r="C185" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D185" s="4" t="s">
@@ -17646,8 +17985,8 @@
       <c r="G185" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H185" s="21" t="s">
-        <v>415</v>
+      <c r="H185" s="20" t="s">
+        <v>405</v>
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="7"/>
@@ -17673,7 +18012,7 @@
       <c r="G186" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H186" s="21" t="s">
+      <c r="H186" s="20" t="s">
         <v>259</v>
       </c>
       <c r="I186" s="8"/>
@@ -17685,7 +18024,7 @@
         <v>180</v>
       </c>
       <c r="B187" s="4"/>
-      <c r="C187" s="22" t="s">
+      <c r="C187" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D187" s="4" t="s">
@@ -17700,8 +18039,8 @@
       <c r="G187" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H187" s="21" t="s">
-        <v>416</v>
+      <c r="H187" s="20" t="s">
+        <v>406</v>
       </c>
       <c r="I187" s="8"/>
       <c r="J187" s="7"/>
@@ -17727,7 +18066,7 @@
       <c r="G188" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H188" s="21" t="s">
+      <c r="H188" s="20" t="s">
         <v>260</v>
       </c>
       <c r="I188" s="8"/>
@@ -17739,7 +18078,7 @@
         <v>182</v>
       </c>
       <c r="B189" s="4"/>
-      <c r="C189" s="22" t="s">
+      <c r="C189" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D189" s="4" t="s">
@@ -17754,8 +18093,8 @@
       <c r="G189" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="21" t="s">
-        <v>417</v>
+      <c r="H189" s="20" t="s">
+        <v>407</v>
       </c>
       <c r="I189" s="8"/>
       <c r="J189" s="7"/>
@@ -17781,7 +18120,7 @@
       <c r="G190" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H190" s="21" t="s">
+      <c r="H190" s="20" t="s">
         <v>261</v>
       </c>
       <c r="I190" s="8"/>
@@ -17793,7 +18132,7 @@
         <v>184</v>
       </c>
       <c r="B191" s="4"/>
-      <c r="C191" s="22" t="s">
+      <c r="C191" s="21" t="s">
         <v>41</v>
       </c>
       <c r="D191" s="4" t="s">
@@ -17808,8 +18147,8 @@
       <c r="G191" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="H191" s="21" t="s">
-        <v>418</v>
+      <c r="H191" s="20" t="s">
+        <v>408</v>
       </c>
       <c r="I191" s="8"/>
       <c r="J191" s="7"/>
@@ -17826,10 +18165,10 @@
       <c r="D192" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E192" s="18" t="s">
+      <c r="E192" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="18" t="s">
+      <c r="F192" s="17" t="s">
         <v>243</v>
       </c>
       <c r="G192" s="5" t="s">
@@ -17853,13 +18192,13 @@
       <c r="D193" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E193" s="18" t="s">
+      <c r="E193" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F193" s="18" t="s">
+      <c r="F193" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="G193" s="18" t="s">
+      <c r="G193" s="17" t="s">
         <v>248</v>
       </c>
       <c r="H193" s="5" t="s">
@@ -17880,13 +18219,13 @@
       <c r="D194" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E194" s="18" t="s">
+      <c r="E194" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F194" s="18" t="s">
+      <c r="F194" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="G194" s="18" t="s">
+      <c r="G194" s="17" t="s">
         <v>252</v>
       </c>
       <c r="H194" s="5" t="s">
@@ -17921,7 +18260,7 @@
       <c r="H195" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="I195" s="17"/>
+      <c r="I195" s="16"/>
       <c r="J195" s="7"/>
       <c r="K195" s="6"/>
     </row>
@@ -17946,6 +18285,30 @@
     <mergeCell ref="D6:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="I8:I30">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+      <formula>"〇"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I85">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"〇"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"〇"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/テスト/評価システム結合テストチェックリスト.xlsx
+++ b/テスト/評価システム結合テストチェックリスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB60FAC-A15F-4A06-B76F-11C8F37C6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC210EDB-5B88-46A1-A929-EEDAE9D5C5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="445">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -12294,14 +12294,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -12316,74 +12309,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12733,10 +12658,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
   <dimension ref="A1:L195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomLeft" activeCell="G152" sqref="G152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17066,7 +16991,9 @@
       <c r="H151" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="I151" s="8"/>
+      <c r="I151" s="16" t="s">
+        <v>433</v>
+      </c>
       <c r="J151" s="7"/>
       <c r="K151" s="6"/>
     </row>
@@ -18286,26 +18213,26 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="I8:I30">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72:I85">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"〇"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/テスト/評価システム結合テストチェックリスト.xlsx
+++ b/テスト/評価システム結合テストチェックリスト.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k-kato\Desktop\company_evaluation\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D914F87B-A3EA-4C82-A0AD-B1B8462C1855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C8B3C9-54AF-4932-AA0E-D0E1A437CE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2939037D-FFFD-4818-A2B0-56527707E508}"/>
   </bookViews>
   <sheets>
     <sheet name="結合テストチェックリスト" sheetId="1" r:id="rId1"/>
+    <sheet name="バグスクリーンショット" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">結合テストチェックリスト!$A$7:$M$37</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="452">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -10300,24 +10301,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[エラーメッセージ]に
-"※ptとExptに1以上の数値を入力してください。"
-と表示される</t>
-    <rPh sb="23" eb="25">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>スウチ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>[更新確認OK]ボタン押下時
 [pt]と[Expt]の入力値が0の時のエラーの確認</t>
     <rPh sb="1" eb="3">
@@ -11859,12 +11842,146 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テスト:NO91,92</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[登録確認OK]ボタン押下時
+[Expt]の値が０の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[更新確認OK]ボタン押下時
+[Expt]の値が０の時のエラーの確認</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト5
+[pt]入力値=0
+[Expt]入力値=0
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[評価項目]入力値=テスト6
+[pt]入力値=0
+[Expt]入力値=0
+[説明]入力値=なし
+[更新]ボタン押下</t>
+    <rPh sb="1" eb="5">
+      <t>ヒョウカコウモク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="41" eb="44">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[エラーメッセージ]に
+"※ptまたはExptに1以上の数値を入力してください。"
+と表示される</t>
+    <rPh sb="25" eb="27">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト:NO122,123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト:NO154,155,179,180</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11921,6 +12038,12 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -12034,20 +12157,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -12059,10 +12175,21 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="dotted">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -12073,7 +12200,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12122,7 +12249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12130,45 +12257,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -12188,7 +12276,43 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12197,19 +12321,19 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12258,6 +12382,161 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118228</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1DD223-CDB0-2398-8963-848091B39CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="277091"/>
+          <a:ext cx="7848600" cy="4447773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134F6976-E3AA-7A64-8C5B-BE40E98870AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5074228"/>
+          <a:ext cx="7848600" cy="4447773"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>226871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF713D7-3F8C-A985-0D6D-AA8548A584F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9925053"/>
+          <a:ext cx="7848600" cy="4452102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12557,12 +12836,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}">
-  <dimension ref="A1:L195"/>
+  <dimension ref="A1:L197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12573,77 +12852,81 @@
     <col min="5" max="5" width="46.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="7" width="34.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="62.5" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.5" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7.125" bestFit="1" customWidth="1"/>
     <col min="12" max="26" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="29">
+      <c r="I1" s="30">
         <v>45173</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="33" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="30" t="s">
         <v>393</v>
       </c>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="33" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="30">
+        <v>45176</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="33" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="I4" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="I5" s="1"/>
@@ -12651,52 +12934,52 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="F6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="38" t="s">
+      <c r="H6" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="32" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="19"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
@@ -12720,11 +13003,11 @@
       <c r="G8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="22" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="5"/>
@@ -12749,11 +13032,11 @@
       <c r="G9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="22" t="s">
         <v>26</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="5"/>
@@ -12778,11 +13061,11 @@
       <c r="G10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="22" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="5"/>
@@ -12807,11 +13090,11 @@
       <c r="G11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="5"/>
@@ -12836,11 +13119,11 @@
       <c r="G12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="22" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="5"/>
@@ -12865,11 +13148,11 @@
       <c r="G13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="22" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="5"/>
@@ -12894,11 +13177,11 @@
       <c r="G14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="5"/>
@@ -12923,11 +13206,11 @@
       <c r="G15" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="5"/>
@@ -12952,11 +13235,11 @@
       <c r="G16" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H16" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="5"/>
@@ -12981,11 +13264,11 @@
       <c r="G17" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I17" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="5"/>
@@ -13010,11 +13293,11 @@
       <c r="G18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="5"/>
@@ -13039,11 +13322,11 @@
       <c r="G19" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="23" t="s">
         <v>45</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="5"/>
@@ -13068,11 +13351,11 @@
       <c r="G20" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="23" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="5"/>
@@ -13099,11 +13382,11 @@
       <c r="G21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="22" t="s">
         <v>62</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="5"/>
@@ -13128,11 +13411,11 @@
       <c r="G22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="22" t="s">
         <v>66</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="5"/>
@@ -13157,11 +13440,11 @@
       <c r="G23" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="22" t="s">
         <v>70</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="5"/>
@@ -13186,11 +13469,11 @@
       <c r="G24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="22" t="s">
         <v>74</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="5"/>
@@ -13215,11 +13498,11 @@
       <c r="G25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="22" t="s">
         <v>78</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="5"/>
@@ -13246,11 +13529,11 @@
       <c r="G26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="22" t="s">
         <v>94</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="5"/>
@@ -13275,11 +13558,11 @@
       <c r="G27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="5"/>
@@ -13304,11 +13587,11 @@
       <c r="G28" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="22" t="s">
         <v>101</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="5"/>
@@ -13333,11 +13616,11 @@
       <c r="G29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="22" t="s">
         <v>105</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="5"/>
@@ -13362,11 +13645,11 @@
       <c r="G30" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H30" s="35" t="s">
+      <c r="H30" s="22" t="s">
         <v>109</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="5"/>
@@ -13391,11 +13674,11 @@
       <c r="G31" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="H31" s="35" t="s">
+      <c r="H31" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="5"/>
@@ -13420,11 +13703,11 @@
       <c r="G32" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="H32" s="35" t="s">
+      <c r="H32" s="22" t="s">
         <v>112</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="5"/>
@@ -13449,11 +13732,11 @@
       <c r="G33" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="H33" s="35" t="s">
+      <c r="H33" s="22" t="s">
         <v>116</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="5"/>
@@ -13478,11 +13761,11 @@
       <c r="G34" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="H34" s="35" t="s">
-        <v>439</v>
+      <c r="H34" s="22" t="s">
+        <v>438</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="5"/>
@@ -13507,11 +13790,11 @@
       <c r="G35" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="H35" s="35" t="s">
+      <c r="H35" s="22" t="s">
         <v>116</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="5"/>
@@ -13536,11 +13819,11 @@
       <c r="G36" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="H36" s="35" t="s">
-        <v>440</v>
+      <c r="H36" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="5"/>
@@ -13565,11 +13848,11 @@
       <c r="G37" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="H37" s="35" t="s">
+      <c r="H37" s="22" t="s">
         <v>275</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="5"/>
@@ -13594,11 +13877,11 @@
       <c r="G38" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H38" s="35" t="s">
+      <c r="H38" s="22" t="s">
         <v>122</v>
       </c>
       <c r="I38" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="5"/>
@@ -13621,13 +13904,13 @@
         <v>123</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="H39" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="H39" s="22" t="s">
         <v>124</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="5"/>
@@ -13650,13 +13933,13 @@
         <v>125</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="H40" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="H40" s="22" t="s">
         <v>124</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="5"/>
@@ -13679,13 +13962,13 @@
         <v>126</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H41" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="H41" s="22" t="s">
         <v>124</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="5"/>
@@ -13708,13 +13991,13 @@
         <v>127</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H42" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="H42" s="22" t="s">
         <v>124</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="5"/>
@@ -13739,11 +14022,11 @@
       <c r="G43" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H43" s="35" t="s">
+      <c r="H43" s="22" t="s">
         <v>129</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="5"/>
@@ -13768,11 +14051,11 @@
       <c r="G44" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="22" t="s">
         <v>129</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="5"/>
@@ -13797,11 +14080,11 @@
       <c r="G45" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H45" s="35" t="s">
+      <c r="H45" s="22" t="s">
         <v>129</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="5"/>
@@ -13826,11 +14109,11 @@
       <c r="G46" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="H46" s="35" t="s">
+      <c r="H46" s="22" t="s">
         <v>129</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J46" s="6"/>
       <c r="K46" s="5"/>
@@ -13855,11 +14138,11 @@
       <c r="G47" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="H47" s="35" t="s">
+      <c r="H47" s="22" t="s">
         <v>281</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="5"/>
@@ -13884,11 +14167,11 @@
       <c r="G48" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="H48" s="35" t="s">
+      <c r="H48" s="22" t="s">
         <v>281</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J48" s="6"/>
       <c r="K48" s="5"/>
@@ -13913,11 +14196,11 @@
       <c r="G49" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="H49" s="35" t="s">
+      <c r="H49" s="22" t="s">
         <v>286</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="5"/>
@@ -13942,11 +14225,11 @@
       <c r="G50" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="H50" s="35" t="s">
+      <c r="H50" s="22" t="s">
         <v>288</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J50" s="6"/>
       <c r="K50" s="5"/>
@@ -13971,11 +14254,11 @@
       <c r="G51" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H51" s="35" t="s">
+      <c r="H51" s="22" t="s">
         <v>291</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="5"/>
@@ -14000,11 +14283,11 @@
       <c r="G52" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H52" s="35" t="s">
+      <c r="H52" s="22" t="s">
         <v>288</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J52" s="6"/>
       <c r="K52" s="5"/>
@@ -14029,11 +14312,11 @@
       <c r="G53" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H53" s="35" t="s">
+      <c r="H53" s="22" t="s">
         <v>291</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J53" s="6"/>
       <c r="K53" s="5"/>
@@ -14058,11 +14341,11 @@
       <c r="G54" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="H54" s="35" t="s">
+      <c r="H54" s="22" t="s">
         <v>288</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J54" s="6"/>
       <c r="K54" s="5"/>
@@ -14087,11 +14370,11 @@
       <c r="G55" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="H55" s="35" t="s">
+      <c r="H55" s="22" t="s">
         <v>291</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="5"/>
@@ -14116,11 +14399,11 @@
       <c r="G56" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="H56" s="35" t="s">
+      <c r="H56" s="22" t="s">
         <v>288</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J56" s="6"/>
       <c r="K56" s="5"/>
@@ -14145,11 +14428,11 @@
       <c r="G57" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="H57" s="35" t="s">
+      <c r="H57" s="22" t="s">
         <v>291</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="5"/>
@@ -14174,11 +14457,11 @@
       <c r="G58" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="24" t="s">
         <v>288</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J58" s="10"/>
       <c r="K58" s="11"/>
@@ -14203,11 +14486,11 @@
       <c r="G59" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H59" s="24" t="s">
         <v>291</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="11"/>
@@ -14232,11 +14515,11 @@
       <c r="G60" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="24" t="s">
         <v>306</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J60" s="10"/>
       <c r="K60" s="11"/>
@@ -14261,11 +14544,11 @@
       <c r="G61" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="H61" s="37" t="s">
+      <c r="H61" s="24" t="s">
         <v>291</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J61" s="10"/>
       <c r="K61" s="11"/>
@@ -14290,11 +14573,11 @@
       <c r="G62" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="H62" s="37" t="s">
+      <c r="H62" s="24" t="s">
         <v>306</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J62" s="10"/>
       <c r="K62" s="11"/>
@@ -14319,11 +14602,11 @@
       <c r="G63" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="H63" s="37" t="s">
+      <c r="H63" s="24" t="s">
         <v>291</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J63" s="10"/>
       <c r="K63" s="11"/>
@@ -14348,11 +14631,11 @@
       <c r="G64" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H64" s="37" t="s">
+      <c r="H64" s="24" t="s">
         <v>306</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="11"/>
@@ -14377,11 +14660,11 @@
       <c r="G65" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H65" s="37" t="s">
+      <c r="H65" s="24" t="s">
         <v>291</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J65" s="10"/>
       <c r="K65" s="11"/>
@@ -14406,11 +14689,11 @@
       <c r="G66" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="H66" s="37" t="s">
+      <c r="H66" s="24" t="s">
         <v>316</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J66" s="10"/>
       <c r="K66" s="11"/>
@@ -14435,11 +14718,11 @@
       <c r="G67" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="24" t="s">
         <v>139</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="10"/>
@@ -14465,11 +14748,11 @@
       <c r="G68" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H68" s="37" t="s">
+      <c r="H68" s="24" t="s">
         <v>143</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="10"/>
@@ -14497,11 +14780,11 @@
       <c r="G69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H69" s="35" t="s">
+      <c r="H69" s="22" t="s">
         <v>83</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="5"/>
@@ -14526,11 +14809,11 @@
       <c r="G70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H70" s="35" t="s">
+      <c r="H70" s="22" t="s">
         <v>85</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J70" s="6"/>
       <c r="K70" s="5"/>
@@ -14555,11 +14838,11 @@
       <c r="G71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H71" s="35" t="s">
+      <c r="H71" s="22" t="s">
         <v>89</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J71" s="6"/>
       <c r="K71" s="5"/>
@@ -14586,11 +14869,11 @@
       <c r="G72" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="H72" s="37" t="s">
+      <c r="H72" s="24" t="s">
         <v>147</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J72" s="10"/>
       <c r="K72" s="11"/>
@@ -14615,11 +14898,11 @@
       <c r="G73" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="H73" s="37" t="s">
+      <c r="H73" s="24" t="s">
         <v>151</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J73" s="10"/>
       <c r="K73" s="11"/>
@@ -14644,11 +14927,11 @@
       <c r="G74" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="24" t="s">
         <v>153</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J74" s="10"/>
       <c r="K74" s="11"/>
@@ -14675,11 +14958,11 @@
       <c r="G75" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H75" s="37" t="s">
+      <c r="H75" s="24" t="s">
         <v>158</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J75" s="10"/>
       <c r="K75" s="11"/>
@@ -14704,11 +14987,11 @@
       <c r="G76" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H76" s="35" t="s">
+      <c r="H76" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J76" s="6"/>
       <c r="K76" s="5"/>
@@ -14733,11 +15016,11 @@
       <c r="G77" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="H77" s="22" t="s">
         <v>101</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J77" s="6"/>
       <c r="K77" s="5"/>
@@ -14762,11 +15045,11 @@
       <c r="G78" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H78" s="35" t="s">
+      <c r="H78" s="22" t="s">
         <v>105</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J78" s="6"/>
       <c r="K78" s="5"/>
@@ -14791,11 +15074,11 @@
       <c r="G79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H79" s="35" t="s">
+      <c r="H79" s="22" t="s">
         <v>109</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J79" s="6"/>
       <c r="K79" s="5"/>
@@ -14820,11 +15103,11 @@
       <c r="G80" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="H80" s="35" t="s">
+      <c r="H80" s="22" t="s">
         <v>320</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J80" s="6"/>
       <c r="K80" s="5"/>
@@ -14849,11 +15132,11 @@
       <c r="G81" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H81" s="22" t="s">
         <v>320</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J81" s="6"/>
       <c r="K81" s="5"/>
@@ -14878,11 +15161,11 @@
       <c r="G82" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H82" s="35" t="s">
+      <c r="H82" s="22" t="s">
         <v>324</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J82" s="6"/>
       <c r="K82" s="5"/>
@@ -14907,11 +15190,11 @@
       <c r="G83" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H83" s="35" t="s">
+      <c r="H83" s="22" t="s">
         <v>324</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J83" s="6"/>
       <c r="K83" s="5"/>
@@ -14936,11 +15219,11 @@
       <c r="G84" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="H84" s="35" t="s">
-        <v>428</v>
+      <c r="H84" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J84" s="6"/>
       <c r="K84" s="5"/>
@@ -14965,11 +15248,11 @@
       <c r="G85" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="H85" s="35" t="s">
-        <v>428</v>
+      <c r="H85" s="22" t="s">
+        <v>427</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J85" s="6"/>
       <c r="K85" s="5"/>
@@ -14992,13 +15275,13 @@
         <v>331</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="H86" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="H86" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J86" s="6"/>
       <c r="K86" s="5"/>
@@ -15021,13 +15304,13 @@
         <v>333</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H87" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="H87" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J87" s="6"/>
       <c r="K87" s="5"/>
@@ -15050,13 +15333,13 @@
         <v>334</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="H88" s="35" t="s">
+        <v>412</v>
+      </c>
+      <c r="H88" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J88" s="6"/>
       <c r="K88" s="5"/>
@@ -15079,13 +15362,13 @@
         <v>335</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="H89" s="35" t="s">
+        <v>413</v>
+      </c>
+      <c r="H89" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J89" s="6"/>
       <c r="K89" s="5"/>
@@ -15108,13 +15391,13 @@
         <v>336</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="H90" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="H90" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J90" s="6"/>
       <c r="K90" s="5"/>
@@ -15137,13 +15420,13 @@
         <v>338</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="H91" s="35" t="s">
+        <v>415</v>
+      </c>
+      <c r="H91" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J91" s="6"/>
       <c r="K91" s="5"/>
@@ -15166,13 +15449,13 @@
         <v>336</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="H92" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="H92" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J92" s="6"/>
       <c r="K92" s="5"/>
@@ -15195,13 +15478,13 @@
         <v>338</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="H93" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="H93" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I93" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J93" s="6"/>
       <c r="K93" s="5"/>
@@ -15226,11 +15509,11 @@
       <c r="G94" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="H94" s="35" t="s">
+      <c r="H94" s="22" t="s">
         <v>341</v>
       </c>
       <c r="I94" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J94" s="6"/>
       <c r="K94" s="5"/>
@@ -15255,11 +15538,11 @@
       <c r="G95" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="H95" s="35" t="s">
+      <c r="H95" s="22" t="s">
         <v>341</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J95" s="6"/>
       <c r="K95" s="5"/>
@@ -15284,11 +15567,11 @@
       <c r="G96" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="H96" s="35" t="s">
+      <c r="H96" s="22" t="s">
         <v>345</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J96" s="6"/>
       <c r="K96" s="5"/>
@@ -15313,11 +15596,11 @@
       <c r="G97" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="H97" s="35" t="s">
+      <c r="H97" s="22" t="s">
         <v>345</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J97" s="6"/>
       <c r="K97" s="5"/>
@@ -15342,11 +15625,11 @@
       <c r="G98" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="H98" s="35" t="s">
-        <v>405</v>
+      <c r="H98" s="22" t="s">
+        <v>449</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J98" s="6"/>
       <c r="K98" s="5"/>
@@ -15366,16 +15649,16 @@
         <v>19</v>
       </c>
       <c r="F99" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="G99" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="G99" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H99" s="35" t="s">
-        <v>405</v>
+      <c r="H99" s="22" t="s">
+        <v>449</v>
       </c>
       <c r="I99" s="14" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J99" s="6"/>
       <c r="K99" s="5"/>
@@ -15398,13 +15681,13 @@
         <v>347</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H100" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="H100" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I100" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J100" s="6"/>
       <c r="K100" s="5"/>
@@ -15427,13 +15710,13 @@
         <v>347</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="H101" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="H101" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I101" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J101" s="6"/>
       <c r="K101" s="5"/>
@@ -15456,13 +15739,13 @@
         <v>347</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H102" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="H102" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I102" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J102" s="6"/>
       <c r="K102" s="5"/>
@@ -15485,13 +15768,13 @@
         <v>347</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H103" s="35" t="s">
+        <v>432</v>
+      </c>
+      <c r="H103" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I103" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="5"/>
@@ -15514,13 +15797,13 @@
         <v>347</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="H104" s="35" t="s">
+        <v>433</v>
+      </c>
+      <c r="H104" s="22" t="s">
         <v>348</v>
       </c>
       <c r="I104" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J104" s="6"/>
       <c r="K104" s="5"/>
@@ -15561,11 +15844,11 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H105" s="35" t="s">
+      <c r="H105" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I105" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J105" s="6"/>
       <c r="K105" s="5"/>
@@ -15606,11 +15889,11 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H106" s="35" t="s">
+      <c r="H106" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I106" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J106" s="6"/>
       <c r="K106" s="5"/>
@@ -15651,11 +15934,11 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H107" s="35" t="s">
+      <c r="H107" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I107" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="5"/>
@@ -15696,11 +15979,11 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H108" s="35" t="s">
+      <c r="H108" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I108" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="5"/>
@@ -15741,11 +16024,11 @@
 [備考]入力値=なし
 [更新]ボタン押下</v>
       </c>
-      <c r="H109" s="35" t="s">
+      <c r="H109" s="22" t="s">
         <v>350</v>
       </c>
       <c r="I109" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="5"/>
@@ -15772,11 +16055,11 @@
       <c r="G110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H110" s="35" t="s">
+      <c r="H110" s="22" t="s">
         <v>353</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="5"/>
@@ -15801,11 +16084,11 @@
       <c r="G111" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="H111" s="35" t="s">
+      <c r="H111" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J111" s="6"/>
       <c r="K111" s="5"/>
@@ -15830,11 +16113,11 @@
       <c r="G112" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H112" s="35" t="s">
+      <c r="H112" s="22" t="s">
         <v>101</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J112" s="6"/>
       <c r="K112" s="5"/>
@@ -15859,11 +16142,11 @@
       <c r="G113" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H113" s="35" t="s">
+      <c r="H113" s="22" t="s">
         <v>105</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="5"/>
@@ -15888,11 +16171,11 @@
       <c r="G114" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="35" t="s">
+      <c r="H114" s="22" t="s">
         <v>109</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="5"/>
@@ -15917,11 +16200,11 @@
       <c r="G115" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H115" s="35" t="s">
+      <c r="H115" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J115" s="6"/>
       <c r="K115" s="5"/>
@@ -15946,11 +16229,11 @@
       <c r="G116" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="H116" s="35" t="s">
+      <c r="H116" s="22" t="s">
         <v>357</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J116" s="6"/>
       <c r="K116" s="5"/>
@@ -15973,13 +16256,13 @@
         <v>358</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H117" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="H117" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="5"/>
@@ -16002,13 +16285,13 @@
         <v>360</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H118" s="35" t="s">
+        <v>434</v>
+      </c>
+      <c r="H118" s="22" t="s">
         <v>359</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="5"/>
@@ -16031,13 +16314,13 @@
         <v>361</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H119" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="H119" s="22" t="s">
         <v>362</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J119" s="6"/>
       <c r="K119" s="5"/>
@@ -16060,13 +16343,13 @@
         <v>363</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H120" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="H120" s="22" t="s">
         <v>362</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J120" s="6"/>
       <c r="K120" s="5"/>
@@ -16089,13 +16372,13 @@
         <v>331</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="H121" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="H121" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J121" s="6"/>
       <c r="K121" s="5"/>
@@ -16118,13 +16401,13 @@
         <v>333</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H122" s="35" t="s">
+        <v>419</v>
+      </c>
+      <c r="H122" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J122" s="6"/>
       <c r="K122" s="5"/>
@@ -16147,13 +16430,13 @@
         <v>334</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H123" s="35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H123" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J123" s="6"/>
       <c r="K123" s="5"/>
@@ -16176,13 +16459,13 @@
         <v>335</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="H124" s="35" t="s">
+        <v>421</v>
+      </c>
+      <c r="H124" s="22" t="s">
         <v>332</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J124" s="6"/>
       <c r="K124" s="5"/>
@@ -16205,13 +16488,13 @@
         <v>336</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="H125" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="H125" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J125" s="6"/>
       <c r="K125" s="5"/>
@@ -16234,13 +16517,13 @@
         <v>336</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="H126" s="35" t="s">
+        <v>423</v>
+      </c>
+      <c r="H126" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J126" s="6"/>
       <c r="K126" s="5"/>
@@ -16263,13 +16546,13 @@
         <v>364</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H127" s="35" t="s">
+        <v>424</v>
+      </c>
+      <c r="H127" s="22" t="s">
         <v>337</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J127" s="6"/>
       <c r="K127" s="5"/>
@@ -16292,13 +16575,13 @@
         <v>364</v>
       </c>
       <c r="G128" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="I128" s="5" t="s">
         <v>426</v>
-      </c>
-      <c r="H128" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="I128" s="5" t="s">
-        <v>427</v>
       </c>
       <c r="J128" s="6"/>
       <c r="K128" s="5"/>
@@ -16318,16 +16601,16 @@
         <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>365</v>
+        <v>445</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H129" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="I129" s="5" t="s">
-        <v>427</v>
+        <v>447</v>
+      </c>
+      <c r="H129" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="I129" s="34" t="s">
+        <v>428</v>
       </c>
       <c r="J129" s="6"/>
       <c r="K129" s="5"/>
@@ -16343,21 +16626,20 @@
       <c r="D130" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E130" s="4" t="str">
-        <f>"テストNo."&amp;A129&amp;"のデータが[TM_self_check]に登録されている"</f>
-        <v>テストNo.122のデータが[TM_self_check]に登録されている</v>
+      <c r="E130" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>367</v>
+        <v>446</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="H130" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="I130" s="5" t="s">
-        <v>427</v>
+        <v>448</v>
+      </c>
+      <c r="H130" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="I130" s="34" t="s">
+        <v>428</v>
       </c>
       <c r="J130" s="6"/>
       <c r="K130" s="5"/>
@@ -16374,19 +16656,19 @@
         <v>110</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>304</v>
+        <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>365</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="H131" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="I131" s="14" t="s">
-        <v>427</v>
+        <v>437</v>
+      </c>
+      <c r="H131" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="I131" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J131" s="6"/>
       <c r="K131" s="5"/>
@@ -16410,107 +16692,108 @@
         <v>367</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="H132" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="H132" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="I132" s="14" t="s">
-        <v>427</v>
+      <c r="I132" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J132" s="6"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <v>126</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>161</v>
-      </c>
+      <c r="B133" s="3"/>
       <c r="C133" s="4" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>92</v>
+        <v>110</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H133" s="35" t="s">
-        <v>164</v>
+        <v>365</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="H133" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="I133" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J133" s="6"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:11" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <v>127</v>
       </c>
       <c r="B134" s="3"/>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>19</v>
+        <v>113</v>
+      </c>
+      <c r="E134" s="4" t="str">
+        <f>"テストNo."&amp;A133&amp;"のデータが[TM_self_check]に登録されている"</f>
+        <v>テストNo.126のデータが[TM_self_check]に登録されている</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>166</v>
+        <v>367</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="H134" s="35" t="s">
-        <v>168</v>
+        <v>409</v>
+      </c>
+      <c r="H134" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="I134" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J134" s="6"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <v>128</v>
       </c>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3" t="s">
-        <v>41</v>
+      <c r="B135" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E135" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G135" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="H135" s="35" t="s">
-        <v>172</v>
+      <c r="H135" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="I135" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J135" s="6"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <v>129</v>
       </c>
@@ -16519,82 +16802,80 @@
         <v>41</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H136" s="35" t="s">
-        <v>143</v>
+        <v>167</v>
+      </c>
+      <c r="H136" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="I136" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J136" s="6"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <v>130</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>80</v>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H137" s="35" t="s">
-        <v>176</v>
+        <v>170</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="H137" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="I137" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J137" s="6"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <v>131</v>
       </c>
       <c r="B138" s="3"/>
-      <c r="C138" s="4" t="s">
-        <v>80</v>
+      <c r="C138" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E138" s="15" t="s">
-        <v>177</v>
+        <v>106</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H138" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="I138" s="5" t="s">
-        <v>427</v>
+        <v>108</v>
+      </c>
+      <c r="H138" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I138" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J138" s="6"/>
       <c r="K138" s="5"/>
@@ -16603,32 +16884,34 @@
       <c r="A139" s="3">
         <v>132</v>
       </c>
-      <c r="B139" s="3"/>
+      <c r="B139" s="3" t="s">
+        <v>174</v>
+      </c>
       <c r="C139" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="15" t="s">
-        <v>180</v>
+      <c r="E139" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H139" s="35" t="s">
-        <v>183</v>
-      </c>
-      <c r="I139" s="5" t="s">
-        <v>427</v>
+        <v>175</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="I139" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J139" s="6"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:11" ht="75" x14ac:dyDescent="0.4">
       <c r="A140" s="3">
         <v>133</v>
       </c>
@@ -16640,19 +16923,19 @@
         <v>155</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="H140" s="35" t="s">
-        <v>186</v>
+        <v>19</v>
+      </c>
+      <c r="H140" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J140" s="6"/>
       <c r="K140" s="5"/>
@@ -16672,16 +16955,16 @@
         <v>180</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="H141" s="35" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="H141" s="22" t="s">
+        <v>183</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J141" s="6"/>
       <c r="K141" s="5"/>
@@ -16695,140 +16978,138 @@
         <v>80</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="E142" s="15" t="s">
         <v>180</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H142" s="35" t="s">
-        <v>192</v>
+        <v>185</v>
+      </c>
+      <c r="H142" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J142" s="6"/>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A143" s="3">
         <v>136</v>
       </c>
       <c r="B143" s="3"/>
-      <c r="C143" s="3" t="s">
-        <v>41</v>
+      <c r="C143" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H143" s="35" t="s">
-        <v>197</v>
+        <v>188</v>
+      </c>
+      <c r="H143" s="22" t="s">
+        <v>186</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J143" s="6"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A144" s="3">
         <v>137</v>
       </c>
       <c r="B144" s="3"/>
-      <c r="C144" s="3" t="s">
-        <v>41</v>
+      <c r="C144" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="15" t="s">
-        <v>199</v>
+        <v>180</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H144" s="35" t="s">
-        <v>201</v>
+        <v>191</v>
+      </c>
+      <c r="H144" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:11" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A145" s="3">
         <v>138</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>202</v>
-      </c>
+      <c r="B145" s="3"/>
       <c r="C145" s="3" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H145" s="35" t="s">
-        <v>206</v>
+        <v>193</v>
+      </c>
+      <c r="E145" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H145" s="22" t="s">
+        <v>197</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J145" s="6"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:11" ht="150" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A146" s="3">
         <v>139</v>
       </c>
       <c r="B146" s="3"/>
-      <c r="C146" s="4" t="s">
-        <v>80</v>
+      <c r="C146" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>209</v>
+        <v>19</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H146" s="35" t="s">
-        <v>210</v>
+        <v>200</v>
+      </c>
+      <c r="H146" s="22" t="s">
+        <v>201</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J146" s="6"/>
       <c r="K146" s="5"/>
@@ -16837,90 +17118,92 @@
       <c r="A147" s="3">
         <v>140</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4" t="s">
+      <c r="B147" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>80</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="E147" s="15" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>204</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H147" s="35" t="s">
-        <v>192</v>
+        <v>205</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H147" s="22" t="s">
+        <v>206</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J147" s="6"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:11" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:11" ht="150" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <v>141</v>
       </c>
       <c r="B148" s="3"/>
-      <c r="C148" s="3" t="s">
-        <v>41</v>
+      <c r="C148" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E148" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="F148" s="15" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="E148" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>209</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="H148" s="35" t="s">
-        <v>217</v>
+        <v>19</v>
+      </c>
+      <c r="H148" s="22" t="s">
+        <v>210</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J148" s="6"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A149" s="3">
         <v>142</v>
       </c>
       <c r="B149" s="3"/>
-      <c r="C149" s="3" t="s">
-        <v>41</v>
+      <c r="C149" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F149" s="15" t="s">
-        <v>199</v>
+        <v>211</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="H149" s="35" t="s">
-        <v>201</v>
+        <v>213</v>
+      </c>
+      <c r="H149" s="22" t="s">
+        <v>192</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J149" s="6"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:11" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <v>143</v>
       </c>
@@ -16929,91 +17212,91 @@
         <v>41</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E150" s="15" t="s">
-        <v>19</v>
+        <v>214</v>
+      </c>
+      <c r="E150" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="F150" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H150" s="35" t="s">
-        <v>220</v>
+        <v>196</v>
+      </c>
+      <c r="H150" s="22" t="s">
+        <v>217</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J150" s="6"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <v>144</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B151" s="3"/>
       <c r="C151" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>223</v>
+        <v>41</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E151" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F151" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H151" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="I151" s="14" t="s">
-        <v>427</v>
+        <v>200</v>
+      </c>
+      <c r="H151" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I151" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:11" ht="225" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A152" s="3">
         <v>145</v>
       </c>
       <c r="B152" s="3"/>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>224</v>
+        <v>165</v>
+      </c>
+      <c r="E152" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" s="15" t="s">
+        <v>218</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H152" s="32" t="s">
-        <v>395</v>
-      </c>
-      <c r="I152" s="14" t="s">
-        <v>427</v>
+        <v>219</v>
+      </c>
+      <c r="H152" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="I152" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J152" s="6"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="3">
         <v>146</v>
       </c>
-      <c r="B153" s="3"/>
+      <c r="B153" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C153" s="3" t="s">
         <v>80</v>
       </c>
@@ -17021,7 +17304,7 @@
         <v>221</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>223</v>
@@ -17029,16 +17312,16 @@
       <c r="G153" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H153" s="32" t="s">
-        <v>255</v>
+      <c r="H153" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="I153" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J153" s="6"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:11" ht="225" x14ac:dyDescent="0.4">
       <c r="A154" s="3">
         <v>147</v>
       </c>
@@ -17050,7 +17333,7 @@
         <v>75</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>224</v>
@@ -17058,16 +17341,16 @@
       <c r="G154" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H154" s="32" t="s">
-        <v>396</v>
+      <c r="H154" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="I154" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J154" s="6"/>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="3">
         <v>148</v>
       </c>
@@ -17079,7 +17362,7 @@
         <v>221</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>223</v>
@@ -17087,16 +17370,16 @@
       <c r="G155" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H155" s="32" t="s">
-        <v>256</v>
+      <c r="H155" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="I155" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J155" s="6"/>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A156" s="3">
         <v>149</v>
       </c>
@@ -17108,7 +17391,7 @@
         <v>75</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>224</v>
@@ -17116,16 +17399,16 @@
       <c r="G156" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H156" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="I156" s="5" t="s">
-        <v>427</v>
+      <c r="H156" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="I156" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J156" s="6"/>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="3">
         <v>150</v>
       </c>
@@ -17137,7 +17420,7 @@
         <v>221</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>223</v>
@@ -17145,16 +17428,16 @@
       <c r="G157" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H157" s="32" t="s">
-        <v>257</v>
+      <c r="H157" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="I157" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J157" s="6"/>
       <c r="K157" s="5"/>
     </row>
-    <row r="158" spans="1:11" ht="300" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A158" s="3">
         <v>151</v>
       </c>
@@ -17166,7 +17449,7 @@
         <v>75</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>224</v>
@@ -17174,16 +17457,16 @@
       <c r="G158" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H158" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I158" s="14" t="s">
-        <v>427</v>
+      <c r="H158" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J158" s="6"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="3">
         <v>152</v>
       </c>
@@ -17195,7 +17478,7 @@
         <v>221</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>223</v>
@@ -17203,16 +17486,16 @@
       <c r="G159" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H159" s="32" t="s">
-        <v>258</v>
+      <c r="H159" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="I159" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J159" s="6"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:11" ht="300" x14ac:dyDescent="0.4">
       <c r="A160" s="3">
         <v>153</v>
       </c>
@@ -17224,7 +17507,7 @@
         <v>75</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F160" s="4" t="s">
         <v>224</v>
@@ -17232,16 +17515,16 @@
       <c r="G160" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H160" s="32" t="s">
-        <v>399</v>
+      <c r="H160" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="I160" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J160" s="6"/>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="3">
         <v>154</v>
       </c>
@@ -17253,7 +17536,7 @@
         <v>221</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>223</v>
@@ -17261,11 +17544,11 @@
       <c r="G161" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H161" s="32" t="s">
-        <v>259</v>
+      <c r="H161" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="I161" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J161" s="6"/>
       <c r="K161" s="5"/>
@@ -17282,7 +17565,7 @@
         <v>75</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F162" s="4" t="s">
         <v>224</v>
@@ -17290,16 +17573,16 @@
       <c r="G162" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H162" s="32" t="s">
-        <v>400</v>
+      <c r="H162" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="I162" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J162" s="6"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="3">
         <v>156</v>
       </c>
@@ -17311,7 +17594,7 @@
         <v>221</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>223</v>
@@ -17319,16 +17602,16 @@
       <c r="G163" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H163" s="32" t="s">
-        <v>260</v>
+      <c r="H163" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J163" s="6"/>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A164" s="3">
         <v>157</v>
       </c>
@@ -17340,7 +17623,7 @@
         <v>75</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>224</v>
@@ -17348,16 +17631,16 @@
       <c r="G164" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H164" s="32" t="s">
-        <v>401</v>
+      <c r="H164" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J164" s="6"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="3">
         <v>158</v>
       </c>
@@ -17369,7 +17652,7 @@
         <v>221</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>223</v>
@@ -17377,11 +17660,11 @@
       <c r="G165" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H165" s="32" t="s">
-        <v>261</v>
+      <c r="H165" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J165" s="6"/>
       <c r="K165" s="5"/>
@@ -17398,7 +17681,7 @@
         <v>75</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F166" s="4" t="s">
         <v>224</v>
@@ -17406,69 +17689,69 @@
       <c r="G166" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H166" s="32" t="s">
-        <v>402</v>
+      <c r="H166" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J166" s="6"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="3">
         <v>160</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E167" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G167" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F167" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H167" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="I167" s="5" t="s">
-        <v>427</v>
+      <c r="H167" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I167" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J167" s="6"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A168" s="3">
         <v>161</v>
       </c>
       <c r="B168" s="3"/>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E168" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="15" t="s">
-        <v>218</v>
+        <v>75</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H168" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="I168" s="5" t="s">
-        <v>427</v>
+        <v>225</v>
+      </c>
+      <c r="H168" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="I168" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J168" s="6"/>
       <c r="K168" s="5"/>
@@ -17482,145 +17765,145 @@
         <v>41</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="E169" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F169" s="15" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="H169" s="35" t="s">
-        <v>241</v>
+        <v>235</v>
+      </c>
+      <c r="H169" s="22" t="s">
+        <v>236</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J169" s="6"/>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A170" s="3">
         <v>163</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="G170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E170" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H170" s="35" t="s">
-        <v>374</v>
+      <c r="F170" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="H170" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J170" s="6"/>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A171" s="3">
         <v>164</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="H171" s="35" t="s">
-        <v>377</v>
+        <v>41</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E171" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="H171" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J171" s="6"/>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A172" s="3">
         <v>165</v>
       </c>
-      <c r="B172" s="3"/>
+      <c r="B172" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="C172" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="E172" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G172" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F172" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="H172" s="35" t="s">
-        <v>379</v>
+      <c r="H172" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J172" s="6"/>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A173" s="3">
         <v>166</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>380</v>
+        <v>80</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>372</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="H173" s="35" t="s">
-        <v>383</v>
+        <v>375</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="H173" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J173" s="6"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A174" s="3">
         <v>167</v>
       </c>
@@ -17629,22 +17912,22 @@
         <v>41</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>384</v>
+        <v>106</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>372</v>
+        <v>19</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H174" s="35" t="s">
-        <v>387</v>
+        <v>108</v>
+      </c>
+      <c r="H174" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J174" s="6"/>
       <c r="K174" s="5"/>
@@ -17658,91 +17941,91 @@
         <v>41</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>389</v>
+        <v>372</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="H175" s="35" t="s">
-        <v>392</v>
-      </c>
-      <c r="I175" s="14" t="s">
-        <v>427</v>
+        <v>382</v>
+      </c>
+      <c r="H175" s="22" t="s">
+        <v>383</v>
+      </c>
+      <c r="I175" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J175" s="6"/>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:11" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A176" s="3">
         <v>169</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="B176" s="3"/>
       <c r="C176" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>221</v>
+        <v>41</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>384</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>222</v>
+        <v>372</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>223</v>
+        <v>385</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H176" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="I176" s="14" t="s">
-        <v>427</v>
+        <v>386</v>
+      </c>
+      <c r="H176" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="I176" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J176" s="6"/>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:11" ht="225" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A177" s="3">
         <v>170</v>
       </c>
       <c r="B177" s="3"/>
-      <c r="C177" s="18" t="s">
+      <c r="C177" s="3" t="s">
         <v>41</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>75</v>
+        <v>388</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>222</v>
+        <v>389</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>224</v>
+        <v>390</v>
       </c>
       <c r="G177" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H177" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
+      </c>
+      <c r="H177" s="22" t="s">
+        <v>392</v>
       </c>
       <c r="I177" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J177" s="6"/>
       <c r="K177" s="5"/>
     </row>
-    <row r="178" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:11" ht="376.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="3">
         <v>171</v>
       </c>
-      <c r="B178" s="3"/>
+      <c r="B178" s="3" t="s">
+        <v>242</v>
+      </c>
       <c r="C178" s="3" t="s">
         <v>80</v>
       </c>
@@ -17750,7 +18033,7 @@
         <v>221</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>223</v>
@@ -17758,16 +18041,16 @@
       <c r="G178" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H178" s="32" t="s">
-        <v>255</v>
+      <c r="H178" s="19" t="s">
+        <v>254</v>
       </c>
       <c r="I178" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J178" s="6"/>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:11" ht="225" x14ac:dyDescent="0.4">
       <c r="A179" s="3">
         <v>172</v>
       </c>
@@ -17779,7 +18062,7 @@
         <v>75</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>224</v>
@@ -17787,16 +18070,16 @@
       <c r="G179" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H179" s="32" t="s">
-        <v>396</v>
+      <c r="H179" s="19" t="s">
+        <v>395</v>
       </c>
       <c r="I179" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J179" s="6"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:11" ht="373.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="3">
         <v>173</v>
       </c>
@@ -17808,7 +18091,7 @@
         <v>221</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>223</v>
@@ -17816,16 +18099,16 @@
       <c r="G180" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H180" s="32" t="s">
-        <v>256</v>
+      <c r="H180" s="19" t="s">
+        <v>255</v>
       </c>
       <c r="I180" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J180" s="6"/>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:11" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A181" s="3">
         <v>174</v>
       </c>
@@ -17837,7 +18120,7 @@
         <v>75</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>224</v>
@@ -17845,16 +18128,16 @@
       <c r="G181" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H181" s="32" t="s">
-        <v>397</v>
-      </c>
-      <c r="I181" s="5" t="s">
-        <v>427</v>
+      <c r="H181" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="I181" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J181" s="6"/>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:11" ht="385.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="3">
         <v>175</v>
       </c>
@@ -17866,7 +18149,7 @@
         <v>221</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>223</v>
@@ -17874,16 +18157,16 @@
       <c r="G182" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H182" s="32" t="s">
-        <v>257</v>
+      <c r="H182" s="19" t="s">
+        <v>256</v>
       </c>
       <c r="I182" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J182" s="6"/>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:11" ht="300" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A183" s="3">
         <v>176</v>
       </c>
@@ -17895,7 +18178,7 @@
         <v>75</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>224</v>
@@ -17903,16 +18186,16 @@
       <c r="G183" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="32" t="s">
-        <v>398</v>
-      </c>
-      <c r="I183" s="14" t="s">
-        <v>427</v>
+      <c r="H183" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="I183" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J183" s="6"/>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:11" ht="399" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="3">
         <v>177</v>
       </c>
@@ -17924,7 +18207,7 @@
         <v>221</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>223</v>
@@ -17932,16 +18215,16 @@
       <c r="G184" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H184" s="32" t="s">
-        <v>258</v>
+      <c r="H184" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="I184" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J184" s="6"/>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:11" ht="300" x14ac:dyDescent="0.4">
       <c r="A185" s="3">
         <v>178</v>
       </c>
@@ -17953,7 +18236,7 @@
         <v>75</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>224</v>
@@ -17961,16 +18244,16 @@
       <c r="G185" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H185" s="32" t="s">
-        <v>399</v>
+      <c r="H185" s="19" t="s">
+        <v>398</v>
       </c>
       <c r="I185" s="14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="J185" s="6"/>
       <c r="K185" s="5"/>
     </row>
-    <row r="186" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:11" ht="402" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="3">
         <v>179</v>
       </c>
@@ -17982,7 +18265,7 @@
         <v>221</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F186" s="4" t="s">
         <v>223</v>
@@ -17990,11 +18273,11 @@
       <c r="G186" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H186" s="32" t="s">
-        <v>259</v>
+      <c r="H186" s="19" t="s">
+        <v>258</v>
       </c>
       <c r="I186" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J186" s="6"/>
       <c r="K186" s="5"/>
@@ -18011,7 +18294,7 @@
         <v>75</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>224</v>
@@ -18019,16 +18302,16 @@
       <c r="G187" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H187" s="32" t="s">
-        <v>400</v>
+      <c r="H187" s="19" t="s">
+        <v>399</v>
       </c>
       <c r="I187" s="14" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="J187" s="6"/>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:11" ht="370.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="3">
         <v>181</v>
       </c>
@@ -18040,7 +18323,7 @@
         <v>221</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>223</v>
@@ -18048,16 +18331,16 @@
       <c r="G188" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H188" s="32" t="s">
-        <v>260</v>
+      <c r="H188" s="19" t="s">
+        <v>259</v>
       </c>
       <c r="I188" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J188" s="6"/>
       <c r="K188" s="5"/>
     </row>
-    <row r="189" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:11" ht="318.75" x14ac:dyDescent="0.4">
       <c r="A189" s="3">
         <v>182</v>
       </c>
@@ -18069,7 +18352,7 @@
         <v>75</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>224</v>
@@ -18077,16 +18360,16 @@
       <c r="G189" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H189" s="32" t="s">
-        <v>401</v>
+      <c r="H189" s="19" t="s">
+        <v>400</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J189" s="6"/>
       <c r="K189" s="5"/>
     </row>
-    <row r="190" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:11" ht="365.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="3">
         <v>183</v>
       </c>
@@ -18098,7 +18381,7 @@
         <v>221</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>223</v>
@@ -18106,11 +18389,11 @@
       <c r="G190" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H190" s="32" t="s">
-        <v>261</v>
+      <c r="H190" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="I190" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J190" s="6"/>
       <c r="K190" s="5"/>
@@ -18127,7 +18410,7 @@
         <v>75</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>224</v>
@@ -18135,74 +18418,74 @@
       <c r="G191" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="H191" s="32" t="s">
-        <v>402</v>
+      <c r="H191" s="19" t="s">
+        <v>401</v>
       </c>
       <c r="I191" s="14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J191" s="6"/>
       <c r="K191" s="5"/>
     </row>
-    <row r="192" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:11" ht="366" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="3">
         <v>185</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E192" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G192" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F192" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="G192" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="H192" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="I192" s="5" t="s">
-        <v>427</v>
+      <c r="H192" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="I192" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J192" s="6"/>
       <c r="K192" s="5"/>
     </row>
-    <row r="193" spans="1:11" ht="36" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:11" ht="356.25" x14ac:dyDescent="0.4">
       <c r="A193" s="3">
         <v>186</v>
       </c>
       <c r="B193" s="3"/>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="18" t="s">
         <v>41</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E193" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F193" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="H193" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="I193" s="5" t="s">
-        <v>427</v>
+        <v>75</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="G193" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H193" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="I193" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="J193" s="6"/>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:11" ht="36" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:11" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A194" s="3">
         <v>187</v>
       </c>
@@ -18211,56 +18494,114 @@
         <v>41</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="E194" s="15" t="s">
         <v>19</v>
       </c>
       <c r="F194" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="G194" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="H194" s="35" t="s">
-        <v>253</v>
+        <v>243</v>
+      </c>
+      <c r="G194" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="H194" s="22" t="s">
+        <v>245</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J194" s="6"/>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:11" ht="36" x14ac:dyDescent="0.4">
       <c r="A195" s="3">
         <v>188</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="B195" s="3"/>
       <c r="C195" s="3" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E195" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E195" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F195" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="H195" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="I195" s="14" t="s">
-        <v>427</v>
+      <c r="F195" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="G195" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="H195" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="J195" s="6"/>
       <c r="K195" s="5"/>
+    </row>
+    <row r="196" spans="1:11" ht="36" x14ac:dyDescent="0.4">
+      <c r="A196" s="3">
+        <v>189</v>
+      </c>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="H196" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="J196" s="6"/>
+      <c r="K196" s="5"/>
+    </row>
+    <row r="197" spans="1:11" ht="75" x14ac:dyDescent="0.4">
+      <c r="A197" s="3">
+        <v>190</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G197" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H197" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="I197" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="J197" s="6"/>
+      <c r="K197" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A7:M37" xr:uid="{0C57A352-27A4-4D56-83AE-0CBA12DC6A26}"/>
@@ -18300,14 +18641,46 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"✖"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"〇"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"✖"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA23C6C-82B0-43CA-885A-68FC87C99F5B}">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>